--- a/Data/history_nocalib.xlsx
+++ b/Data/history_nocalib.xlsx
@@ -11,11 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Delayed transition" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fragmented World" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low demand" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net Zero 2050" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nationally Determined Contribu" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optimistic" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pessimistic" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Middle" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nationally Determined Contribu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net Zero 2050" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -436,7 +433,7 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -532,85 +529,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1426202453823174</v>
+        <v>0.1428677267253915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1424318507277149</v>
+        <v>0.143560204250425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1408528488716266</v>
+        <v>0.1460162282127643</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1338798278943837</v>
+        <v>0.1411189197405213</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1382220082545333</v>
+        <v>0.1449590719958049</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1290329078350946</v>
+        <v>0.1343739011478516</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1365475546838784</v>
+        <v>0.1272291746712465</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1383826855196541</v>
+        <v>0.1265455666210165</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1390538378919919</v>
+        <v>0.1279024694012592</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1408431585292428</v>
+        <v>0.1286551916585465</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1409302476640557</v>
+        <v>0.1297494530555814</v>
       </c>
       <c r="M2" t="n">
-        <v>0.142284217786062</v>
+        <v>0.1302699439034185</v>
       </c>
       <c r="N2" t="n">
-        <v>0.141321178035643</v>
+        <v>0.1299888629489345</v>
       </c>
       <c r="O2" t="n">
-        <v>0.144450970809046</v>
+        <v>0.130532275194622</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1463113506922714</v>
+        <v>0.1324242892569453</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1481142818293918</v>
+        <v>0.1319388322861237</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1496408715182745</v>
+        <v>0.135176580336436</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1584673859676091</v>
+        <v>0.1407006756864337</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1499604932008322</v>
+        <v>0.1425373513905665</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1736611335396198</v>
+        <v>0.1425910799743573</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1979104265041759</v>
+        <v>0.1500379423485191</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2222339426580079</v>
+        <v>0.1522987991343662</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2262445716584917</v>
+        <v>0.1589571845643872</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.332923691598187</v>
+        <v>0.1682710110742115</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3151096390174616</v>
+        <v>0.1750165025260028</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3179916296147093</v>
+        <v>0.1470032661825684</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1972515264573012</v>
+        <v>0.1027765676284779</v>
       </c>
     </row>
     <row r="3">
@@ -620,85 +617,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1448471753039034</v>
+        <v>0.1428534104261248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1463129443009874</v>
+        <v>0.1403424021995311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1490980290062411</v>
+        <v>0.1362947812217353</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1606483165906967</v>
+        <v>0.1447524225548036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1538221587171107</v>
+        <v>0.1383904848154134</v>
       </c>
       <c r="G3" t="n">
-        <v>0.168982668643697</v>
+        <v>0.1564032612572339</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1571479770328053</v>
+        <v>0.1682009279587187</v>
       </c>
       <c r="I3" t="n">
-        <v>0.145778615574129</v>
+        <v>0.1792170134791162</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1439754892738736</v>
+        <v>0.1663978470439622</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1301622297812534</v>
+        <v>0.1603507951626328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1389987075907838</v>
+        <v>0.1419497193016336</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1316667686990118</v>
+        <v>0.1314635067490484</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1656807965883263</v>
+        <v>0.1084443363451933</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1363612803168993</v>
+        <v>0.1056320049271026</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1454227327997619</v>
+        <v>0.114893954188106</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1648497898280044</v>
+        <v>0.1020320450210458</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1152135101865058</v>
+        <v>0.1145908350506006</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1659234713864397</v>
+        <v>0.1713357534121135</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08606588391706674</v>
+        <v>0.1912591035661979</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1197865721336433</v>
+        <v>0.1383471845950893</v>
       </c>
       <c r="V3" t="n">
-        <v>0.19914363201037</v>
+        <v>0.1891524688065911</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1726228384405427</v>
+        <v>0.2436462304070271</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2602824692423453</v>
+        <v>0.2027132082865541</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.121345864092147</v>
+        <v>0.1896606160992289</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1667914218533275</v>
+        <v>0.3198599714031466</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1727681734515899</v>
+        <v>0.4000113892809022</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3141299577947374</v>
+        <v>0.4675975820378819</v>
       </c>
     </row>
     <row r="4">
@@ -708,85 +705,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1448471815924846</v>
+        <v>0.1428534103930385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1463129553036191</v>
+        <v>0.1403423985911299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1490978845237595</v>
+        <v>0.1362948457947936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1606473427761498</v>
+        <v>0.1447523692417124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1538217714274313</v>
+        <v>0.1383905347269605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1689811970795005</v>
+        <v>0.156403048819221</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1571474873729169</v>
+        <v>0.168200525233358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1621023141825145</v>
+        <v>0.1621406337166143</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1627783799675614</v>
+        <v>0.1685336608112181</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1690927122484389</v>
+        <v>0.1714413076079</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1647818592243545</v>
+        <v>0.181660547049559</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1681766254366908</v>
+        <v>0.187628921607576</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1501597019312659</v>
+        <v>0.2012672531613427</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1648939844508379</v>
+        <v>0.2026170422296124</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1593546984617775</v>
+        <v>0.1960400911202552</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1479430708027815</v>
+        <v>0.2040379554780965</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1758519273337101</v>
+        <v>0.1947508404295513</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1355958161284709</v>
+        <v>0.1469348897336158</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1954929374572796</v>
+        <v>0.1304095620117091</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1560028781948066</v>
+        <v>0.1672764968751317</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0810242195468884</v>
+        <v>0.1215135848678598</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08127620901192997</v>
+        <v>0.08124318512400641</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01072876143962045</v>
+        <v>0.09809684491260498</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02915912322613795</v>
+        <v>0.09680154015507704</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.840997996500785e-24</v>
+        <v>0.02095333377659987</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.430928535586574e-83</v>
+        <v>0.001906460965759016</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.547323447388527e-115</v>
+        <v>6.933517133430504e-06</v>
       </c>
     </row>
     <row r="5">
@@ -796,85 +793,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1448454796843149</v>
+        <v>0.1428533979358045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1463099776209877</v>
+        <v>0.1403410402423306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1490949591170679</v>
+        <v>0.1362923361828226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1606447639280363</v>
+        <v>0.1447518351514236</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1538189202327422</v>
+        <v>0.1383882602011844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1689787977685964</v>
+        <v>0.1564051789329759</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1571446403863776</v>
+        <v>0.1682058629981082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1571469425398491</v>
+        <v>0.1674446233520267</v>
       </c>
       <c r="J5" t="n">
-        <v>0.157785145173466</v>
+        <v>0.1691000561632956</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1568979398958956</v>
+        <v>0.1700333050107447</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1594520049227861</v>
+        <v>0.1712390560680828</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1595123508225094</v>
+        <v>0.1717831231085936</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1623961282389667</v>
+        <v>0.1716966893510164</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1629276334508862</v>
+        <v>0.1724369029225882</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1664718424178104</v>
+        <v>0.1747764449906205</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1713234337224321</v>
+        <v>0.1743133211471522</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1665936241978896</v>
+        <v>0.1783595129933152</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1741105926391828</v>
+        <v>0.1768789298972577</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1681957337688068</v>
+        <v>0.1761407110188739</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1925630187508375</v>
+        <v>0.1833806700056123</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2145520275186822</v>
+        <v>0.1843462901177744</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2425839898154278</v>
+        <v>0.1786490103875862</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2353802551676289</v>
+        <v>0.192880986015817</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3794169119530112</v>
+        <v>0.2065149075422749</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.331447868500103</v>
+        <v>0.1863857449301476</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3119387945515334</v>
+        <v>0.136106486153523</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1378209800768174</v>
+        <v>0.07767584024921466</v>
       </c>
     </row>
     <row r="6">
@@ -884,85 +881,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1395718287842953</v>
+        <v>0.142852745599399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.137169131067032</v>
+        <v>0.1467240703018851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1345315937757763</v>
+        <v>0.1503176681366876</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1240492497481671</v>
+        <v>0.142586302187231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1300067024460226</v>
+        <v>0.1482532951166612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1162859016800243</v>
+        <v>0.1319353948449366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1266307328702329</v>
+        <v>0.1214494171435742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1323037107941445</v>
+        <v>0.1166442866276945</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1325728715200569</v>
+        <v>0.1216027090862103</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1403274904025827</v>
+        <v>0.1238292926898972</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1333922799059136</v>
+        <v>0.1319291285228145</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1369509567114743</v>
+        <v>0.1366715777296185</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1150467148523858</v>
+        <v>0.1493869936011593</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1308660247306539</v>
+        <v>0.1503016840167136</v>
       </c>
       <c r="P6" t="n">
-        <v>0.122237646582824</v>
+        <v>0.1432198102771628</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1066043289947503</v>
+        <v>0.1506817911765396</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1386025601541466</v>
+        <v>0.1403490081983027</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1077632019345891</v>
+        <v>0.1171072647249462</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1539331295432066</v>
+        <v>0.1088289629106472</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1243972413184407</v>
+        <v>0.1297216458236465</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06650015450700085</v>
+        <v>0.1077976634289631</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06776629940404529</v>
+        <v>0.08479307000336667</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002625204306912847</v>
+        <v>0.1022586475709806</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0003016625152204904</v>
+        <v>0.1017257208678343</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.02367601965839807</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.002477565376364748</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1.478385957283986e-05</v>
       </c>
     </row>
     <row r="7">
@@ -972,85 +969,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1432973602251329</v>
+        <v>0.1428650920828524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1436086975358956</v>
+        <v>0.1421297327931997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1421352280204285</v>
+        <v>0.1446651018367213</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1355221541832254</v>
+        <v>0.1395622425781759</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1396921618143297</v>
+        <v>0.1435311568289693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1309711221278041</v>
+        <v>0.1325329660645913</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1381817141139205</v>
+        <v>0.1251524913610451</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1313538309493529</v>
+        <v>0.1312250826027368</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1306398550856202</v>
+        <v>0.1247417778519913</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1216380870523589</v>
+        <v>0.1217488946790426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1284511523152542</v>
+        <v>0.1114752442499029</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1238278252926251</v>
+        <v>0.1054702409214118</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1491781999841364</v>
+        <v>0.09018459824742439</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1287029118353719</v>
+        <v>0.08851848742483787</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1366858606365626</v>
+        <v>0.09542510495094451</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.152785565173422</v>
+        <v>0.08654283481279665</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1143064301847338</v>
+        <v>0.09611956661254645</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1583217324464966</v>
+        <v>0.137234614912034</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09015193484375242</v>
+        <v>0.1517867413944159</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1236263767300102</v>
+        <v>0.1147094326675133</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1984299852220351</v>
+        <v>0.1526826135990741</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1790890724786846</v>
+        <v>0.1923516693495306</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2640832460729649</v>
+        <v>0.1643493629827166</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1368513528170809</v>
+        <v>0.1562736779442781</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1866510706291079</v>
+        <v>0.2543705631127271</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1973014023821674</v>
+        <v>0.3102302184573705</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3507975356711441</v>
+        <v>0.3519098590207974</v>
       </c>
     </row>
     <row r="8">
@@ -1060,803 +1057,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1399707290275514</v>
+        <v>0.1428542168373894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1378544434437632</v>
+        <v>0.1465601516214985</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1351894566851002</v>
+        <v>0.1501190386144753</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124608344879341</v>
+        <v>0.1424759085461321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1306162771078304</v>
+        <v>0.1480871963150064</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1167674048652832</v>
+        <v>0.1319462489331899</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1271998935398684</v>
+        <v>0.1215616006339493</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1329319004403558</v>
+        <v>0.1167827936007948</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1331944210874301</v>
+        <v>0.1217214796420632</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1410383820902278</v>
+        <v>0.1239412131912362</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1339937483768521</v>
+        <v>0.1319968517524258</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1375812552516267</v>
+        <v>0.1367126859803333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.116217280369276</v>
+        <v>0.1490312663449295</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1317971944063049</v>
+        <v>0.1499616032845232</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1235158684089921</v>
+        <v>0.1432203052159656</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.108379529649218</v>
+        <v>0.1504532200782454</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1397910764247397</v>
+        <v>0.1406536563792479</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09981779949721188</v>
+        <v>0.109807871633599</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1561998872690556</v>
+        <v>0.09903756770758945</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1099627793326419</v>
+        <v>0.1239734900586496</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04243955469084786</v>
+        <v>0.09446943683121833</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03442764819136182</v>
+        <v>0.06701803559411677</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0006554921120359579</v>
+        <v>0.08074376566693948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.393798215432406e-06</v>
+        <v>0.08075252631709515</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.16401546816207e-157</v>
+        <v>0.01973786459297798</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.309328794335675e-187</v>
+        <v>0.002264613583512149</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.419802867792787e-214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2026</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>2027</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>2028</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>2030</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>2031</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>2033</v>
-      </c>
-      <c r="L1" s="2" t="n">
-        <v>2034</v>
-      </c>
-      <c r="M1" s="2" t="n">
-        <v>2035</v>
-      </c>
-      <c r="N1" s="2" t="n">
-        <v>2036</v>
-      </c>
-      <c r="O1" s="2" t="n">
-        <v>2037</v>
-      </c>
-      <c r="P1" s="2" t="n">
-        <v>2038</v>
-      </c>
-      <c r="Q1" s="2" t="n">
-        <v>2039</v>
-      </c>
-      <c r="R1" s="2" t="n">
-        <v>2040</v>
-      </c>
-      <c r="S1" s="2" t="n">
-        <v>2041</v>
-      </c>
-      <c r="T1" s="2" t="n">
-        <v>2042</v>
-      </c>
-      <c r="U1" s="2" t="n">
-        <v>2043</v>
-      </c>
-      <c r="V1" s="2" t="n">
-        <v>2044</v>
-      </c>
-      <c r="W1" s="2" t="n">
-        <v>2045</v>
-      </c>
-      <c r="X1" s="2" t="n">
-        <v>2046</v>
-      </c>
-      <c r="Y1" s="2" t="n">
-        <v>2047</v>
-      </c>
-      <c r="Z1" s="2" t="n">
-        <v>2048</v>
-      </c>
-      <c r="AA1" s="2" t="n">
-        <v>2049</v>
-      </c>
-      <c r="AB1" s="2" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Below 2°C</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1428443853328612</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.142883030366785</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1377454975262306</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1409821631444327</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1497332976391381</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1541040977561147</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1522703050695516</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1529550066994626</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1551794454367276</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.155220321405743</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1535740662648803</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1504721913206626</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.1561499645642177</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.1566849862829345</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1498651549008972</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1497023832730298</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1675477452360738</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.156376255983199</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.2076134655869513</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.2285183487066842</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.238556678916343</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.2848600017486767</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.3277403064709656</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.2378918939581246</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5.319943134523897e-30</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.2167725121412359</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.1030426000615919</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Current Policies</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1430290420331843</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1427560089506492</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.151584127340239</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1463414544662475</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1311856768687907</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1233944654226827</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1274430125499732</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1256472584814847</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1027637534230526</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08114995124165321</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.06584826677050983</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.05311756427237795</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.06289328568117331</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.05905039246597639</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.04384062140212716</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.03988363658158411</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.05445437780003526</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.03731988915125249</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08883732183515532</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.1675659574306886</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.09989900839313898</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.1286550642165487</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1637568267395896</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.01752060663778257</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4.354490536637913e-35</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>4.826003858089372e-08</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.686714334579577e-11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Delayed transition</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1430290425309059</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1427560085497489</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1515835201961706</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1463412862519451</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1311865102556906</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1233957554719013</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1274441879278278</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1280481994180269</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1367653478726875</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.145152657716164</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1510683130424234</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1558253189240645</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1513673731812493</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1532635792828593</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1606074802388134</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1630409408308031</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1571875370553886</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.1718923513940946</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.1206664739831896</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.06287159297994749</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1013221279699119</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.06148650448590966</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.01771893813879255</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.4401430227089385</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.003562673403965264</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.893814740239905e-08</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Fragmented World</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1430289078239391</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1427561170376629</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1515840604619735</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1463415150354906</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1311860258406712</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1233949452181396</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1274434610813512</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1278623860871286</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1250944487394206</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1200790110204434</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1147158221360573</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1085099147374841</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1142875835356507</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.1142486737992701</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1067814254124096</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1059944983811743</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.12200920840552</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.1148912413628243</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.1486984511696741</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.159385622562774</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.1699993720960768</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.2008445171663633</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.2257857281491263</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1936041096916414</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.213772243357317e-29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.7796645561015677</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.896957350344008</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Low demand</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1425638714818498</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1430070517053102</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1347580321648315</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1394581275595125</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1536940860379093</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1611498064313749</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1568119594396015</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1573849029691291</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1749431641491094</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1945607395050666</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2107550911322792</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2264849578372842</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2115611451308056</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.2142648471988659</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.2351654629095465</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2387177726931301</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2059587851463262</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.2245632513601378</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.1604069989667916</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.08551161885372845</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.1366682924359154</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.08595164210276179</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.009388498446890155</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.0772806365190262</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Nationally Determined Contributions (NDCs)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1429023185617399</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1428475973038559</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1380372313550819</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1411111470717841</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1492875939712663</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1533403993897468</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1517384513298391</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1506859052192888</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1301327406514802</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1088907948809299</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.09269123221984965</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.07827636951574175</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.09064244530891671</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.08664046129594265</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.067787599822053</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.06306813080051937</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.08384166208160791</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.06066156278472505</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.1340750972583045</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.2378416398296287</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.1533108597106493</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.1981452790833927</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2531627133523677</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.03198362306644215</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.50797610924036e-34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.100931924398598e-07</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.593856450873967e-10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Net Zero 2050</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1426024322355195</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1429941860859878</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1347075309554728</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1394243064705876</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1537268093865337</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.16122053031004</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1568486226018557</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1574163411254792</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.175121099727522</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1949465242299998</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2113472084340003</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2273136833923851</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.2130982025979866</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.2158470596741511</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.235952255314153</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.2395926374397594</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.2090006842750484</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2342954479637667</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.1397021911999336</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.05830521963654874</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.1002436604779647</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.0400569911963472</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.002446988702268432</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.001576107418044608</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>3.549810931796662e-42</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>3.766049378312523e-24</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.602298374682313e-27</v>
+        <v>1.843368692208204e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1151,7 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1968,85 +1247,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1428647231862548</v>
+        <v>0.1421142230575402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1427375956681532</v>
+        <v>0.1420495366988281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154696038594316</v>
+        <v>0.136494350729332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1570661493728671</v>
+        <v>0.1355504078661907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1482922493486321</v>
+        <v>0.1416315466246434</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1487620752547227</v>
+        <v>0.131664950865506</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1352583519160152</v>
+        <v>0.1222582652832557</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1386099318386839</v>
+        <v>0.1223898478465627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1371108992082379</v>
+        <v>0.1241160915184153</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1350828114817821</v>
+        <v>0.1240601508305841</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1307922790590059</v>
+        <v>0.1244389746721069</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1358440981772644</v>
+        <v>0.1250972844360959</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1397818170464226</v>
+        <v>0.1230393584349835</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1390601377160197</v>
+        <v>0.1239229167777456</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1445494515120587</v>
+        <v>0.1258894859889261</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1464874890992338</v>
+        <v>0.1270278106414345</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1455108818099461</v>
+        <v>0.1281174466358361</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1381351958846749</v>
+        <v>0.1287786032315834</v>
       </c>
       <c r="T2" t="n">
-        <v>0.169826929613344</v>
+        <v>0.1314155301920661</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1727213336989302</v>
+        <v>0.1298494334430107</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1890620028852824</v>
+        <v>0.1354843481292834</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2136647481052478</v>
+        <v>0.1428001295209378</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2020275079893356</v>
+        <v>0.1528555221192147</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1201049150633997</v>
+        <v>0.1718441329577208</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06184664400734824</v>
+        <v>0.1825991321051098</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1377846728881296</v>
+        <v>0.1895100947779859</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2848636460673299</v>
+        <v>0.2048078964070637</v>
       </c>
     </row>
     <row r="3">
@@ -2056,85 +1335,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1428527832577242</v>
+        <v>0.1454266893356469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1440082111584274</v>
+        <v>0.1456766371953147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123170402190539</v>
+        <v>0.1547547614597287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1190044607300234</v>
+        <v>0.1563912545086165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1354556072131995</v>
+        <v>0.1466601728784492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1349871655459007</v>
+        <v>0.1629987620502473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1587444956754272</v>
+        <v>0.1779016697974402</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1328936833162296</v>
+        <v>0.1794611566363022</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1521147796190571</v>
+        <v>0.1590307692351602</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1720501378473502</v>
+        <v>0.1666351352561336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2030491616069399</v>
+        <v>0.167315359770866</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1745112710503157</v>
+        <v>0.1634837599274346</v>
       </c>
       <c r="N3" t="n">
-        <v>0.116292861615253</v>
+        <v>0.2001423961025298</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0914263471066231</v>
+        <v>0.1974748232339279</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1239902950411045</v>
+        <v>0.179310029810969</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1702751301803893</v>
+        <v>0.1748444803231219</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09881463405638012</v>
+        <v>0.1781974149242829</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06653894321307603</v>
+        <v>0.1464952761488422</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1639417873341025</v>
+        <v>0.1535836866991648</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2370106042343072</v>
+        <v>0.1225574606050351</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1552280599791745</v>
+        <v>0.1332824654519565</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2146322361541081</v>
+        <v>0.1472493496306699</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2916723559555026</v>
+        <v>0.1584757732679638</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3985093790652302</v>
+        <v>0.2482745402965916</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.4703858175737825</v>
+        <v>0.2781500980305951</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.376271071325076</v>
+        <v>0.3161156898704493</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2084694601884483</v>
+        <v>0.3120659891944857</v>
       </c>
     </row>
     <row r="4">
@@ -2144,85 +1423,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1428527832023172</v>
+        <v>0.1454266930945199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1440082146922067</v>
+        <v>0.1456766412971737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1231717356306185</v>
+        <v>0.1547546221802575</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1190060435621527</v>
+        <v>0.1563910964439315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1354563960809349</v>
+        <v>0.1466601810098749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1349880471766973</v>
+        <v>0.1629985197494736</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1587440065398407</v>
+        <v>0.1779011675707315</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1703671490575072</v>
+        <v>0.1766770241417802</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1613370805505106</v>
+        <v>0.1879628301653359</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1520474875807901</v>
+        <v>0.1829960323534348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1379100713517134</v>
+        <v>0.182068451346346</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1505542695180637</v>
+        <v>0.1838002611319819</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1805021711654543</v>
+        <v>0.1629067338826832</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1944363187489129</v>
+        <v>0.1637487903881187</v>
       </c>
       <c r="P4" t="n">
-        <v>0.174968474761575</v>
+        <v>0.1733259320594246</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.147911363520196</v>
+        <v>0.1751798298070364</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1896788817184726</v>
+        <v>0.1722531502997415</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2167018631077877</v>
+        <v>0.1951835525960838</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1275385155520714</v>
+        <v>0.1853867432161502</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07484517763501049</v>
+        <v>0.2111569143621713</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1190351810532467</v>
+        <v>0.193278930692285</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05526646981837566</v>
+        <v>0.1702847229066665</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007254342597510314</v>
+        <v>0.1509395480415002</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.160619391853642e-06</v>
+        <v>0.07142735987424648</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.179696883787835e-30</v>
+        <v>0.04101176843281992</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.588528232803567e-81</v>
+        <v>0.01169523019408533</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.082570980767445e-102</v>
+        <v>0.001192427235476881</v>
       </c>
     </row>
     <row r="5">
@@ -2232,85 +1511,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1428527981929299</v>
+        <v>0.145428108095268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1440072583197974</v>
+        <v>0.1456781854104605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1231699858613159</v>
+        <v>0.1547587740383135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1190041466557989</v>
+        <v>0.1563955948971519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.135454946489018</v>
+        <v>0.1466616655283639</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1349865356980565</v>
+        <v>0.1630045643202161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.158743298099417</v>
+        <v>0.1779119223411312</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1573814318880044</v>
+        <v>0.1781391779997785</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1601777874403944</v>
+        <v>0.1804021766146501</v>
       </c>
       <c r="K5" t="n">
-        <v>0.162327822651723</v>
+        <v>0.1804414061980565</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1637558926369885</v>
+        <v>0.1810204568194849</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1643630121085798</v>
+        <v>0.1819437631992352</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1627308832132433</v>
+        <v>0.1785520191920798</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1586062204187515</v>
+        <v>0.1798400587773958</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1700748669645282</v>
+        <v>0.1828702503293028</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1789436133732184</v>
+        <v>0.1845508288999644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1677328186248244</v>
+        <v>0.1860640063329347</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1608519668537885</v>
+        <v>0.1910007809852345</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1919478280197248</v>
+        <v>0.1933618920806525</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1916261231947714</v>
+        <v>0.1957909377988468</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2138405272496772</v>
+        <v>0.2017089996970133</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2375305172193603</v>
+        <v>0.2093085603991458</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2146107112981666</v>
+        <v>0.2209618231164107</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1149451687914486</v>
+        <v>0.2267757782462435</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05178833468744328</v>
+        <v>0.2327150804116538</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1251633836356482</v>
+        <v>0.2286686979937124</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2881219624268417</v>
+        <v>0.2439197413830484</v>
       </c>
     </row>
     <row r="6">
@@ -2320,85 +1599,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1428556470734876</v>
+        <v>0.1389320423155034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140935351545933</v>
+        <v>0.1385421431342179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1605597303070989</v>
+        <v>0.1306063984919291</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1645057414987037</v>
+        <v>0.129121137359983</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1482996074645664</v>
+        <v>0.1375068579493684</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1485268554629823</v>
+        <v>0.1231950487954711</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1260069177080815</v>
+        <v>0.1104426406132993</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1400992171569006</v>
+        <v>0.1095637542027291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1278858677357786</v>
+        <v>0.1171713669222685</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1159634236114666</v>
+        <v>0.1137024679477103</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09929571838351046</v>
+        <v>0.1129844148237507</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1127793570661498</v>
+        <v>0.1140731433092065</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1463246331765319</v>
+        <v>0.0981633203783165</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1639894388247243</v>
+        <v>0.09848890663197046</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1347990276184728</v>
+        <v>0.1053161479650855</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1010470577736606</v>
+        <v>0.1062687313182446</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1504685701555761</v>
+        <v>0.1033957264719428</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1712943055503525</v>
+        <v>0.1133921527610399</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1028403774406715</v>
+        <v>0.1106659126225603</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06141427263795934</v>
+        <v>0.121224745464765</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09704552096966303</v>
+        <v>0.1171159244409652</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04704795406797143</v>
+        <v>0.1116089459664163</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001861171664827368</v>
+        <v>0.09977905295416642</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.182611249451418e-10</v>
+        <v>0.04885666879827995</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.02908372141937167</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.009127274361254633</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.001258388743323077</v>
       </c>
     </row>
     <row r="7">
@@ -2408,85 +1687,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.142862727756129</v>
+        <v>0.143577101827508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1431280151750022</v>
+        <v>0.1436544066174101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1543006780567881</v>
+        <v>0.1377819577612975</v>
       </c>
       <c r="E7" t="n">
-        <v>0.156509125947125</v>
+        <v>0.1367717921273363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1484689555571446</v>
+        <v>0.1431738776809224</v>
       </c>
       <c r="G7" t="n">
-        <v>0.148953671063784</v>
+        <v>0.1326303427594633</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1363802144093516</v>
+        <v>0.1227453939921546</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1203197456116151</v>
+        <v>0.1238036178068304</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1333781417410289</v>
+        <v>0.1137595477360465</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1465619111090137</v>
+        <v>0.1180609377847878</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1660226358364027</v>
+        <v>0.1187786109592251</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1492145016195946</v>
+        <v>0.1171160932701511</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1091137507712164</v>
+        <v>0.1382543321427335</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09024914713485058</v>
+        <v>0.1372244982579783</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1171292238272604</v>
+        <v>0.1272572062240303</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1533590113235121</v>
+        <v>0.1251062279144882</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09799744266102885</v>
+        <v>0.1276727663517062</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0700301182254142</v>
+        <v>0.1082167976423902</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1577055113505773</v>
+        <v>0.1134408262014333</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2197462710105456</v>
+        <v>0.09329037593080254</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1547353384778231</v>
+        <v>0.1013594625563778</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2117542438776146</v>
+        <v>0.1118715881738658</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2821776592770086</v>
+        <v>0.1208824628522964</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3664363762422483</v>
+        <v>0.1846540472242465</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.415979203731426</v>
+        <v>0.2070677925360064</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3607808721511462</v>
+        <v>0.2350714295139257</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.21854493131738</v>
+        <v>0.2351280522982069</v>
       </c>
     </row>
     <row r="8">
@@ -2496,85 +1775,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1428585373311574</v>
+        <v>0.1390951422740136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1411753534404803</v>
+        <v>0.138722449646595</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1609314293593238</v>
+        <v>0.1308491353391417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1649043322333292</v>
+        <v>0.1293787167967901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1485722378465045</v>
+        <v>0.137705698328378</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1487956497978566</v>
+        <v>0.1235078114596226</v>
       </c>
       <c r="H8" t="n">
-        <v>0.126122715651867</v>
+        <v>0.1108389404019875</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1403288411310592</v>
+        <v>0.1099654213660169</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1279954437049925</v>
+        <v>0.1175572178081235</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1159664057178743</v>
+        <v>0.1141038696292929</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09917424112543917</v>
+        <v>0.1133937316082205</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1127334904600321</v>
+        <v>0.1144856947258949</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1452538830118784</v>
+        <v>0.09894183986667374</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1622323900501179</v>
+        <v>0.0993000059328632</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1344886602750005</v>
+        <v>0.1060309476222615</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1019763347297897</v>
+        <v>0.10702209109571</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1497967709737717</v>
+        <v>0.1042994889835559</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1764476071649063</v>
+        <v>0.1169328366348261</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08619905068950852</v>
+        <v>0.1121454089879729</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04263621758847579</v>
+        <v>0.1261301323953685</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07105336938513306</v>
+        <v>0.1177698690321185</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02010383075732198</v>
+        <v>0.1068767034022979</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0003962512176489474</v>
+        <v>0.09610581764844771</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.051732586016933e-14</v>
+        <v>0.04816747260267123</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.415060264613477e-172</v>
+        <v>0.0293724070644431</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.350346217473854e-195</v>
+        <v>0.009811583288586773</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.755344389025163e-213</v>
+        <v>0.001627504738395335</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +1869,7 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2686,85 +1965,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1428457249216786</v>
+        <v>0.1433176924799064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1430562536953771</v>
+        <v>0.1433182707904396</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1359433062843734</v>
+        <v>0.144368650916166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1371527029269073</v>
+        <v>0.1433718114918582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1254449065186691</v>
+        <v>0.1430082383901567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1347237180423494</v>
+        <v>0.1405810569058084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1286831785854059</v>
+        <v>0.1387737338297989</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1279754011505797</v>
+        <v>0.1351271375901596</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1280751705392585</v>
+        <v>0.1283624143052709</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1298945915903037</v>
+        <v>0.127160867085005</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1312487745668335</v>
+        <v>0.1205217353423928</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1290883204528013</v>
+        <v>0.1108398995999373</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1325338772796156</v>
+        <v>0.09857955697622336</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1327772973325629</v>
+        <v>0.1026909102675129</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1362014807371388</v>
+        <v>0.09519262278235981</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1388614023719815</v>
+        <v>0.08643118481289469</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1419663677695513</v>
+        <v>0.07406975816186559</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1450451779420445</v>
+        <v>0.07071127839847867</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1470655627027282</v>
+        <v>0.07554116689085433</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1563566166773378</v>
+        <v>0.0798010400506317</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1191003938192907</v>
+        <v>0.08535670893593028</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0262288572241132</v>
+        <v>0.1028064300694748</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001158834676612068</v>
+        <v>0.1172152709599553</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006193064894616539</v>
+        <v>0.1251502792334047</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.981288702604631e-16</v>
+        <v>0.1273833037821405</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.693106036504243e-79</v>
+        <v>0.006273219517661016</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.886478279527582e-108</v>
+        <v>0.0001883231292672837</v>
       </c>
     </row>
     <row r="3">
@@ -2774,85 +2053,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1430175059733532</v>
+        <v>0.1412320579754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1411055670046794</v>
+        <v>0.141269549967013</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1533496770900914</v>
+        <v>0.1396246722104054</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1515281605750744</v>
+        <v>0.1414573772422296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1710152066141575</v>
+        <v>0.1422479608527929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.156042750157507</v>
+        <v>0.1465650935969567</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1665176797060311</v>
+        <v>0.1498572324693234</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1744027853804306</v>
+        <v>0.1861271995473745</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1766471053267389</v>
+        <v>0.2323637137110727</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1658561171418999</v>
+        <v>0.2410089724638436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1588298504188442</v>
+        <v>0.2778405150205562</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1850821326253618</v>
+        <v>0.3243231236227334</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1565272422563085</v>
+        <v>0.3736182859929078</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1011374865680789</v>
+        <v>0.3592739540220174</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1692940697735505</v>
+        <v>0.3889990916423927</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1591423311253927</v>
+        <v>0.4213969629449952</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1567541110898892</v>
+        <v>0.4633990531664626</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1363774644543334</v>
+        <v>0.4754163081618671</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1124328358142641</v>
+        <v>0.4615279194764767</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1104491548096498</v>
+        <v>0.4499662992472194</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04081402735073613</v>
+        <v>0.4347512291788129</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002307174674972932</v>
+        <v>0.3705753797600617</v>
       </c>
       <c r="X3" t="n">
-        <v>1.880276551610904e-05</v>
+        <v>0.2777088926471294</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.938448400269328e-05</v>
+        <v>0.2942452672375595</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.847741785064771e-21</v>
+        <v>0.1859290466277619</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.226238434041411e-91</v>
+        <v>0.001696045749519064</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.478893577353245e-125</v>
+        <v>1.346677307544398e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2862,85 +2141,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.143017506434843</v>
+        <v>0.1412320556254497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1411055615256974</v>
+        <v>0.1412695476395398</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1533488013733977</v>
+        <v>0.1396247026438159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1515274815064825</v>
+        <v>0.1414573890382234</v>
       </c>
       <c r="F4" t="n">
-        <v>0.171012994569803</v>
+        <v>0.1422479709232191</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1560418355857552</v>
+        <v>0.1465650521643551</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1665160623965123</v>
+        <v>0.149857156068616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1627447290455117</v>
+        <v>0.1323169637216925</v>
       </c>
       <c r="J4" t="n">
-        <v>0.161513171062043</v>
+        <v>0.1120814804516203</v>
       </c>
       <c r="K4" t="n">
-        <v>0.166310769573107</v>
+        <v>0.1082029468622921</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1694438386271378</v>
+        <v>0.09340187561712776</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1566978939549518</v>
+        <v>0.07626716682422155</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1708047597572696</v>
+        <v>0.0600864986174787</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2016788594813934</v>
+        <v>0.06418763026848347</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1618135761636387</v>
+        <v>0.05443092461681814</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1666325012760964</v>
+        <v>0.04436463649161346</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1670716879345715</v>
+        <v>0.03243834887036064</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1783905766351641</v>
+        <v>0.02818230998760834</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1937820645660257</v>
+        <v>0.03115749720552049</v>
       </c>
       <c r="U4" t="n">
-        <v>0.187560410578722</v>
+        <v>0.03336732602614308</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2727409867918242</v>
+        <v>0.03657792410819723</v>
       </c>
       <c r="W4" t="n">
-        <v>0.343924714037028</v>
+        <v>0.06009999422808483</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2173689243430512</v>
+        <v>0.1046786493669084</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9567294529103225</v>
+        <v>0.0851052675082286</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.1513833963059243</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0.4494099532315615</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0.4922024965085416</v>
       </c>
     </row>
     <row r="5">
@@ -2950,85 +2229,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1430173815390361</v>
+        <v>0.1412311709999317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1411070443380818</v>
+        <v>0.1412686714690388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153351022150335</v>
+        <v>0.1396232643100385</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1515295454240509</v>
+        <v>0.1414562646598253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1710163367093797</v>
+        <v>0.1422468715608176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.156044111811438</v>
+        <v>0.1465648252712559</v>
       </c>
       <c r="H5" t="n">
-        <v>0.166518940737815</v>
+        <v>0.149857519184838</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1674409086023122</v>
+        <v>0.1463159846452526</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1683216274010927</v>
+        <v>0.1394291288490032</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1687344404865506</v>
+        <v>0.1382143685145392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1692597279098716</v>
+        <v>0.1313214918749184</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1727972050565511</v>
+        <v>0.1211458281970112</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1746149757337689</v>
+        <v>0.1074647709623364</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1679717666604234</v>
+        <v>0.1120161841328866</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1819453221609</v>
+        <v>0.1036503623075842</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1845824790847145</v>
+        <v>0.09391026005707784</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1888022108765093</v>
+        <v>0.08023174296454003</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1935898702516031</v>
+        <v>0.07563378917167425</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1973252884466774</v>
+        <v>0.08145541009009685</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2097393116651136</v>
+        <v>0.08655336591976436</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1644881147977645</v>
+        <v>0.09338699820182735</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03864278673663295</v>
+        <v>0.1179593484862263</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001943481340689012</v>
+        <v>0.1447546070195811</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01114175260021864</v>
+        <v>0.1522967006449491</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.069193179775791e-15</v>
+        <v>0.1707723321063477</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.310787911652564e-78</v>
+        <v>0.01304121075559635</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.296681723627268e-106</v>
+        <v>0.0005705904878076955</v>
       </c>
     </row>
     <row r="6">
@@ -3038,85 +2317,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1425829576208071</v>
+        <v>0.145349435189705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1457603578275073</v>
+        <v>0.1452800833834164</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1342858820622379</v>
+        <v>0.1466882871630731</v>
       </c>
       <c r="E6" t="n">
-        <v>0.135831129819573</v>
+        <v>0.1449544753083951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117981859832936</v>
+        <v>0.1441433515420191</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1313931199470488</v>
+        <v>0.1401343778696816</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12152735226714</v>
+        <v>0.1370358418191689</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1169986834940681</v>
+        <v>0.1196636117426895</v>
       </c>
       <c r="J6" t="n">
-        <v>0.115148748989449</v>
+        <v>0.1000372465842787</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1198170818981686</v>
+        <v>0.0962656788397815</v>
       </c>
       <c r="L6" t="n">
-        <v>0.12261028448935</v>
+        <v>0.08217114757897449</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1071461851817474</v>
+        <v>0.06613082132767543</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1202050070565905</v>
+        <v>0.05034715105117118</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1548247388967443</v>
+        <v>0.05409479301489319</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1069758590260991</v>
+        <v>0.04463913306182576</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1097476143073475</v>
+        <v>0.03516514796102422</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1070481607665475</v>
+        <v>0.02442526162977428</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1142729778013924</v>
+        <v>0.02190963938032019</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1240834761574653</v>
+        <v>0.02408108933081026</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1207012264680722</v>
+        <v>0.02585120240193354</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1729436861921171</v>
+        <v>0.02838771267864296</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2074504661182831</v>
+        <v>0.04244707798759961</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2393606646171646</v>
+        <v>0.07324264614843587</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0251352334327953</v>
+        <v>0.06042909129283122</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.1065586480623991</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.2696064407481274</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.2681657392506792</v>
       </c>
     </row>
     <row r="7">
@@ -3126,85 +2405,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1428997352292052</v>
+        <v>0.1423929665283755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424609222147128</v>
+        <v>0.1424141477608938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1358151267778811</v>
+        <v>0.1434927186536616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.136980233101518</v>
+        <v>0.1424358236301289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1259538071444231</v>
+        <v>0.1420354866487375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1347558237221806</v>
+        <v>0.1394797007221643</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1291250491589119</v>
+        <v>0.1375670916248776</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1338766092767632</v>
+        <v>0.1606768145024104</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1355979789995465</v>
+        <v>0.1875033087956685</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1300168557674647</v>
+        <v>0.1926806256373087</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1264463704086012</v>
+        <v>0.2123341255741698</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1425682217766276</v>
+        <v>0.2349014160455187</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1259941649957114</v>
+        <v>0.2591062014278072</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08910247661037524</v>
+        <v>0.2532015541431514</v>
       </c>
       <c r="P7" t="n">
-        <v>0.13692580361139</v>
+        <v>0.2679044952755913</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1313487679829597</v>
+        <v>0.2829577519266193</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1310375742830249</v>
+        <v>0.3003968529808034</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1176887881910606</v>
+        <v>0.3061507463639014</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1007382866587999</v>
+        <v>0.3019553039391786</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1009245699098423</v>
+        <v>0.2984165126625767</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04112481101840131</v>
+        <v>0.2929393000069288</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002732218524977282</v>
+        <v>0.2605709900472317</v>
       </c>
       <c r="X7" t="n">
-        <v>2.622777528902707e-05</v>
+        <v>0.2043357888966758</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.004424325344555e-05</v>
+        <v>0.2177251538901765</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.126361361733089e-21</v>
+        <v>0.1440145750967169</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.48926539276379e-90</v>
+        <v>0.001507425642058376</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.641063332370572e-124</v>
+        <v>1.324929396565547e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3214,85 +2493,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1426191882810769</v>
+        <v>0.1452446212012315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454042933939443</v>
+        <v>0.1451797289896586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1339061842616835</v>
+        <v>0.1465777041028394</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1354507466463938</v>
+        <v>0.1448668586293393</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1175748886106318</v>
+        <v>0.1440701200822571</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1309986407337209</v>
+        <v>0.1401098934697781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1211117371481838</v>
+        <v>0.1370514250033771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1165608830503346</v>
+        <v>0.1197722882504209</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1146961976818713</v>
+        <v>0.1002227073030857</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1193701435425054</v>
+        <v>0.09646654059722982</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1221611535793618</v>
+        <v>0.08240910899186044</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1066200409519591</v>
+        <v>0.06639174438290245</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1193199729207354</v>
+        <v>0.05079753497207543</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1525073744504218</v>
+        <v>0.05453497415105516</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1068438885272829</v>
+        <v>0.04518337031342826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1096849038515076</v>
+        <v>0.03577405580577527</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1073198872799064</v>
+        <v>0.0250389822261935</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1146351447244022</v>
+        <v>0.02199592853614997</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1245724856540396</v>
+        <v>0.02428161306706279</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1142687098912624</v>
+        <v>0.02604425369173136</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1887879800298661</v>
+        <v>0.02860012688966058</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3787137826839925</v>
+        <v>0.04554077942132106</v>
       </c>
       <c r="X8" t="n">
-        <v>0.540123064481678</v>
+        <v>0.0780641449613141</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000701067434790773</v>
+        <v>0.06504824019285026</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.204305152764813e-70</v>
+        <v>0.1139586980187097</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.207843793826417e-77</v>
+        <v>0.2584657043554763</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.651470266399949e-77</v>
+        <v>0.2388461345566631</v>
       </c>
     </row>
   </sheetData>
@@ -3404,85 +2683,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1431931104037579</v>
+        <v>0.1419230846326011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14335185301581</v>
+        <v>0.142634582540145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425801235412631</v>
+        <v>0.1473607576076434</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1369128245332027</v>
+        <v>0.1575752509358842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1354090889411204</v>
+        <v>0.1499294049175606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1378362107227228</v>
+        <v>0.1601111445534408</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1297455210640948</v>
+        <v>0.1569615316662681</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1310504436423848</v>
+        <v>0.1577309745600517</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1340756420400051</v>
+        <v>0.1580085793675042</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1341571086754351</v>
+        <v>0.1575693881061841</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1347787068571094</v>
+        <v>0.1580410027345621</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1360371712937599</v>
+        <v>0.1593848700596137</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1337145672135631</v>
+        <v>0.160115164254048</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1401609494195398</v>
+        <v>0.1606715990067532</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1334673396751344</v>
+        <v>0.1587601865621495</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1374534581547707</v>
+        <v>0.1544253228198212</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1418853985555804</v>
+        <v>0.1579676724046717</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1405006546925928</v>
+        <v>0.1551726287330161</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1472140282526856</v>
+        <v>0.156147873288665</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1561121829805581</v>
+        <v>0.1576025056102677</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1138967179976392</v>
+        <v>0.1672437744180903</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1944072496353857</v>
+        <v>0.1515484423827328</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2546878709160193</v>
+        <v>0.1758585275493401</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06481247582565476</v>
+        <v>0.1997963396536399</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3879210193229183</v>
+        <v>0.2190603157759724</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4012981644199992</v>
+        <v>0.276685026373433</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4219076879228154</v>
+        <v>0.3247063612299817</v>
       </c>
     </row>
     <row r="3">
@@ -3492,85 +2771,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1396291032987251</v>
+        <v>0.1460545524067875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1377186721158816</v>
+        <v>0.1436815605517597</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1392860944394993</v>
+        <v>0.1358936972257812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1494443361025678</v>
+        <v>0.1180838448726709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1523064578399474</v>
+        <v>0.1319321580601484</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1484106299521613</v>
+        <v>0.1136649512298212</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1627943774354889</v>
+        <v>0.1199245886294926</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1548556630553648</v>
+        <v>0.1140332366203635</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1227463027111522</v>
+        <v>0.1167480596966959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.132945917191186</v>
+        <v>0.1301156158242023</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1345248744863769</v>
+        <v>0.1309348465185797</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1139329343638227</v>
+        <v>0.1130427679256119</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08074184441814504</v>
+        <v>0.1178522500908646</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1449856271110447</v>
+        <v>0.1290312177581713</v>
       </c>
       <c r="P3" t="n">
-        <v>0.229901243108945</v>
+        <v>0.1606622840772193</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2160781634850162</v>
+        <v>0.192614235513922</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2013278733832333</v>
+        <v>0.1806573972626161</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1049103231829296</v>
+        <v>0.2038004942856213</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1047537627076522</v>
+        <v>0.2084685248729318</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1013629837765466</v>
+        <v>0.2132811368860964</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03503247638123968</v>
+        <v>0.1552698155234576</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0745170598875107</v>
+        <v>0.07667375482177599</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06897186642691787</v>
+        <v>0.100710810988137</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003076816500318334</v>
+        <v>0.1190238816788092</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03010826212672336</v>
+        <v>0.1133727869204034</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02918226319076387</v>
+        <v>0.1467211571508795</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01875832920500205</v>
+        <v>0.1710493716661063</v>
       </c>
     </row>
     <row r="4">
@@ -3580,85 +2859,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1396290933813402</v>
+        <v>0.1460545571125348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1377186565604666</v>
+        <v>0.1436815617117334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1392860154343467</v>
+        <v>0.1358938219222025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1494435835308676</v>
+        <v>0.1180841929252501</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1523055564429312</v>
+        <v>0.1319323585332785</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1484100804927234</v>
+        <v>0.1136653525129365</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1627928777532988</v>
+        <v>0.119924944458099</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1661825806524516</v>
+        <v>0.1224546360278411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1808684115306793</v>
+        <v>0.1209076691914207</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1759606857808843</v>
+        <v>0.1143431544284406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1751031426913982</v>
+        <v>0.1136440534955662</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1849660743124241</v>
+        <v>0.122034282157796</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2032244428495964</v>
+        <v>0.1194814875667614</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1670113296261553</v>
+        <v>0.1139078908187409</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1232614150424236</v>
+        <v>0.0992306996976023</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1288743707614018</v>
+        <v>0.08519365502543812</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1352229153577832</v>
+        <v>0.08970250176727294</v>
       </c>
       <c r="S4" t="n">
-        <v>0.202912002004241</v>
+        <v>0.07612152204550295</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1976784968373719</v>
+        <v>0.07195208423794131</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1933895175529604</v>
+        <v>0.06726540545331702</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2778226344739699</v>
+        <v>0.09864658610405259</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1888648249186912</v>
+        <v>0.16894383489536</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1704344485661336</v>
+        <v>0.1368675595881967</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7672667285231116</v>
+        <v>0.1090588671071443</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.473573543816843e-22</v>
+        <v>0.09922242716648776</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.997846035980127e-81</v>
+        <v>0.04211973219089378</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.584665702234148e-106</v>
+        <v>0.003117963926427811</v>
       </c>
     </row>
     <row r="5">
@@ -3668,85 +2947,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1396317774298604</v>
+        <v>0.146056328555557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1377228664962123</v>
+        <v>0.143681998363607</v>
       </c>
       <c r="D5" t="n">
-        <v>0.139290317769071</v>
+        <v>0.1358920737422591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1494486674878674</v>
+        <v>0.1180784828397338</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1523108319333665</v>
+        <v>0.1319292727715555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1484149906358742</v>
+        <v>0.1136586976763898</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1627988921786818</v>
+        <v>0.1199191042059239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1630649701994085</v>
+        <v>0.1204485227078179</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1597365119252431</v>
+        <v>0.120703462887417</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1626275131077267</v>
+        <v>0.1205368747224618</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1641043179906988</v>
+        <v>0.1209196385323761</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1605124500902365</v>
+        <v>0.1217348243022241</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1533484020134374</v>
+        <v>0.1222310225347147</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1700240129590972</v>
+        <v>0.1225290982915336</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1713243691611463</v>
+        <v>0.1207591570420699</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1753712239124954</v>
+        <v>0.1171708423798139</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1797385826205183</v>
+        <v>0.1199455175996726</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1817299299907309</v>
+        <v>0.1153977139724042</v>
       </c>
       <c r="T5" t="n">
-        <v>0.190243010815845</v>
+        <v>0.1153596369694127</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2017993097021165</v>
+        <v>0.1155940354852149</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1517530353577588</v>
+        <v>0.1289300988024027</v>
       </c>
       <c r="W5" t="n">
-        <v>0.254343511359901</v>
+        <v>0.127785187908709</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3382597571758022</v>
+        <v>0.1427215962425343</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09996551574394408</v>
+        <v>0.1580952797956691</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5446173797853909</v>
+        <v>0.1756547487381793</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.532378183140679</v>
+        <v>0.2139656750477236</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5342161795028333</v>
+        <v>0.2413935573877335</v>
       </c>
     </row>
     <row r="6">
@@ -3756,85 +3035,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1482457469177905</v>
+        <v>0.1379831897285264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1514842618635486</v>
+        <v>0.1415810120570848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1498623173186601</v>
+        <v>0.1484522650298058</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1400586257179333</v>
+        <v>0.1647319601857955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1371971172582312</v>
+        <v>0.1517899911093202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.140687490099629</v>
+        <v>0.1687691453320748</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1268738219184814</v>
+        <v>0.162624984819969</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1304396209040357</v>
+        <v>0.1663212273020352</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1489965856489557</v>
+        <v>0.1639174877383195</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1413525171939939</v>
+        <v>0.1540383478687769</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1391800062362454</v>
+        <v>0.1528870971196547</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1523900451074366</v>
+        <v>0.1653411490381994</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1771814832019234</v>
+        <v>0.1605818452458419</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1265070643148936</v>
+        <v>0.150714118257001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07998209107615388</v>
+        <v>0.1264157870477237</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08356878858469619</v>
+        <v>0.1043748455290858</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0872948985131575</v>
+        <v>0.1105643506325804</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1298170997015425</v>
+        <v>0.0984077718199312</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1268711526745671</v>
+        <v>0.09530601073680928</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1246949555440654</v>
+        <v>0.09195179441552959</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1763428167912202</v>
+        <v>0.122173626729511</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1253133119022908</v>
+        <v>0.1697281946816691</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0635043855610634</v>
+        <v>0.1393770015709578</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05944254196296704</v>
+        <v>0.1130069905224159</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.1048638188236037</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.04852302166177196</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.004989549191036619</v>
       </c>
     </row>
     <row r="7">
@@ -3844,85 +3123,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1420983451491937</v>
+        <v>0.1437438558157899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1416123527550532</v>
+        <v>0.1431031085084572</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1409244940377391</v>
+        <v>0.1480600608096861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.135700988027816</v>
+        <v>0.1588957643305882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1343368270427755</v>
+        <v>0.1507211426328417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1366313541182291</v>
+        <v>0.1615863623152543</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1291628498816213</v>
+        <v>0.158152303201799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1250210166875895</v>
+        <v>0.1528445389164011</v>
       </c>
       <c r="J7" t="n">
-        <v>0.105637061383806</v>
+        <v>0.1559275229458124</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1126836090222836</v>
+        <v>0.1694104419655226</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1142269071496513</v>
+        <v>0.1707226904169931</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1008619720198468</v>
+        <v>0.1532441087040437</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07674330147189935</v>
+        <v>0.1590847168257769</v>
       </c>
       <c r="O7" t="n">
-        <v>0.124717600857544</v>
+        <v>0.1720170902647566</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1808718411689232</v>
+        <v>0.2067013373580453</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1737895215256295</v>
+        <v>0.2403651327607537</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1657999405607999</v>
+        <v>0.2291197729068506</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09592434960068237</v>
+        <v>0.2544523585361966</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09724033613045154</v>
+        <v>0.2606115540629316</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09611765608118204</v>
+        <v>0.2671542307758767</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03673684129460439</v>
+        <v>0.2040910496777158</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07718363717537237</v>
+        <v>0.1082662988595148</v>
       </c>
       <c r="X7" t="n">
-        <v>0.07464199898361314</v>
+        <v>0.1411388337610934</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.003878262579159034</v>
+        <v>0.1670271637133119</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03735333876496737</v>
+        <v>0.1618750618933182</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03714138924855802</v>
+        <v>0.2103476603514852</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02511780336934929</v>
+        <v>0.2469833589640195</v>
       </c>
     </row>
     <row r="8">
@@ -3932,85 +3211,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1475728234193322</v>
+        <v>0.1381844317482034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1503913371930276</v>
+        <v>0.1416361762672128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1487706374594206</v>
+        <v>0.1484473236626218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1389909745997453</v>
+        <v>0.1645505039100774</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1361341205416277</v>
+        <v>0.1517656719752952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1396092439786603</v>
+        <v>0.1685443463800825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1258316597683332</v>
+        <v>0.1624925430184485</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1293857048587652</v>
+        <v>0.1661668638654893</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1479394847601584</v>
+        <v>0.1637872181728302</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1402726490284905</v>
+        <v>0.1539861770844118</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1380820445885203</v>
+        <v>0.1528506711822681</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1512993528124732</v>
+        <v>0.1652179978125114</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1750459588314353</v>
+        <v>0.1606535134819925</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1265934157117254</v>
+        <v>0.1511289856030434</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0811917007672734</v>
+        <v>0.12747054821519</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08486447357599013</v>
+        <v>0.1058559659711653</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08873039100892732</v>
+        <v>0.1120427874263357</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1442056408272808</v>
+        <v>0.09664751060732744</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1359992125814266</v>
+        <v>0.09215431583130822</v>
       </c>
       <c r="U8" t="n">
-        <v>0.126523394362571</v>
+        <v>0.08715089137369787</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2084154777035678</v>
+        <v>0.1236450487447699</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08537040512084836</v>
+        <v>0.1970542864502382</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02949967237045041</v>
+        <v>0.1633256702997407</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001557658864845167</v>
+        <v>0.1339914775290096</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.141248153026791e-155</v>
+        <v>0.1259508406820353</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.054905439400733e-184</v>
+        <v>0.06163772722381292</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.659012123992826e-206</v>
+        <v>0.007759837634694578</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +3305,7 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4122,85 +3401,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1431279147021775</v>
+        <v>0.1429587324836809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1431783068468507</v>
+        <v>0.1436631531527187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1434078154285119</v>
+        <v>0.1410079592147072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1325707387023463</v>
+        <v>0.1434151943640374</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1291751605954591</v>
+        <v>0.1492606044676928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1166561485469834</v>
+        <v>0.1558605609066191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1183875946967243</v>
+        <v>0.1437792194856672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.114486233037558</v>
+        <v>0.1429401813958939</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1191700918190929</v>
+        <v>0.142453631381707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1234650504763118</v>
+        <v>0.1440212719538685</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1240964840452604</v>
+        <v>0.1439247072287111</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1250907918773893</v>
+        <v>0.1437773053835798</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1262840747331667</v>
+        <v>0.1457850352661409</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1261789027238454</v>
+        <v>0.1471472228648572</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1237446127830868</v>
+        <v>0.1480523968929962</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1203485150288956</v>
+        <v>0.1451311244890186</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1144606119995321</v>
+        <v>0.1498459047527465</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08093584532686977</v>
+        <v>0.1488512064975462</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05251176402506012</v>
+        <v>0.1559609765730873</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04718166057090638</v>
+        <v>0.1572253148833446</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03421990240135877</v>
+        <v>0.1642849793440667</v>
       </c>
       <c r="W2" t="n">
-        <v>0.005660690683824561</v>
+        <v>0.1746964539324953</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000280749864183608</v>
+        <v>0.1794955733916183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.476046887263232e-08</v>
+        <v>0.1868301002546909</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.1950556582745379</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.1063915848169948</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.142168424087726</v>
       </c>
     </row>
     <row r="3">
@@ -4210,85 +3489,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1403389149166885</v>
+        <v>0.142531019912314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1398697308716716</v>
+        <v>0.1399511293310427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1396599244265114</v>
+        <v>0.1445347085574503</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1583772550816978</v>
+        <v>0.1406145512865152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1642264466964246</v>
+        <v>0.1306323200024229</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1845177578405578</v>
+        <v>0.1188120820661315</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1821111610194183</v>
+        <v>0.1409298778526244</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2125978955004723</v>
+        <v>0.1537887719573539</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1797361046531904</v>
+        <v>0.1620363106807021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.134166644330181</v>
+        <v>0.1493985188065179</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1342243595140752</v>
+        <v>0.15680048793972</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1238082600910157</v>
+        <v>0.1650041550009329</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1417783808468548</v>
+        <v>0.1490608119512236</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1060686157241977</v>
+        <v>0.1332548095659596</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08097674866875337</v>
+        <v>0.1443053562302114</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06336985642030618</v>
+        <v>0.09272543241137023</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04697159656753799</v>
+        <v>0.1105391698878224</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01554040664055011</v>
+        <v>0.09492531621133868</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00502124786791196</v>
+        <v>0.1173689414061262</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003393144014886855</v>
+        <v>0.1083505052429532</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001502464819220582</v>
+        <v>0.12095133418876</v>
       </c>
       <c r="W3" t="n">
-        <v>6.532354430495266e-05</v>
+        <v>0.1998706760748345</v>
       </c>
       <c r="X3" t="n">
-        <v>6.375128591734535e-07</v>
+        <v>0.1584209889781613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.497951846772817e-12</v>
+        <v>0.139085877396656</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.1153395803416647</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.02952878496867395</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.02495589657864026</v>
       </c>
     </row>
     <row r="4">
@@ -4298,85 +3577,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1403389071295099</v>
+        <v>0.1425310194141165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1398697216347743</v>
+        <v>0.139951125179643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1396599746807454</v>
+        <v>0.1445346397504776</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1583759647305095</v>
+        <v>0.1406145515859198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1642247415627047</v>
+        <v>0.1306324661679627</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1845142816678864</v>
+        <v>0.1188123716799548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1821080224834236</v>
+        <v>0.1409299220305999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1672527876010034</v>
+        <v>0.134535960150057</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1829217550668996</v>
+        <v>0.1303805177431429</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2062375220225882</v>
+        <v>0.1360728090339627</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2060443023807997</v>
+        <v>0.1320734608102368</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2115933214360291</v>
+        <v>0.1276641073634132</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2004090251387332</v>
+        <v>0.1347376262790341</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2217512640194025</v>
+        <v>0.1421256628580247</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2379548823711314</v>
+        <v>0.1361242111115335</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2501129744340397</v>
+        <v>0.1635418049001487</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2621219628974696</v>
+        <v>0.1528138284744954</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3075516730062364</v>
+        <v>0.1638464794317055</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3312791346390118</v>
+        <v>0.1417460082488512</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3370160189470138</v>
+        <v>0.1459525599122168</v>
       </c>
       <c r="V4" t="n">
-        <v>0.345992069282055</v>
+        <v>0.130247467743077</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3148008736252793</v>
+        <v>0.07085698352681243</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1929922101292586</v>
+        <v>0.08829911900684276</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03357579008235271</v>
+        <v>0.09295680515705056</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.09822464173070108</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.1921728828066107</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.1413756886836623</v>
       </c>
     </row>
     <row r="5">
@@ -4386,85 +3665,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1403410146213923</v>
+        <v>0.1425308318675729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1398722214731698</v>
+        <v>0.1399495624229981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1396624291404813</v>
+        <v>0.1445341537930629</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1583796920612607</v>
+        <v>0.1406129031041755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1642288637541125</v>
+        <v>0.1306283839156948</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1845200063405604</v>
+        <v>0.1188059194794609</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1821134677139249</v>
+        <v>0.1409275025524886</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1823377675984379</v>
+        <v>0.140261563573218</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1832727180999959</v>
+        <v>0.1398864733797565</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1791549648808015</v>
+        <v>0.1412945527895461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1804571185335915</v>
+        <v>0.1413021323202613</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1793448006152417</v>
+        <v>0.1412703646157947</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1836607940172785</v>
+        <v>0.1433786394970535</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1788272261056417</v>
+        <v>0.1448674929741761</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1714251948453864</v>
+        <v>0.1456196097123409</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1634245169377867</v>
+        <v>0.1433669480631722</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1516962899953506</v>
+        <v>0.1477457626222704</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1099856205862074</v>
+        <v>0.1488651820419531</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07311856152230452</v>
+        <v>0.151953179951713</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06625846656690915</v>
+        <v>0.1542510097296996</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0489456264047364</v>
+        <v>0.158556753891804</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008626439095669279</v>
+        <v>0.1558066150840203</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0004843472140780255</v>
+        <v>0.1667206103238512</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.384674015235116e-08</v>
+        <v>0.1773707807634672</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.1918817854106245</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.1253632143640229</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.1855986534503913</v>
       </c>
     </row>
     <row r="6">
@@ -4474,85 +3753,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.147050156078663</v>
+        <v>0.1433475603772817</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1478314382983752</v>
+        <v>0.1473325582357681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147913542695851</v>
+        <v>0.1431408403268323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.130310250748223</v>
+        <v>0.146596541028709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248182985953821</v>
+        <v>0.1556655725488919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1065570109902905</v>
+        <v>0.1667103034190938</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1084580292976018</v>
+        <v>0.1457882869032041</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09549923508524485</v>
+        <v>0.138519644118034</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1085260057452385</v>
+        <v>0.1337895214030576</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1309160414355983</v>
+        <v>0.140105919403485</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1297924147606467</v>
+        <v>0.1354848406282541</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1349834330838255</v>
+        <v>0.1304014638718828</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1230916698379321</v>
+        <v>0.1390032086005602</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1434933856487647</v>
+        <v>0.1482577530006375</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1611495644493183</v>
+        <v>0.1397702728911561</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1758397970160472</v>
+        <v>0.177966058689292</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1932473364295882</v>
+        <v>0.1608428100184768</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2242218192227932</v>
+        <v>0.1691135416443381</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2387755063295297</v>
+        <v>0.1560431557986049</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2426757427923751</v>
+        <v>0.1606717940825342</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2477319555048173</v>
+        <v>0.1527060299637412</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2147180513781393</v>
+        <v>0.1068480350129097</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2270411843075062</v>
+        <v>0.1328051456254787</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3311031879936869</v>
+        <v>0.1405663970530335</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0.1503485888362229</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0.2865931409545427</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0.2534398149381287</v>
       </c>
     </row>
     <row r="7">
@@ -4562,85 +3841,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1422732063897953</v>
+        <v>0.1427726612988035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1421643136115062</v>
+        <v>0.1420105041362976</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1424027623034012</v>
+        <v>0.139249209796616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1323001176271482</v>
+        <v>0.1417241159547163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1291334546010056</v>
+        <v>0.1477901322473436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1172874038100286</v>
+        <v>0.1547047678464181</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1189813051529706</v>
+        <v>0.1419903497758825</v>
       </c>
       <c r="I7" t="n">
-        <v>0.132954505426293</v>
+        <v>0.1515143206207764</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1184760629168226</v>
+        <v>0.1577089122741108</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09571951220017824</v>
+        <v>0.1490819034006284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09618817544655921</v>
+        <v>0.1549714077432342</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09078316704557149</v>
+        <v>0.1614808868185329</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1017929074577596</v>
+        <v>0.1492269415923376</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08096573365591712</v>
+        <v>0.1365300481840291</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06510532965685031</v>
+        <v>0.1464458365890244</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05325642145260523</v>
+        <v>0.100910534019198</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04142346312721491</v>
+        <v>0.1180251707357056</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01548886820455219</v>
+        <v>0.1037136590726739</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005568720831859789</v>
+        <v>0.1259311223093862</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003942741388632763</v>
+        <v>0.1179582423795096</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001872431873414241</v>
+        <v>0.1311726107007415</v>
       </c>
       <c r="W7" t="n">
-        <v>9.543029641771264e-05</v>
+        <v>0.2072864916047444</v>
       </c>
       <c r="X7" t="n">
-        <v>1.090699674556044e-06</v>
+        <v>0.1692666326520434</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.324852214106416e-12</v>
+        <v>0.1516738126251674</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.1289480254442157</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.03523017817164333</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.03097048384459074</v>
       </c>
     </row>
     <row r="8">
@@ -4650,85 +3929,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1465298861617735</v>
+        <v>0.1433281746462304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1472142672636524</v>
+        <v>0.1471419675415317</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1472935513244977</v>
+        <v>0.1429984885608537</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1296859810488147</v>
+        <v>0.1464221426759266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1241930341949114</v>
+        <v>0.1553905206499914</v>
       </c>
       <c r="G8" t="n">
-        <v>0.105947390803693</v>
+        <v>0.1662939946023219</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1078404196359364</v>
+        <v>0.1456548413995332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09487157575099074</v>
+        <v>0.1384395581846667</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1078972616987602</v>
+        <v>0.1337446331375231</v>
       </c>
       <c r="K8" t="n">
-        <v>0.130340264654341</v>
+        <v>0.1400250246119913</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1291971453190673</v>
+        <v>0.1354429633295822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1343962258509271</v>
+        <v>0.1304017169458636</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1229831479682752</v>
+        <v>0.13880773681365</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1427148721222311</v>
+        <v>0.1478170105523156</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1596436672254734</v>
+        <v>0.1396823165727375</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1736479187103193</v>
+        <v>0.1763580974278002</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1900787389833065</v>
+        <v>0.1601873535084831</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2462757670127909</v>
+        <v>0.1706846151004447</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2937250647843222</v>
+        <v>0.1509966157122311</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2995322257192758</v>
+        <v>0.1555905737697419</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3197355497143976</v>
+        <v>0.1420808241678094</v>
       </c>
       <c r="W8" t="n">
-        <v>0.456033191376365</v>
+        <v>0.08463474476418344</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5791997802724399</v>
+        <v>0.1049919300220044</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6353209733119286</v>
+        <v>0.1115162267499343</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.1202017199620332</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.2247202139175114</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.2214910384168607</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4023,7 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4840,85 +4119,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1430782353985411</v>
+        <v>0.1431648764978801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1433213358421752</v>
+        <v>0.143652400576652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1515745728106683</v>
+        <v>0.140004397492568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1544502761896004</v>
+        <v>0.1356046380939053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1578555519501238</v>
+        <v>0.1395102990626242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1559488044067057</v>
+        <v>0.1515686010716502</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1637447630497729</v>
+        <v>0.141470783586604</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1636487970460767</v>
+        <v>0.1418770356841973</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1650591847927235</v>
+        <v>0.142070898969847</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1655273129192679</v>
+        <v>0.1392006268876343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1676703435769811</v>
+        <v>0.1327828168261538</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1691508625136648</v>
+        <v>0.1355231226870295</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1685175084411223</v>
+        <v>0.1271491990228236</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1659241361760152</v>
+        <v>0.1366895522816799</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1727550255406059</v>
+        <v>0.1422003481338742</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1582623512245442</v>
+        <v>0.1435854411794009</v>
       </c>
       <c r="R2" t="n">
-        <v>0.181553111812696</v>
+        <v>0.144713484336118</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1665625247202091</v>
+        <v>0.1472468308102741</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1646102861305511</v>
+        <v>0.1477676093458218</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1847436457243445</v>
+        <v>0.1486038624559962</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2022864148529815</v>
+        <v>0.1566081964701607</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2699543591061605</v>
+        <v>0.1551518633428103</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2260414670846081</v>
+        <v>0.1586370628908176</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.057140741788122e-05</v>
+        <v>0.1934717655153094</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.100282631711938e-147</v>
+        <v>0.2031626614353791</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.212166494903998e-176</v>
+        <v>0.2179976942574088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.141875570055808e-197</v>
+        <v>0.2733625192440339</v>
       </c>
     </row>
     <row r="3">
@@ -4928,85 +4207,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1408525641773717</v>
+        <v>0.141790513218413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1380965714038355</v>
+        <v>0.1400003757714062</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123200482405188</v>
+        <v>0.1462345798113921</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1179204378852063</v>
+        <v>0.1536384003976605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1114091437592528</v>
+        <v>0.1473222817338504</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1158238436783263</v>
+        <v>0.12648361622464</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09939737990855671</v>
+        <v>0.144622166234232</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1067239755732192</v>
+        <v>0.1435452329021749</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08030227311592299</v>
+        <v>0.1459870857483766</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07555450901115299</v>
+        <v>0.1798161581285013</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08905643812733502</v>
+        <v>0.2261321730977816</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1001004696474645</v>
+        <v>0.2119194416646029</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1322633626757279</v>
+        <v>0.2592926972756895</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1583330145291385</v>
+        <v>0.2099457151699362</v>
       </c>
       <c r="P3" t="n">
-        <v>0.123337263696969</v>
+        <v>0.1651751152211975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05271287684323687</v>
+        <v>0.1594684532003342</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0919779818663108</v>
+        <v>0.1359560662816179</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05068960337167215</v>
+        <v>0.1588109326732525</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04122116089889191</v>
+        <v>0.2021127854679585</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04592679589462677</v>
+        <v>0.129573628960056</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04335754046403439</v>
+        <v>0.183606214318451</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05675064444961021</v>
+        <v>0.1287301538180902</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0208735152667205</v>
+        <v>0.1152423197319409</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.921278122772091e-08</v>
+        <v>0.2153615476909994</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.611314287045119e-158</v>
+        <v>0.2679853265899877</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.126995610305842e-191</v>
+        <v>0.2803914200911539</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.16455447085929e-218</v>
+        <v>0.190156834400218</v>
       </c>
     </row>
     <row r="4">
@@ -5016,85 +4295,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1408525579461921</v>
+        <v>0.1417905116602354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1380965569584854</v>
+        <v>0.140000371682184</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1232014357683552</v>
+        <v>0.1462344840437276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1179217084193516</v>
+        <v>0.1536381894079343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1114107542749483</v>
+        <v>0.1473221848688096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1158253281258749</v>
+        <v>0.1264838110111527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09939949326187959</v>
+        <v>0.1446221432246125</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09713955019673121</v>
+        <v>0.1448756501446624</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1052705192154256</v>
+        <v>0.143346637737075</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1067867783796254</v>
+        <v>0.1268163682358446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1027143647074292</v>
+        <v>0.1063552012185611</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09930735714398084</v>
+        <v>0.1119053303138054</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08737864321168659</v>
+        <v>0.09272939809989399</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07782813032330452</v>
+        <v>0.11218937987054</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09027248716869644</v>
+        <v>0.131910560987305</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1171848104261547</v>
+        <v>0.1341536603580051</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1025767713264355</v>
+        <v>0.1455747986359193</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1287473993837239</v>
+        <v>0.1279975726192238</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1348778119651577</v>
+        <v>0.09966132832905804</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1277208247630117</v>
+        <v>0.1450804497459202</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1263271420591523</v>
+        <v>0.1017024197687601</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1005600690984789</v>
+        <v>0.137445535497583</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1694565518963476</v>
+        <v>0.1420326398899539</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03905447347733664</v>
+        <v>0.06177336536057673</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.837763834844037e-60</v>
+        <v>0.02705946453005916</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.457731535486751e-64</v>
+        <v>0.01134250694834866</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.155346411106783e-64</v>
+        <v>0.0165775381002909</v>
       </c>
     </row>
     <row r="5">
@@ -5104,85 +4383,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1408542443265258</v>
+        <v>0.141789925092447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1381004664342272</v>
+        <v>0.1399988323256724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1232042463227295</v>
+        <v>0.1462344758656548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1179241476923938</v>
+        <v>0.153640110678121</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1114127715222867</v>
+        <v>0.1473221833224696</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1158275583402835</v>
+        <v>0.1264789498410117</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09940081908743209</v>
+        <v>0.144620881329915</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1007912116225872</v>
+        <v>0.1450378685967871</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09667984650696493</v>
+        <v>0.1452776460259481</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09606806777808134</v>
+        <v>0.142734712496187</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1004895068449934</v>
+        <v>0.1366204853047104</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1039476589857868</v>
+        <v>0.1393162656973496</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1066081710402435</v>
+        <v>0.1303590566023098</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1073214767376543</v>
+        <v>0.1405098255687889</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1087707180143416</v>
+        <v>0.1465684604485644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09197658990294053</v>
+        <v>0.1480347758003215</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1113546465309585</v>
+        <v>0.1494421676324712</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1038159455761747</v>
+        <v>0.1489345942672503</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1030944108391912</v>
+        <v>0.1442410420651424</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1153222038386066</v>
+        <v>0.1536404908785336</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1265416629003005</v>
+        <v>0.1539011679413488</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1679161202935454</v>
+        <v>0.1598992801030502</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1486320500996516</v>
+        <v>0.1658911724010738</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.336264630193911e-06</v>
+        <v>0.1807932314366326</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.499340361333419e-146</v>
+        <v>0.1780994015943901</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.383915393296386e-174</v>
+        <v>0.1868557727847553</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.859003892400305e-195</v>
+        <v>0.2726754844376767</v>
       </c>
     </row>
     <row r="6">
@@ -5192,85 +4471,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1461880596298559</v>
+        <v>0.1444871797866658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1508425674979144</v>
+        <v>0.1472536443385945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1652734127989161</v>
+        <v>0.1415875913853439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1704419396595588</v>
+        <v>0.1349224684181449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1769655805745549</v>
+        <v>0.1404640216108609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1721186057441322</v>
+        <v>0.1595320763685251</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1894165026959542</v>
+        <v>0.142556304396639</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1816263154606178</v>
+        <v>0.1427597408550935</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2082393484874778</v>
+        <v>0.1410325794149527</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2128135426265703</v>
+        <v>0.1232844146185962</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1954634498490654</v>
+        <v>0.1018205670605491</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1815451453632493</v>
+        <v>0.1074818642228122</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1488624596863706</v>
+        <v>0.08599702049232777</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1247773965101343</v>
+        <v>0.1074097605380156</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1530584908405787</v>
+        <v>0.1306023239365525</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2432353376220639</v>
+        <v>0.1328234986889083</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1762259845817861</v>
+        <v>0.1470124532029538</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2197326552205287</v>
+        <v>0.135564021779685</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2301661638420347</v>
+        <v>0.1147818125949596</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2195004662975962</v>
+        <v>0.149318205450264</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2188525979107427</v>
+        <v>0.1212458098164875</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1795268931709532</v>
+        <v>0.1491196791316092</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2576465259106795</v>
+        <v>0.1545146750986409</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6572530304437803</v>
+        <v>0.06991444310494785</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.03206689024697654</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.01454759176895557</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.02430886650138195</v>
       </c>
     </row>
     <row r="7">
@@ -5280,85 +4559,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1423974430154712</v>
+        <v>0.1425576272833491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1417092984397097</v>
+        <v>0.1420275605091663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1493073190412154</v>
+        <v>0.1382406497137846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1519424125354004</v>
+        <v>0.1336872016373863</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1550298939832797</v>
+        <v>0.137698216266919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1533927831783438</v>
+        <v>0.1502438690467912</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1602758996936146</v>
+        <v>0.13965580136049</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1695250834574554</v>
+        <v>0.1392460123179023</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1372089688876491</v>
+        <v>0.1413366634322315</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1314287286804253</v>
+        <v>0.1648307727426391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1502498472119508</v>
+        <v>0.1943289199896084</v>
       </c>
       <c r="M7" t="n">
-        <v>0.165593990723479</v>
+        <v>0.1862499114695191</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2075368185882963</v>
+        <v>0.2179390011903223</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2403609916178172</v>
+        <v>0.1856695714025551</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1986689116461562</v>
+        <v>0.1533584273361064</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09771507203860876</v>
+        <v>0.1495273696824086</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1600050464977774</v>
+        <v>0.1311646414732759</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09596380303971522</v>
+        <v>0.1508393250458478</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08088806647090796</v>
+        <v>0.1867611027705832</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09104920316758698</v>
+        <v>0.1270573912280408</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08842712972768266</v>
+        <v>0.1745721740419121</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1173751634699304</v>
+        <v>0.1277268015713195</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04706292401632503</v>
+        <v>0.1163578809485922</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.156798625920308e-07</v>
+        <v>0.2101969661590996</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.220241023421351e-157</v>
+        <v>0.2592297739774814</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.30257632603845e-190</v>
+        <v>0.2733956864585434</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.891269852394882e-216</v>
+        <v>0.1950306824091144</v>
       </c>
     </row>
     <row r="8">
@@ -5368,85 +4647,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1457768955060421</v>
+        <v>0.1444193664610096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1498332034236529</v>
+        <v>0.1470668147963245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1642385308529277</v>
+        <v>0.1414638216875291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1693990776184889</v>
+        <v>0.1348689913668477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1759163039355539</v>
+        <v>0.1403608131344664</v>
       </c>
       <c r="G8" t="n">
-        <v>0.171063076526334</v>
+        <v>0.1592090764362292</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1883651423027898</v>
+        <v>0.1424519198675077</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1805450666433126</v>
+        <v>0.1426584594991823</v>
       </c>
       <c r="J8" t="n">
-        <v>0.207239858993836</v>
+        <v>0.140948488671569</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2118210606048768</v>
+        <v>0.1233169468905975</v>
       </c>
       <c r="L8" t="n">
-        <v>0.194356049682245</v>
+        <v>0.1019598365026354</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1803545156223747</v>
+        <v>0.1076040639448813</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1488330363565528</v>
+        <v>0.08653362731663305</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1254548541059359</v>
+        <v>0.1075861951684842</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1531371030926522</v>
+        <v>0.1301847639363999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.238912961942451</v>
+        <v>0.1324068010906213</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1763064573840356</v>
+        <v>0.1461363884376438</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2344880686879763</v>
+        <v>0.1306067228044664</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2451420998532654</v>
+        <v>0.1046743194264765</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2157368603142273</v>
+        <v>0.1467259712811892</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1942075120851059</v>
+        <v>0.1083640176428797</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1079167504113215</v>
+        <v>0.1419266865355376</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1302869657256675</v>
+        <v>0.1473242490389807</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3036724335141912</v>
+        <v>0.06848868073243443</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0.03239648162572589</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0.01546932769083456</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0.02788807490728422</v>
       </c>
     </row>
   </sheetData>
@@ -5462,8 +4741,8 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -5558,85 +4837,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1429489185821474</v>
+        <v>0.1422865595072206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1426912295346315</v>
+        <v>0.1423263124564962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1385193154140617</v>
+        <v>0.1476397293875116</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1317999612879039</v>
+        <v>0.1442038335225867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1174551534214503</v>
+        <v>0.1627767270428413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1241993732246247</v>
+        <v>0.160509209691221</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1417673172278555</v>
+        <v>0.1567643354447419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1451320937160924</v>
+        <v>0.1540385243125758</v>
       </c>
       <c r="J2" t="n">
-        <v>0.144761072957199</v>
+        <v>0.1541845722861306</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1438981502102979</v>
+        <v>0.1573771057147435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1463682529857242</v>
+        <v>0.1570166938248228</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1472938567309668</v>
+        <v>0.153883042951843</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1495534569348795</v>
+        <v>0.1547635478782489</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1510278815837173</v>
+        <v>0.1582884215602232</v>
       </c>
       <c r="P2" t="n">
-        <v>0.149904405605215</v>
+        <v>0.1548454631622992</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1416904370368364</v>
+        <v>0.1567279217060129</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1477054854183222</v>
+        <v>0.1550825003597144</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1488974392026383</v>
+        <v>0.1604066198642063</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1871803979557176</v>
+        <v>0.1424190256505331</v>
       </c>
       <c r="U2" t="n">
-        <v>0.200967604256902</v>
+        <v>0.117550246533214</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2212756295569255</v>
+        <v>0.14597946557845</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2355932133447866</v>
+        <v>0.1800986180175194</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2528140306415586</v>
+        <v>0.1517931870129957</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2775976007334008</v>
+        <v>0.1309927508123744</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2669730860201014</v>
+        <v>0.1110621771433425</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1034394776761977</v>
+        <v>0.0341715837229364</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.003808956624756471</v>
+        <v>0.003396826710949171</v>
       </c>
     </row>
     <row r="3">
@@ -5646,85 +4925,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1420990034870416</v>
+        <v>0.1448523269497237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1444000057780051</v>
+        <v>0.1447529813075231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1515292514165872</v>
+        <v>0.1360272733525268</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1626809099440253</v>
+        <v>0.1419507264054535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1853054152903469</v>
+        <v>0.1090951909480402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1751236169978439</v>
+        <v>0.1136945038612283</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1464354484283139</v>
+        <v>0.1210264030171158</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1176073136465244</v>
+        <v>0.1478805992846172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1297065101942671</v>
+        <v>0.1495192786131998</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1448095611590388</v>
+        <v>0.1220169815456769</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1232772564402916</v>
+        <v>0.1348197376389704</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09947430709338285</v>
+        <v>0.1661595514573012</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1248667631383008</v>
+        <v>0.1651063253919075</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1143608365845847</v>
+        <v>0.1434821008288139</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08855292304314426</v>
+        <v>0.07584929545112253</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05840405630373331</v>
+        <v>0.07727707651295752</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06160459346436002</v>
+        <v>0.0681496793685582</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05520025851035679</v>
+        <v>0.07630077123897368</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1237098121469935</v>
+        <v>0.04291364309760713</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1359223654250903</v>
+        <v>0.02239937193033473</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1610098135653103</v>
+        <v>0.03758195745499897</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2187522110040732</v>
+        <v>0.0636028160833616</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2355259738923184</v>
+        <v>0.03665591469005135</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2194807862320603</v>
+        <v>0.0232902185518084</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2321710878352473</v>
+        <v>0.01417003470503435</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3892068988325279</v>
+        <v>0.00195182408311072</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.4997726513911329</v>
+        <v>6.572952589902528e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5734,85 +5013,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1420990010824952</v>
+        <v>0.1448523298499405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1444000105478936</v>
+        <v>0.1447529840299518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1515287761350962</v>
+        <v>0.1360274135482019</v>
       </c>
       <c r="E4" t="n">
-        <v>0.162679603899761</v>
+        <v>0.1419507911940671</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1853020867987955</v>
+        <v>0.1090956367700024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1751213490943506</v>
+        <v>0.1136949197546056</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1464354193166172</v>
+        <v>0.1210267641495642</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1586025316133375</v>
+        <v>0.1088862553520119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1532712518278915</v>
+        <v>0.1079254748259749</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1466279992064419</v>
+        <v>0.12013686710091</v>
       </c>
       <c r="L4" t="n">
-        <v>0.155958332867316</v>
+        <v>0.1137426953093363</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1665835632553737</v>
+        <v>0.09939733945924074</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1534918588655214</v>
+        <v>0.09951522352820001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1584626529944247</v>
+        <v>0.1084060441270066</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1719277254027269</v>
+        <v>0.141148842737216</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1885189561883391</v>
+        <v>0.1400981204347174</v>
       </c>
       <c r="R4" t="n">
-        <v>0.187609204761753</v>
+        <v>0.1449690025840984</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1912115440684367</v>
+        <v>0.1356870291251114</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1277496391577688</v>
+        <v>0.1703007653225382</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1120747531250224</v>
+        <v>0.2050770017935623</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08357049357693642</v>
+        <v>0.1685206036639262</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03405565863147274</v>
+        <v>0.1242710587450303</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01141152630704857</v>
+        <v>0.1511231750978756</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0005394843316200979</v>
+        <v>0.1672585815039204</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.271060936411216e-24</v>
+        <v>0.179771856306964</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.02618832589122e-95</v>
+        <v>0.229055137806803</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.204437546537917e-137</v>
+        <v>0.2511426289128566</v>
       </c>
     </row>
     <row r="5">
@@ -5822,85 +5101,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1420996518362597</v>
+        <v>0.1448534216151868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1443987196485186</v>
+        <v>0.1447540088643682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1515277578625344</v>
+        <v>0.1360259699979679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1626790682071483</v>
+        <v>0.1419507099889429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1853027662571464</v>
+        <v>0.1090886500239732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1751213763135558</v>
+        <v>0.1136884903151988</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1464341338861093</v>
+        <v>0.1210213464197288</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1440179397960054</v>
+        <v>0.119206641027093</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1466002432348264</v>
+        <v>0.1193466394961404</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1492915933576812</v>
+        <v>0.1215212087274507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1471993094059801</v>
+        <v>0.1214071190525755</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1422551224855898</v>
+        <v>0.1193387777374931</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1477097951730606</v>
+        <v>0.1200173068791983</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1481470901359925</v>
+        <v>0.1229277928437293</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1437639144378467</v>
+        <v>0.1209972454396774</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1311227305721316</v>
+        <v>0.1224322230280078</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1375421273904379</v>
+        <v>0.1212736278382172</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1389367543170314</v>
+        <v>0.1237540466431208</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1703028255286818</v>
+        <v>0.1161259802055602</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1820087285228705</v>
+        <v>0.1016348820093074</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1987493607084497</v>
+        <v>0.1198810688296485</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2075286211265262</v>
+        <v>0.1394439261527143</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2194170069858611</v>
+        <v>0.1254702424776606</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2394698621659837</v>
+        <v>0.1141107082808073</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2195910507833913</v>
+        <v>0.1028139097996681</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.06450532311867796</v>
+        <v>0.03839248643845321</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001065758464761177</v>
+        <v>0.005144987702676844</v>
       </c>
     </row>
     <row r="6">
@@ -5910,85 +5189,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1441068637272887</v>
+        <v>0.1398027281253721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1402882107214809</v>
+        <v>0.1399427389010272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1336629523966327</v>
+        <v>0.1476087188374224</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1235069656378165</v>
+        <v>0.1422414517173383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1036681131987411</v>
+        <v>0.1724773461434154</v>
       </c>
       <c r="G6" t="n">
-        <v>0.112285395755972</v>
+        <v>0.1679251278376553</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1381110701764215</v>
+        <v>0.1607941165074988</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1562155163282037</v>
+        <v>0.14322701050776</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1469271997760499</v>
+        <v>0.1417763454035894</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1359193680149566</v>
+        <v>0.1593561770133806</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1497185669347505</v>
+        <v>0.1499093120524671</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1677914166021097</v>
+        <v>0.1291821986393578</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1462036774912817</v>
+        <v>0.1290436616758576</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1520784378962218</v>
+        <v>0.142895692281105</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1725863711137595</v>
+        <v>0.2016720377889381</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2051077977039583</v>
+        <v>0.1985943651367477</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1951602354578061</v>
+        <v>0.2077470303775495</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1990148477526019</v>
+        <v>0.2011061359088753</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1352786792484344</v>
+        <v>0.227713601172517</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1196272665902706</v>
+        <v>0.2444224305817064</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09071238364512817</v>
+        <v>0.2330620227358857</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03869610668098886</v>
+        <v>0.2092422603966722</v>
       </c>
       <c r="X6" t="n">
-        <v>0.005354657953260462</v>
+        <v>0.2525084343009911</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.536590746697813e-07</v>
+        <v>0.2788005356638008</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.3007263223614428</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.3707874701668776</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.4000170507912607</v>
       </c>
     </row>
     <row r="7">
@@ -5998,85 +5277,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1426908383835443</v>
+        <v>0.1434221425751984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432149592694016</v>
+        <v>0.1434048098160588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1392967708165685</v>
+        <v>0.149002486700299</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1329405449613211</v>
+        <v>0.145347013925426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1192036922835402</v>
+        <v>0.1652093992784704</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1257279109655473</v>
+        <v>0.1627131575482837</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1424091001151144</v>
+        <v>0.1586216400612379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1217351220795341</v>
+        <v>0.1834747027608244</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1314462089548252</v>
+        <v>0.1853991083669367</v>
       </c>
       <c r="K7" t="n">
-        <v>0.143299477767729</v>
+        <v>0.1602648961854728</v>
       </c>
       <c r="L7" t="n">
-        <v>0.12739365099347</v>
+        <v>0.1731533633658755</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1082319299650508</v>
+        <v>0.2026903795538082</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1307200440339389</v>
+        <v>0.2022983293268769</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1226260405690402</v>
+        <v>0.1812042001049549</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09997181847670998</v>
+        <v>0.1062987896024776</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07067626410083606</v>
+        <v>0.1084826127434622</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07489001114693042</v>
+        <v>0.09765180065122968</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06882552491029846</v>
+        <v>0.1085025792938383</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1433315293210485</v>
+        <v>0.06497844032962607</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1584687955715458</v>
+        <v>0.03602700400390331</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1880218203745289</v>
+        <v>0.05857748160299903</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2516602310851248</v>
+        <v>0.09612374781232093</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2743685680882144</v>
+        <v>0.05774759105408493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2629115124284798</v>
+        <v>0.03791444915017325</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2812647753612599</v>
+        <v>0.02385284409205769</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4428483003725964</v>
+        <v>0.003519213373101492</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.4953526335193494</v>
+        <v>0.0001288940389792597</v>
       </c>
     </row>
     <row r="8">
@@ -6086,1521 +5365,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.143955722901223</v>
+        <v>0.1399304913773577</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1406068645000687</v>
+        <v>0.1400661646245747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1339351759585192</v>
+        <v>0.1476684081760705</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1237129460620238</v>
+        <v>0.1423554732461856</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1037627727499796</v>
+        <v>0.172257049793257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1124209776481057</v>
+        <v>0.1677745909918074</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1384075108495681</v>
+        <v>0.1607453944001125</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1566894828203025</v>
+        <v>0.1432862667551176</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1472875130549409</v>
+        <v>0.1418485810080282</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1361538502838546</v>
+        <v>0.1593267637123656</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1500846303724679</v>
+        <v>0.1499510787559525</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1683698038675261</v>
+        <v>0.129348710200956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1474544043630172</v>
+        <v>0.1292556053197108</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1532970602360187</v>
+        <v>0.1427957482541672</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1732928419205977</v>
+        <v>0.1991883258182691</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2044797580941651</v>
+        <v>0.1963876804380946</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1954883423603903</v>
+        <v>0.2051263588206325</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1979136312386365</v>
+        <v>0.1942428179258741</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1124471166413555</v>
+        <v>0.2355485442216182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09093048650829841</v>
+        <v>0.2728890631479719</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05666049857272092</v>
+        <v>0.2363974001340914</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01371395812702763</v>
+        <v>0.1872175727923814</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001108236131738289</v>
+        <v>0.2247014553663408</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.493805972789094e-10</v>
+        <v>0.2476327560371154</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.197582597928172e-157</v>
+        <v>0.2676028555914906</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.379927930848758e-194</v>
+        <v>0.3221222844087174</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.095859874374536e-232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2026</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>2027</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>2028</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>2030</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>2031</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>2033</v>
-      </c>
-      <c r="L1" s="2" t="n">
-        <v>2034</v>
-      </c>
-      <c r="M1" s="2" t="n">
-        <v>2035</v>
-      </c>
-      <c r="N1" s="2" t="n">
-        <v>2036</v>
-      </c>
-      <c r="O1" s="2" t="n">
-        <v>2037</v>
-      </c>
-      <c r="P1" s="2" t="n">
-        <v>2038</v>
-      </c>
-      <c r="Q1" s="2" t="n">
-        <v>2039</v>
-      </c>
-      <c r="R1" s="2" t="n">
-        <v>2040</v>
-      </c>
-      <c r="S1" s="2" t="n">
-        <v>2041</v>
-      </c>
-      <c r="T1" s="2" t="n">
-        <v>2042</v>
-      </c>
-      <c r="U1" s="2" t="n">
-        <v>2043</v>
-      </c>
-      <c r="V1" s="2" t="n">
-        <v>2044</v>
-      </c>
-      <c r="W1" s="2" t="n">
-        <v>2045</v>
-      </c>
-      <c r="X1" s="2" t="n">
-        <v>2046</v>
-      </c>
-      <c r="Y1" s="2" t="n">
-        <v>2047</v>
-      </c>
-      <c r="Z1" s="2" t="n">
-        <v>2048</v>
-      </c>
-      <c r="AA1" s="2" t="n">
-        <v>2049</v>
-      </c>
-      <c r="AB1" s="2" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Below 2°C</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1428885985084453</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1429744632910871</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1563378909221773</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1526223024931927</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1536789308461308</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1459378847446379</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1512186820036831</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1536126575893379</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1542116859092759</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1550685417530033</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1557683169291625</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1554416574341683</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.145827228309954</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.1562538557212274</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1495242283670239</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1430501712812834</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1357684989699888</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.1415023465935405</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.1441354268193627</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1195583331688578</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.08837273664474188</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.07083507098988494</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0003482907530078816</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.226699136324579e-08</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.182240685774486e-59</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>4.916001787507567e-104</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.087887926480427e-127</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Current Policies</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1426430906741872</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1419195724939654</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1180296670354728</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1253160237405521</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1236611862814538</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.138336618548896</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1290879179787435</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1085770343268679</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1087226496644704</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1048415803031338</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.09306923311397813</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.07937782372415463</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.04721891410058025</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.06446304030718815</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.04721134122882235</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.03635705855603393</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.02783064311761184</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.02791229091154394</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.02527356079976326</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.01370663430084262</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.00603546820458192</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.002939937740865322</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.350890357504237e-06</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6.172823345347792e-12</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4.257376000026657e-69</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>4.088640944390331e-119</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.774052322755679e-147</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Delayed transition</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1426430899626044</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.141919569498319</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1180311329869667</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.125317166505813</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1236624656898909</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1383371875481818</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1290890465840648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1368694885293565</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1367796609367373</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1382855023125963</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1429622258020989</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1484534175773044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1636010510427808</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1555078085828062</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1640823823207218</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1696242465735376</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1740880201104286</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.1725417022936762</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.1738820098883185</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1894009667921691</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2046044838036339</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.2193343603373789</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.07143645341135134</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.01516762016564077</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.008599118215341359</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.4088480150021545</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.4557611570432545</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Fragmented World</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1426432825354488</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1419203802183007</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1180307782039969</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1253170796436268</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.123662273672249</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1383375768201684</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1290889911265531</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1271622781625477</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1278953399883711</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1279489496165</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1258942015791112</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1221907195339065</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.110077984270278</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.1211544879187385</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1131234918660676</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1060901528696629</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.09866636666134064</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.1027516292625164</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.1048533020582415</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.08824208500357636</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.06650927520236627</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.05435618598402385</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0003223779222875791</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.931609417711468e-08</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>6.524342236981659e-59</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.670597569050325e-102</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.542916573502599e-125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Low demand</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1432031627368051</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.144397925369613</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1673157899746079</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1599425313881046</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1613914147164483</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.14681254882046</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1555741995159721</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1704296315546411</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1694252865773091</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1717087083992313</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1813936158050698</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.1942808674158757</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2327218924060781</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.2059111121592633</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.2284003893988917</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2450878924426991</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2605937658630474</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.2587946390892807</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.2612255767969093</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.2831153839898982</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.3038179502077717</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.3261738264196319</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.3516385794206519</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.4847929625189643</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Nationally Determined Contributions (NDCs)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1428153300271906</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1426549959873716</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1550342517911527</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1516758951857196</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1526837891546111</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1456257246740905</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1505364494945168</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1329918942262735</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1336333744139123</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1305270978211005</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1195342772275383</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1058686212634621</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.06940460614428708</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.09083735436660245</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.07029329014132552</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.05657980219749147</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.04518879308091662</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.04592897817030427</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.04263785466728637</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.02467688694681986</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.01168856856095005</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.006086230409969661</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3.500472696637955e-06</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.058923358793879e-11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3.556880465158505e-68</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>7.334906647640852e-118</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.673568117250984e-146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Net Zero 2050</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1431634455553187</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.144213093141343</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1672204890856257</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1598090010429913</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1612599396392161</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1466124588435655</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1554047132964667</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1703570156109756</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1693320025099239</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1716196197944349</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1813781295430411</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1943868930511284</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.2311483237260418</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.2058723409441739</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.2273648766771469</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.2432106760792916</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.2578639121966661</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2505684136791381</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.2479922689701184</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.2812997097978359</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.3189715173759543</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.3202743881182454</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.5762494471296472</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.5000393457055473</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.9914008817846586</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.5911519849978455</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.5442388429567455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2026</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>2027</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>2028</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>2030</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>2031</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>2033</v>
-      </c>
-      <c r="L1" s="2" t="n">
-        <v>2034</v>
-      </c>
-      <c r="M1" s="2" t="n">
-        <v>2035</v>
-      </c>
-      <c r="N1" s="2" t="n">
-        <v>2036</v>
-      </c>
-      <c r="O1" s="2" t="n">
-        <v>2037</v>
-      </c>
-      <c r="P1" s="2" t="n">
-        <v>2038</v>
-      </c>
-      <c r="Q1" s="2" t="n">
-        <v>2039</v>
-      </c>
-      <c r="R1" s="2" t="n">
-        <v>2040</v>
-      </c>
-      <c r="S1" s="2" t="n">
-        <v>2041</v>
-      </c>
-      <c r="T1" s="2" t="n">
-        <v>2042</v>
-      </c>
-      <c r="U1" s="2" t="n">
-        <v>2043</v>
-      </c>
-      <c r="V1" s="2" t="n">
-        <v>2044</v>
-      </c>
-      <c r="W1" s="2" t="n">
-        <v>2045</v>
-      </c>
-      <c r="X1" s="2" t="n">
-        <v>2046</v>
-      </c>
-      <c r="Y1" s="2" t="n">
-        <v>2047</v>
-      </c>
-      <c r="Z1" s="2" t="n">
-        <v>2048</v>
-      </c>
-      <c r="AA1" s="2" t="n">
-        <v>2049</v>
-      </c>
-      <c r="AB1" s="2" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Below 2°C</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1429743178045852</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1429663494635682</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1410044715320464</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1459233341546491</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1456562054929861</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1308586775318189</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1170682552202482</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1147173813776898</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1092595461279225</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1120239958303238</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1173060027451217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1196892132101879</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.1220652806833197</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.1218435857569379</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1256696447773723</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1243483120381519</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1169289431179111</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.1235478116962775</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.1112268456070918</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1045426216397334</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.08956510336933923</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.1176391309646837</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.151325044870331</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.113898664060482</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1948603289045737</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.2796841086740842</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.3030228924575351</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Current Policies</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1418633240089343</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1420148252398686</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1455506065788542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1372365750288357</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1380059101630018</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1635875220931577</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1858583202265922</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2053050678705586</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2431991258142965</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2276225370543052</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1914461268155119</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.174381763827846</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.1368876032023436</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.1052856622287256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1607064970142218</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2154729975102509</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.2856909134142938</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.2566136826448882</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.3557065146799123</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.3991863257271733</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.460193973714593</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.3904544581534255</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.3303564916910579</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.4324892874497601</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.2808518995854024</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.1016609275912709</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.0979907497613883</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Delayed transition</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1418633208753123</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1420148225263013</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1455503974752667</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1372369756305568</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1380063222225862</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.163586235882996</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1858552059153018</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1759603356373835</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.157426850257947</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1645146712346442</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1823239530306378</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1909796650542512</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.2122801203506381</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.2318665939013637</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1955286494813027</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1613973351153172</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1207370766359076</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.13349858646748</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.07280464057941503</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.04748838906313541</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.02059561975240647</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.03263250056938801</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.03397944577586938</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.121534985062373e-05</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.654587444872409e-19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7.651301268964351e-68</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.40320076301567e-94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Fragmented World</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1418641689411448</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1420155569029998</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1455512946721062</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.137237402795559</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1380067453287817</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1635879807158342</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1858583463540193</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1863354491981973</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1849762738301519</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1869713497786967</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1882918226901772</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1884851948262249</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1879926768194916</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.1833848266342074</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1977011003573441</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.203098530389469</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.1997753133991839</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.2118562055542892</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.1870350039795964</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.1738444876669107</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.1461664550163259</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.1951215092731001</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.2563578386599043</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1786796886955052</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.3301350981893568</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.5408906337123707</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.5214949441284821</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Low demand</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1444992134031708</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1442367026684149</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1408278281630455</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1485168928965568</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1476050386213465</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1235832100389557</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1036398304776281</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.09535924142349617</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.08098783398104993</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.08579897553372839</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.09947796640383059</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.1062279377346761</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.1232581518867477</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.1408968973541328</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.1049891140433617</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.07684901205797313</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0488784326553561</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.05402925269679874</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.02987982148897424</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.01973325121575729</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.008780641862010349</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0139839612536163</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.008705067701818836</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.853870366811716e-09</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Nationally Determined Contributions (NDCs)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1426362379849695</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1426790533349725</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1408657615199256</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1454858476957734</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1452765944010332</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1314590911954149</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1183723400514285</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1272893182343435</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1435281830357758</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1376339660716177</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1220061911278007</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1143204945292901</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.09507753577109446</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.07731509812944153</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.1103246373134396</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1410317460631345</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.1777143765279413</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.1648287491308555</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.2167551368090317</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.2398748375089656</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.2696014002854304</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.2428830604104192</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2160848217653896</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.2748611365883942</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.194152673320667</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.0777643300222743</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.07749141365259453</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Net Zero 2050</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1442994169818832</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1440726898638745</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1406496400587554</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1483629717980691</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1474431837702643</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1233372825418229</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1033477017547818</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.09503320625833105</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.08062218695285636</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.08543450449668408</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.09914793718691989</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1059157308175236</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1224386312863651</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.1394073359951911</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1050803570129579</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.07780206682570345</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.05027494424940637</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.05562571180941075</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02659203685597855</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.01533008717832412</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.005096805999894679</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.007285379375367237</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.003191289535629037</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.137803802232566e-12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>5.87397471344362e-143</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>3.796069201836627e-165</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.186319940201089e-187</v>
+        <v>0.3401038823173784</v>
       </c>
     </row>
   </sheetData>

--- a/Data/history_nocalib.xlsx
+++ b/Data/history_nocalib.xlsx
@@ -529,85 +529,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1428677267253915</v>
+        <v>0.1439423005788555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143560204250425</v>
+        <v>0.1454317511950664</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1460162282127643</v>
+        <v>0.1527897433293409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1411189197405213</v>
+        <v>0.1306019439541518</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1449590719958049</v>
+        <v>0.1255663830559891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1343739011478516</v>
+        <v>0.101704988647033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1272291746712465</v>
+        <v>0.1375542081705523</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1265455666210165</v>
+        <v>0.144195929657986</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1279024694012592</v>
+        <v>0.1429677317827667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1286551916585465</v>
+        <v>0.1542068016554864</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1297494530555814</v>
+        <v>0.1546414089207017</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1302699439034185</v>
+        <v>0.162923686794208</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1299888629489345</v>
+        <v>0.1543522788657457</v>
       </c>
       <c r="O2" t="n">
-        <v>0.130532275194622</v>
+        <v>0.1612374036961101</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1324242892569453</v>
+        <v>0.1990219804641122</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1319388322861237</v>
+        <v>0.2063483997836353</v>
       </c>
       <c r="R2" t="n">
-        <v>0.135176580336436</v>
+        <v>0.2333246860118848</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1407006756864337</v>
+        <v>0.2602634581952693</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1425373513905665</v>
+        <v>0.2785655832444235</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1425910799743573</v>
+        <v>0.3023384213124284</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1500379423485191</v>
+        <v>0.3492479120726596</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1522987991343662</v>
+        <v>0.2447447302043307</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1589571845643872</v>
+        <v>0.3380582926065546</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1682710110742115</v>
+        <v>0.5070450923229597</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1750165025260028</v>
+        <v>0.5144818565535219</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1470032661825684</v>
+        <v>0.4898353986790631</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1027765676284779</v>
+        <v>0.6484997463407884</v>
       </c>
     </row>
     <row r="3">
@@ -617,85 +617,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1428534104261248</v>
+        <v>0.1392268530669587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1403424021995311</v>
+        <v>0.1331042108729976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1362947812217353</v>
+        <v>0.1206643080223919</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1447524225548036</v>
+        <v>0.1606498553393467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1383904848154134</v>
+        <v>0.1698695957325026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1564032612572339</v>
+        <v>0.2072468950119725</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1682009279587187</v>
+        <v>0.1547658167422366</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1792170134791162</v>
+        <v>0.1312119238736408</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1663978470439622</v>
+        <v>0.06669776688856402</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1603507951626328</v>
+        <v>0.127526075094528</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1419497193016336</v>
+        <v>0.05796260200962575</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1314635067490484</v>
+        <v>0.06170096552868343</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1084443363451933</v>
+        <v>0.03036676107064228</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1056320049271026</v>
+        <v>0.02731433889083077</v>
       </c>
       <c r="P3" t="n">
-        <v>0.114893954188106</v>
+        <v>0.06940614250407562</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1020320450210458</v>
+        <v>0.04963030156972247</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1145908350506006</v>
+        <v>0.06348130199934797</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1713357534121135</v>
+        <v>0.08457761248581828</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1912591035661979</v>
+        <v>0.1157568840477133</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1383471845950893</v>
+        <v>0.03698110576088107</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1891524688065911</v>
+        <v>0.1089871615840798</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2436462304070271</v>
+        <v>0.2209636030721666</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2027132082865541</v>
+        <v>0.005286464476089815</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1896606160992289</v>
+        <v>0.01747034890414066</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3198599714031466</v>
+        <v>0.005239847165304714</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4000113892809022</v>
+        <v>0.001471566763838014</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.4675975820378819</v>
+        <v>0.004015909928944174</v>
       </c>
     </row>
     <row r="4">
@@ -705,85 +705,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1428534103930385</v>
+        <v>0.1392268476647148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1403423985911299</v>
+        <v>0.1331041973381766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1362948457947936</v>
+        <v>0.1206645143486542</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1447523692417124</v>
+        <v>0.1606495582882956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1383905347269605</v>
+        <v>0.1698692237488362</v>
       </c>
       <c r="G4" t="n">
-        <v>0.156403048819221</v>
+        <v>0.207245817791065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.168200525233358</v>
+        <v>0.1547659871886331</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1621406337166143</v>
+        <v>0.1579456020416445</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1685336608112181</v>
+        <v>0.1958063488259061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1714413076079</v>
+        <v>0.1518413402053866</v>
       </c>
       <c r="L4" t="n">
-        <v>0.181660547049559</v>
+        <v>0.1932856882663712</v>
       </c>
       <c r="M4" t="n">
-        <v>0.187628921607576</v>
+        <v>0.1854992250728544</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2012672531613427</v>
+        <v>0.2097383200136386</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2026170422296124</v>
+        <v>0.2099897683935678</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1960400911202552</v>
+        <v>0.1623385164177179</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2040379554780965</v>
+        <v>0.1728866663496733</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1947508404295513</v>
+        <v>0.1471755928092771</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1469348897336158</v>
+        <v>0.1006843423815594</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1304095620117091</v>
+        <v>0.05763094696669322</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1672764968751317</v>
+        <v>0.09905346701221986</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1215135848678598</v>
+        <v>0.01391515675355429</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08124318512400641</v>
+        <v>0.002186749376856585</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09809684491260498</v>
+        <v>0.04167003201083671</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09680154015507704</v>
+        <v>0.0004020365279428005</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02095333377659987</v>
+        <v>0.0001598444286034464</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001906460965759016</v>
+        <v>2.396222610771773e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.933517133430504e-06</v>
+        <v>1.494959969912582e-12</v>
       </c>
     </row>
     <row r="5">
@@ -793,85 +793,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1428533979358045</v>
+        <v>0.1392248140225317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1403410402423306</v>
+        <v>0.133099102323263</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1362923361828226</v>
+        <v>0.1206559042005659</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1447518351514236</v>
+        <v>0.1606480912638355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1383882602011844</v>
+        <v>0.1698686843680918</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1564051789329759</v>
+        <v>0.2072560593908087</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1682058629981082</v>
+        <v>0.1547565893931968</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1674446233520267</v>
+        <v>0.1542543136340853</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1691000561632956</v>
+        <v>0.1519288167203672</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1700333050107447</v>
+        <v>0.1652388527063968</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1712390560680828</v>
+        <v>0.1644948818335528</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1717831231085936</v>
+        <v>0.1735918448051877</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1716966893510164</v>
+        <v>0.1652373727842729</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1724369029225882</v>
+        <v>0.1725880515360367</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1747764449906205</v>
+        <v>0.2110659221137489</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1743133211471522</v>
+        <v>0.2191806427607434</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1783595129933152</v>
+        <v>0.2467866593448214</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1768789298972577</v>
+        <v>0.2600517472727928</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1761407110188739</v>
+        <v>0.2583098564740881</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1833806700056123</v>
+        <v>0.3132527321005617</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1843462901177744</v>
+        <v>0.2887068211903639</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1786490103875862</v>
+        <v>0.1670639530666771</v>
       </c>
       <c r="X5" t="n">
-        <v>0.192880986015817</v>
+        <v>0.4036752555517791</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2065149075422749</v>
+        <v>0.4281164586344717</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1863857449301476</v>
+        <v>0.4631371298641043</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.136106486153523</v>
+        <v>0.5036647385210434</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07767584024921466</v>
+        <v>0.3336036848096477</v>
       </c>
     </row>
     <row r="6">
@@ -881,85 +881,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.142852745599399</v>
+        <v>0.1483655360393827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1467240703018851</v>
+        <v>0.1580169611890328</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1503176681366876</v>
+        <v>0.1695635965915633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.142586302187231</v>
+        <v>0.1316368069451967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1482532951166612</v>
+        <v>0.1228223310723442</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1319353948449366</v>
+        <v>0.0903077898798752</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1214494171435742</v>
+        <v>0.1337722490677442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1166442866276945</v>
+        <v>0.1453326748644291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1216027090862103</v>
+        <v>0.1844276232862</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1238292926898972</v>
+        <v>0.1372292857009153</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1319291285228145</v>
+        <v>0.1789097460818057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1366715777296185</v>
+        <v>0.169103533087705</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1493869936011593</v>
+        <v>0.1986382190288035</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1503016840167136</v>
+        <v>0.1937931095115412</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1432198102771628</v>
+        <v>0.1296289768263212</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1506817911765396</v>
+        <v>0.1367491911679623</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1403490081983027</v>
+        <v>0.1036705019448513</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1171072647249462</v>
+        <v>0.08440473019274464</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1088289629106472</v>
+        <v>0.06050416129466971</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1297216458236465</v>
+        <v>0.09667528450933091</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1077976634289631</v>
+        <v>0.03082404015557039</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08479307000336667</v>
+        <v>0.008184471694951049</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1022586475709806</v>
+        <v>0.1455595195864866</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1017257208678343</v>
+        <v>0.001821824389539224</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02367601965839807</v>
+        <v>0.000778221034670829</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.002477565376364748</v>
+        <v>1.65592315428359e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.478385957283986e-05</v>
+        <v>2.434204977590264e-11</v>
       </c>
     </row>
     <row r="7">
@@ -969,85 +969,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1428650920828524</v>
+        <v>0.1418717613185222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1421297327931997</v>
+        <v>0.1398891657385359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1446651018367213</v>
+        <v>0.1469233052540918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1395622425781759</v>
+        <v>0.124443147960648</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1435311568289693</v>
+        <v>0.1193167997435252</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1325329660645913</v>
+        <v>0.09576806966576021</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1251524913610451</v>
+        <v>0.1307121145445775</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1312250826027368</v>
+        <v>0.121885774437995</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1247417778519913</v>
+        <v>0.07425113597753535</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1217488946790426</v>
+        <v>0.1266963476889028</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1114752442499029</v>
+        <v>0.07205636925698614</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1054702409214118</v>
+        <v>0.07813282307314881</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09018459824742439</v>
+        <v>0.0441458652767709</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08851848742483787</v>
+        <v>0.04157456289211306</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09542510495094451</v>
+        <v>0.09631466394768828</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08654283481279665</v>
+        <v>0.07546186967459058</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09611956661254645</v>
+        <v>0.09770874169639222</v>
       </c>
       <c r="S7" t="n">
-        <v>0.137234614912034</v>
+        <v>0.1314311958178451</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1517867413944159</v>
+        <v>0.1805642779472295</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1147094326675133</v>
+        <v>0.0695074862832278</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1526826135990741</v>
+        <v>0.1928065656711128</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1923516693495306</v>
+        <v>0.3539264125094073</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1643493629827166</v>
+        <v>0.0138546415049971</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1562736779442781</v>
+        <v>0.04437010879107463</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2543705631127271</v>
+        <v>0.01585608175816878</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3102302184573705</v>
+        <v>0.00500001381751804</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3519098590207974</v>
+        <v>0.01388065887067214</v>
       </c>
     </row>
     <row r="8">
@@ -1057,85 +1057,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1428542168373894</v>
+        <v>0.1481418873090342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1465601516214985</v>
+        <v>0.1573546113429277</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1501190386144753</v>
+        <v>0.1687386282533923</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1424759085461321</v>
+        <v>0.1313705962485257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1480871963150064</v>
+        <v>0.122686982278711</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1319462489331899</v>
+        <v>0.09047037961348517</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1215616006339493</v>
+        <v>0.1336730348930595</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1167827936007948</v>
+        <v>0.1451737814902193</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1217214796420632</v>
+        <v>0.1839205765186607</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1239412131912362</v>
+        <v>0.137261296948384</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1319968517524258</v>
+        <v>0.1786493036309566</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1367126859803333</v>
+        <v>0.1690479216382126</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1490312663449295</v>
+        <v>0.1975211829601259</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1499616032845232</v>
+        <v>0.1935027650798004</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1432203052159656</v>
+        <v>0.1322237977263361</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1504532200782454</v>
+        <v>0.1397429286936728</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1406536563792479</v>
+        <v>0.1078525161934253</v>
       </c>
       <c r="S8" t="n">
-        <v>0.109807871633599</v>
+        <v>0.07858691365397044</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09903756770758945</v>
+        <v>0.04866829002518257</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1239734900586496</v>
+        <v>0.08219150302135032</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09446943683121833</v>
+        <v>0.01551234257265925</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06701803559411677</v>
+        <v>0.002930080075610485</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08074376566693948</v>
+        <v>0.05189579426325638</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08075252631709515</v>
+        <v>0.0007741304298712802</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01973786459297798</v>
+        <v>0.000347019195625953</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.002264613583512149</v>
+        <v>9.326764383734743e-06</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.843368692208204e-05</v>
+        <v>2.411067359546315e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1247,85 +1247,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1421142230575402</v>
+        <v>0.1408239464041433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1420495366988281</v>
+        <v>0.1420898734757787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.136494350729332</v>
+        <v>0.1363739374055111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1355504078661907</v>
+        <v>0.107972392422595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1416315466246434</v>
+        <v>0.09134224314361075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.131664950865506</v>
+        <v>0.1198317154609555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1222582652832557</v>
+        <v>0.08887000769636379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1223898478465627</v>
+        <v>0.08841656260374094</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1241160915184153</v>
+        <v>0.09105579644443293</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1240601508305841</v>
+        <v>0.08252419245148233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1244389746721069</v>
+        <v>0.06917988017307189</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1250972844360959</v>
+        <v>0.06914681433364273</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1230393584349835</v>
+        <v>0.07830960942851492</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1239229167777456</v>
+        <v>0.09017065479166696</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1258894859889261</v>
+        <v>0.109023157199702</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1270278106414345</v>
+        <v>0.111005526824761</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1281174466358361</v>
+        <v>0.115970979617924</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1287786032315834</v>
+        <v>0.1251012486651809</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1314155301920661</v>
+        <v>0.1195409261508628</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1298494334430107</v>
+        <v>0.0938880087807758</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1354843481292834</v>
+        <v>0.09982935619034973</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1428001295209378</v>
+        <v>0.02279276199579488</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1528555221192147</v>
+        <v>0.03926701177713549</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1718441329577208</v>
+        <v>0.002313655148156196</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1825991321051098</v>
+        <v>0.001026869257015481</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1895100947779859</v>
+        <v>0.0001659708610333323</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2048078964070637</v>
+        <v>3.279095637714648e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1335,85 +1335,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1454266893356469</v>
+        <v>0.1498532745792311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1456766371953147</v>
+        <v>0.1462669634157065</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1547547614597287</v>
+        <v>0.156343002215171</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1563912545086165</v>
+        <v>0.1996820901838079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1466601728784492</v>
+        <v>0.223465210235329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1629987620502473</v>
+        <v>0.1844641447719104</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1779016697974402</v>
+        <v>0.2296599322026268</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1794611566363022</v>
+        <v>0.2230821417732583</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1590307692351602</v>
+        <v>0.2172023027215881</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1666351352561336</v>
+        <v>0.3310602237791312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.167315359770866</v>
+        <v>0.440324918406903</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1634837599274346</v>
+        <v>0.4487087525477598</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2001423961025298</v>
+        <v>0.4023502461385356</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1974748232339279</v>
+        <v>0.3408466996619083</v>
       </c>
       <c r="P3" t="n">
-        <v>0.179310029810969</v>
+        <v>0.1263875822447138</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1748444803231219</v>
+        <v>0.2589290685289522</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1781974149242829</v>
+        <v>0.2573743912659616</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1464952761488422</v>
+        <v>0.2691545627088276</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1535836866991648</v>
+        <v>0.3539993613897485</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1225574606050351</v>
+        <v>0.4701463996554849</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1332824654519565</v>
+        <v>0.463600508915999</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1472493496306699</v>
+        <v>0.6773540293039245</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1584757732679638</v>
+        <v>0.6264910266678383</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2482745402965916</v>
+        <v>0.7325723785922407</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2781500980305951</v>
+        <v>0.7445849945019324</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3161156898704493</v>
+        <v>0.7680508337587725</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3120659891944857</v>
+        <v>0.78637560207019</v>
       </c>
     </row>
     <row r="4">
@@ -1423,85 +1423,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1454266930945199</v>
+        <v>0.149853284828406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1456766412971737</v>
+        <v>0.1462669677430786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1547546221802575</v>
+        <v>0.1563429096571039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1563910964439315</v>
+        <v>0.1996811459070928</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1466601810098749</v>
+        <v>0.223463653546076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1629985197494736</v>
+        <v>0.1844637955675527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1779011675707315</v>
+        <v>0.2296586959275263</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1766770241417802</v>
+        <v>0.2349252885076086</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1879628301653359</v>
+        <v>0.232376362100093</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1829960323534348</v>
+        <v>0.159706407543114</v>
       </c>
       <c r="L4" t="n">
-        <v>0.182068451346346</v>
+        <v>0.1053282282594113</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1838002611319819</v>
+        <v>0.09647233704881981</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1629067338826832</v>
+        <v>0.1087674874000421</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1637487903881187</v>
+        <v>0.1282113915218994</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1733259320594246</v>
+        <v>0.2570716481147385</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1751798298070364</v>
+        <v>0.1456869608563098</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1722531502997415</v>
+        <v>0.1342027223897958</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1951835525960838</v>
+        <v>0.1007141477271786</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1853867432161502</v>
+        <v>0.04667262856249303</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2111569143621713</v>
+        <v>0.01425463387372654</v>
       </c>
       <c r="V4" t="n">
-        <v>0.193278930692285</v>
+        <v>0.008150163302540276</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1702847229066665</v>
+        <v>0.0001173962251859342</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1509395480415002</v>
+        <v>0.0001376357634237195</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07142735987424648</v>
+        <v>9.833417281836383e-09</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04101176843281992</v>
+        <v>4.793635901448262e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01169523019408533</v>
+        <v>4.347702205022744e-13</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001192427235476881</v>
+        <v>7.035297111408662e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1511,85 +1511,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.145428108095268</v>
+        <v>0.1498571430448639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1456781854104605</v>
+        <v>0.1462685966739274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1547587740383135</v>
+        <v>0.156346094228922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1563955948971519</v>
+        <v>0.1996996574248894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1466616655283639</v>
+        <v>0.2234931120375102</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1630045643202161</v>
+        <v>0.184471748673118</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1779119223411312</v>
+        <v>0.2296826122397816</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1781391779997785</v>
+        <v>0.2394745129361072</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1804021766146501</v>
+        <v>0.2467739547908067</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1804414061980565</v>
+        <v>0.2252601847459759</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1810204568194849</v>
+        <v>0.190017408889788</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1819437631992352</v>
+        <v>0.190254465960821</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1785520191920798</v>
+        <v>0.2156494600439232</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1798400587773958</v>
+        <v>0.2486411101598448</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1828702503293028</v>
+        <v>0.304080222715554</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1845508288999644</v>
+        <v>0.3063688627432848</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1860640063329347</v>
+        <v>0.3195470407569501</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1910007809852345</v>
+        <v>0.3329034824973652</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1933618920806525</v>
+        <v>0.2915838451526966</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1957909377988468</v>
+        <v>0.2036169791729249</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2017089996970133</v>
+        <v>0.2057090621253584</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2093085603991458</v>
+        <v>0.03306203836656951</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2209618231164107</v>
+        <v>0.05779366224728078</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2267757782462435</v>
+        <v>0.001451973288893701</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2327150804116538</v>
+        <v>0.000506421981294535</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2286686979937124</v>
+        <v>4.746624813693745e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2439197413830484</v>
+        <v>5.54297373464532e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1599,85 +1599,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1389320423155034</v>
+        <v>0.1321803520598376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1385421431342179</v>
+        <v>0.1374146330827044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1306063984919291</v>
+        <v>0.1282873912293173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.129121137359983</v>
+        <v>0.0922288421613449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1375068579493684</v>
+        <v>0.07342984425973506</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1231950487954711</v>
+        <v>0.1031091614692267</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1104426406132993</v>
+        <v>0.06680268491708717</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1095637542027291</v>
+        <v>0.06443749778074316</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1171713669222685</v>
+        <v>0.06330772226088066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1137024679477103</v>
+        <v>0.04207224691299839</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1129844148237507</v>
+        <v>0.02695320974454878</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1140731433092065</v>
+        <v>0.02436582798502958</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0981633203783165</v>
+        <v>0.02718981894946722</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09848890663197046</v>
+        <v>0.03181843051098546</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1053161479650855</v>
+        <v>0.07275649991979986</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1062687313182446</v>
+        <v>0.03357892630040995</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1033957264719428</v>
+        <v>0.02929697685772909</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1133921527610399</v>
+        <v>0.02521977017932907</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1106659126225603</v>
+        <v>0.01514883157848692</v>
       </c>
       <c r="U6" t="n">
-        <v>0.121224745464765</v>
+        <v>0.006457132967696009</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1171159244409652</v>
+        <v>0.004807757261605888</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1116089459664163</v>
+        <v>0.0001819640374152832</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09977905295416642</v>
+        <v>0.0002247593666079809</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04885666879827995</v>
+        <v>1.961620786892476e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02908372141937167</v>
+        <v>1.040451524633281e-09</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.009127274361254633</v>
+        <v>1.172368736014647e-12</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001258388743323077</v>
+        <v>3.007401445011726e-16</v>
       </c>
     </row>
     <row r="7">
@@ -1687,85 +1687,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.143577101827508</v>
+        <v>0.1448099556353296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1436544066174101</v>
+        <v>0.144023537019039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1377819577612975</v>
+        <v>0.1376788386493123</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1367717921273363</v>
+        <v>0.1080003130774187</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1431738776809224</v>
+        <v>0.09083989061930482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1326303427594633</v>
+        <v>0.1199930603911421</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1227453939921546</v>
+        <v>0.0878848593603045</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1238036178068304</v>
+        <v>0.08457449258597241</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1137595477360465</v>
+        <v>0.08530356502421073</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1180609377847878</v>
+        <v>0.1167544512790029</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1187786109592251</v>
+        <v>0.1408335894438485</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1171160932701511</v>
+        <v>0.1462919703937414</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1382543321427335</v>
+        <v>0.1400581156466481</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1372244982579783</v>
+        <v>0.1278789955857557</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1272572062240303</v>
+        <v>0.05789374063907919</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1251062279144882</v>
+        <v>0.1097800310405484</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1276727663517062</v>
+        <v>0.1131207067354807</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1082167976423902</v>
+        <v>0.1228826735693533</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1134408262014333</v>
+        <v>0.1608632632410113</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09329037593080254</v>
+        <v>0.2074539120971102</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1013594625563778</v>
+        <v>0.2152692247305648</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1118715881738658</v>
+        <v>0.2664386829817164</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1208824628522964</v>
+        <v>0.2760207376963943</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1846540472242465</v>
+        <v>0.2636619569826631</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2070677925360064</v>
+        <v>0.2538817123725587</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2350714295139257</v>
+        <v>0.2317357291299708</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2351280522982069</v>
+        <v>0.2135860639996977</v>
       </c>
     </row>
     <row r="8">
@@ -1775,85 +1775,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1390951422740136</v>
+        <v>0.1326220434481884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138722449646595</v>
+        <v>0.1376694285897654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1308491353391417</v>
+        <v>0.1286278266146624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1293787167967901</v>
+        <v>0.09273555882285121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137705698328378</v>
+        <v>0.07396604615843425</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1235078114596226</v>
+        <v>0.1036663736660943</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1108389404019875</v>
+        <v>0.06744120765631002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1099654213660169</v>
+        <v>0.06508950381256955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1175572178081235</v>
+        <v>0.0639802966579878</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1141038696292929</v>
+        <v>0.04262229328829529</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1133937316082205</v>
+        <v>0.02736276508242852</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1144856947258949</v>
+        <v>0.02475983173018542</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09894183986667374</v>
+        <v>0.02767526239286876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0993000059328632</v>
+        <v>0.03243271776793945</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1060309476222615</v>
+        <v>0.07278714916641249</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.10702209109571</v>
+        <v>0.0346506237057338</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1042994889835559</v>
+        <v>0.03048718237615881</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1169328366348261</v>
+        <v>0.02402411465276522</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1121454089879729</v>
+        <v>0.01219114392470086</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1261301323953685</v>
+        <v>0.004182933452281695</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1177698690321185</v>
+        <v>0.002633927473582079</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1068767034022979</v>
+        <v>5.312708939339358e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09610581764844771</v>
+        <v>6.516648131921568e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04816747260267123</v>
+        <v>6.538421265243395e-09</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0293724070644431</v>
+        <v>3.673837675073008e-10</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.009811583288586773</v>
+        <v>4.793229581026101e-13</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.001627504738395335</v>
+        <v>1.655642235138975e-16</v>
       </c>
     </row>
   </sheetData>
@@ -1965,85 +1965,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1433176924799064</v>
+        <v>0.1452613372974713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1433182707904396</v>
+        <v>0.1461636661885674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.144368650916166</v>
+        <v>0.1554393769063962</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1433718114918582</v>
+        <v>0.1099012061497436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1430082383901567</v>
+        <v>0.09355275566325061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1405810569058084</v>
+        <v>0.07796191873488469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1387737338297989</v>
+        <v>0.07916335505015094</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1351271375901596</v>
+        <v>0.08104956158863477</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1283624143052709</v>
+        <v>0.08609534963812739</v>
       </c>
       <c r="K2" t="n">
-        <v>0.127160867085005</v>
+        <v>0.0889061253869172</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1205217353423928</v>
+        <v>0.09170256284730625</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1108398995999373</v>
+        <v>0.09516654407199843</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09857955697622336</v>
+        <v>0.08801381754882384</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1026909102675129</v>
+        <v>0.09195830652239652</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09519262278235981</v>
+        <v>0.09715938486869317</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08643118481289469</v>
+        <v>0.09857469916504678</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07406975816186559</v>
+        <v>0.0780395336675426</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07071127839847867</v>
+        <v>0.06072595670978226</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07554116689085433</v>
+        <v>0.05032258416002663</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0798010400506317</v>
+        <v>0.0499841338374004</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08535670893593028</v>
+        <v>0.08279976945456559</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1028064300694748</v>
+        <v>0.08021444424828612</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1172152709599553</v>
+        <v>0.02279676528409947</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1251502792334047</v>
+        <v>0.06337901069513481</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1273833037821405</v>
+        <v>0.02304630458874084</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006273219517661016</v>
+        <v>0.0002739910291955668</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001883231292672837</v>
+        <v>1.058087511604786e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2053,85 +2053,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1412320579754</v>
+        <v>0.1335099599546734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.141269549967013</v>
+        <v>0.1291064390484172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1396246722104054</v>
+        <v>0.1127878909093373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1414573772422296</v>
+        <v>0.191421626225188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1422479608527929</v>
+        <v>0.2159838514524762</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1465650935969567</v>
+        <v>0.2386992443466913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1498572324693234</v>
+        <v>0.2381068581589029</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1861271995473745</v>
+        <v>0.2402523544216938</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2323637137110727</v>
+        <v>0.1786227986499409</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2410089724638436</v>
+        <v>0.1722883037421742</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2778405150205562</v>
+        <v>0.1179707792072719</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3243231236227334</v>
+        <v>0.1104378690943132</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3736182859929078</v>
+        <v>0.3057923934441471</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3592739540220174</v>
+        <v>0.2933741407139951</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3889990916423927</v>
+        <v>0.2861939538601995</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4213969629449952</v>
+        <v>0.05262684755604264</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4633990531664626</v>
+        <v>0.02080365611926115</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4754163081618671</v>
+        <v>0.008498264437476673</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4615279194764767</v>
+        <v>0.003621320317255153</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4499662992472194</v>
+        <v>0.002019691646736664</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4347512291788129</v>
+        <v>0.00308039446753413</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3705753797600617</v>
+        <v>0.001135103752728851</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2777088926471294</v>
+        <v>5.26124334446555e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2942452672375595</v>
+        <v>8.375387335453363e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1859290466277619</v>
+        <v>2.874012754182139e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001696045749519064</v>
+        <v>6.416577811120733e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.346677307544398e-05</v>
+        <v>2.109597959615348e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2141,85 +2141,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1412320556254497</v>
+        <v>0.1335099471434628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1412695476395398</v>
+        <v>0.1291064208320523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1396247026438159</v>
+        <v>0.1127881379134923</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1414573890382234</v>
+        <v>0.1914205795104248</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1422479709232191</v>
+        <v>0.2159821409342217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1465650521643551</v>
+        <v>0.2386968604457358</v>
       </c>
       <c r="H4" t="n">
-        <v>0.149857156068616</v>
+        <v>0.2381047217026859</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1323169637216925</v>
+        <v>0.2311733206285621</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1120814804516203</v>
+        <v>0.2657738367099216</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1082029468622921</v>
+        <v>0.2631905650448327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09340187561712776</v>
+        <v>0.2997667985881596</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07626716682422155</v>
+        <v>0.2972667146233891</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0600864986174787</v>
+        <v>0.159446624768521</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06418763026848347</v>
+        <v>0.158758287251525</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05443092461681814</v>
+        <v>0.1508924177597317</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04436463649161346</v>
+        <v>0.3394662048923748</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03243834887036064</v>
+        <v>0.4039438331717421</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02818230998760834</v>
+        <v>0.4585121695595037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03115749720552049</v>
+        <v>0.4879274613957828</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03336732602614308</v>
+        <v>0.476354872997224</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03657792410819723</v>
+        <v>0.3531266930299781</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06009999422808483</v>
+        <v>0.3317823807027142</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1046786493669084</v>
+        <v>0.4577410923569196</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0851052675082286</v>
+        <v>0.2995815548246906</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1513833963059243</v>
+        <v>0.3712207295583185</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4494099532315615</v>
+        <v>0.4537599884990492</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4922024965085416</v>
+        <v>0.4710263498966121</v>
       </c>
     </row>
     <row r="5">
@@ -2229,85 +2229,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1412311709999317</v>
+        <v>0.1335051245504008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1412686714690388</v>
+        <v>0.1290995636000479</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1396232643100385</v>
+        <v>0.112777469078144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1414562646598253</v>
+        <v>0.1914281031657815</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1422468715608176</v>
+        <v>0.2159998885612512</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1465648252712559</v>
+        <v>0.2387251035911774</v>
       </c>
       <c r="H5" t="n">
-        <v>0.149857519184838</v>
+        <v>0.2381286707150552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1463159846452526</v>
+        <v>0.2425398331748993</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1394291288490032</v>
+        <v>0.2569371538913815</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1382143685145392</v>
+        <v>0.2654701715472363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1313214918749184</v>
+        <v>0.2728922511368365</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1211458281970112</v>
+        <v>0.2833054431943116</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1074647709623364</v>
+        <v>0.258940858963745</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1120161841328866</v>
+        <v>0.2703956536658422</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1036503623075842</v>
+        <v>0.2853269878000311</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09391026005707784</v>
+        <v>0.2946024982335422</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08023174296454003</v>
+        <v>0.235160260893994</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07563378917167425</v>
+        <v>0.1959778009588502</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08145541009009685</v>
+        <v>0.1728905934444387</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08655336591976436</v>
+        <v>0.1783033039970332</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09338699820182735</v>
+        <v>0.2791366939111351</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1179593484862263</v>
+        <v>0.2906742869188045</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1447546070195811</v>
+        <v>0.1164921638211038</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1522967006449491</v>
+        <v>0.3324060725598595</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1707723321063477</v>
+        <v>0.1968265000389098</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01304121075559635</v>
+        <v>0.004512513664141583</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0005705904878076955</v>
+        <v>2.387256535574694e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2317,85 +2317,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.145349435189705</v>
+        <v>0.1574520587909212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1452800833834164</v>
+        <v>0.1645700675147964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1466882871630731</v>
+        <v>0.1800587941315093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1449544753083951</v>
+        <v>0.1067959235150275</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1441433515420191</v>
+        <v>0.08588762648633376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1401343778696816</v>
+        <v>0.06698821661039653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1370358418191689</v>
+        <v>0.06675730445524455</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1196636117426895</v>
+        <v>0.06466166813872938</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1000372465842787</v>
+        <v>0.07483501142305944</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0962656788397815</v>
+        <v>0.07354894063336753</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08217114757897449</v>
+        <v>0.08446203903509586</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06613082132767543</v>
+        <v>0.08296451095023423</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05034715105117118</v>
+        <v>0.03796281784037644</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05409479301489319</v>
+        <v>0.03701363388677661</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04463913306182576</v>
+        <v>0.03355310519812971</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03516514796102422</v>
+        <v>0.09350004091739592</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02442526162977428</v>
+        <v>0.1258128920892497</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02190963938032019</v>
+        <v>0.1322005638259655</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02408108933081026</v>
+        <v>0.1360153585130106</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02585120240193354</v>
+        <v>0.1435352716558867</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02838771267864296</v>
+        <v>0.1534152232046201</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04244707798759961</v>
+        <v>0.1682342575908464</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07324264614843587</v>
+        <v>0.2316754370518627</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06042909129283122</v>
+        <v>0.169514641745039</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1065586480623991</v>
+        <v>0.2236696031027551</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2696064407481274</v>
+        <v>0.2924661676661875</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2681657392506792</v>
+        <v>0.3010825280694719</v>
       </c>
     </row>
     <row r="7">
@@ -2405,85 +2405,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1423929665283755</v>
+        <v>0.1399565472680944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424141477608938</v>
+        <v>0.1383783463018165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1434927186536616</v>
+        <v>0.1473305496953687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1424358236301289</v>
+        <v>0.1024249611238384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1420354866487375</v>
+        <v>0.08671447506371949</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1394797007221643</v>
+        <v>0.07181408609388212</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1375670916248776</v>
+        <v>0.07281229147888579</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1606768145024104</v>
+        <v>0.07546188750972223</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1875033087956685</v>
+        <v>0.06270423545868467</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1926806256373087</v>
+        <v>0.06281230009759385</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2123341255741698</v>
+        <v>0.04852213157057784</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2349014160455187</v>
+        <v>0.04761753298231611</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2591062014278072</v>
+        <v>0.1108504442443042</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2532015541431514</v>
+        <v>0.1103590156509679</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2679044952755913</v>
+        <v>0.1120442068236579</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2829577519266193</v>
+        <v>0.02710156875442328</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3003968529808034</v>
+        <v>0.01184191320207153</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3061507463639014</v>
+        <v>0.005294917055481538</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3019553039391786</v>
+        <v>0.002491194968515191</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2984165126625767</v>
+        <v>0.001526214203298473</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2929393000069288</v>
+        <v>0.002440927587641547</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2605709900472317</v>
+        <v>0.001039307318743815</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2043357888966758</v>
+        <v>5.686286430813456e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2177251538901765</v>
+        <v>9.703057788703857e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1440145750967169</v>
+        <v>4.047269310289884e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001507425642058376</v>
+        <v>9.833478201314754e-09</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.324929396565547e-05</v>
+        <v>3.154693455314084e-13</v>
       </c>
     </row>
     <row r="8">
@@ -2493,85 +2493,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1452446212012315</v>
+        <v>0.1568050249949762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1451797289896586</v>
+        <v>0.1635754965143022</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1465777041028394</v>
+        <v>0.1788177813657523</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1448668586293393</v>
+        <v>0.106607600309996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1440701200822571</v>
+        <v>0.0858792618387471</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1401098934697781</v>
+        <v>0.06711457017723213</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1370514250033771</v>
+        <v>0.06692679843907461</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1197722882504209</v>
+        <v>0.06486137453775831</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1002227073030857</v>
+        <v>0.07503161422888441</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09646654059722982</v>
+        <v>0.0737835935478782</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08240910899186044</v>
+        <v>0.08468343761475226</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06639174438290245</v>
+        <v>0.08324138508343736</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05079753497207543</v>
+        <v>0.03899304319008253</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05453497415105516</v>
+        <v>0.03814096230849679</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04518337031342826</v>
+        <v>0.03482994368955693</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03577405580577527</v>
+        <v>0.09412814048117436</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0250389822261935</v>
+        <v>0.124397910856139</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02199592853614997</v>
+        <v>0.1387903274529402</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02428161306706279</v>
+        <v>0.146731487200971</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02604425369173136</v>
+        <v>0.1482765116624206</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02860012688966058</v>
+        <v>0.1260002983445255</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04554077942132106</v>
+        <v>0.1269202194678762</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0780641449613141</v>
+        <v>0.1711850661882615</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06504824019285026</v>
+        <v>0.1349379357240344</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1139586980187097</v>
+        <v>0.1852299414292112</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2584657043554763</v>
+        <v>0.24898732289137</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2388461345566631</v>
+        <v>0.227890872726861</v>
       </c>
     </row>
   </sheetData>
@@ -2683,85 +2683,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1419230846326011</v>
+        <v>0.1438279501265147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142634582540145</v>
+        <v>0.1423633861184135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1473607576076434</v>
+        <v>0.126196336826751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1575752509358842</v>
+        <v>0.1438897357525656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1499294049175606</v>
+        <v>0.1690360641452332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1601111445534408</v>
+        <v>0.1692742496887646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1569615316662681</v>
+        <v>0.1834969990576644</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1577309745600517</v>
+        <v>0.1888663026532632</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1580085793675042</v>
+        <v>0.1946700846621109</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1575693881061841</v>
+        <v>0.198198703146708</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1580410027345621</v>
+        <v>0.1691829689883894</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1593848700596137</v>
+        <v>0.148069229036399</v>
       </c>
       <c r="N2" t="n">
-        <v>0.160115164254048</v>
+        <v>0.1695420132174722</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1606715990067532</v>
+        <v>0.2230235076974843</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1587601865621495</v>
+        <v>0.228174273396189</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1544253228198212</v>
+        <v>0.2477534928613901</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1579676724046717</v>
+        <v>0.2720248107387926</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1551726287330161</v>
+        <v>0.2634815088631193</v>
       </c>
       <c r="T2" t="n">
-        <v>0.156147873288665</v>
+        <v>0.1934055405473108</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1576025056102677</v>
+        <v>0.2523641676570867</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1672437744180903</v>
+        <v>0.1546474093001372</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1515484423827328</v>
+        <v>0.319534181141253</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1758585275493401</v>
+        <v>0.1932756052544071</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1997963396536399</v>
+        <v>0.4869326274827085</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2190603157759724</v>
+        <v>0.6321403787610971</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.276685026373433</v>
+        <v>0.6073615685330105</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3247063612299817</v>
+        <v>0.4587384171738711</v>
       </c>
     </row>
     <row r="3">
@@ -2771,85 +2771,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1460545524067875</v>
+        <v>0.1396910160475946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1436815605517597</v>
+        <v>0.1453880442108061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1358936972257812</v>
+        <v>0.1716369414013592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1180838448726709</v>
+        <v>0.1452418094344566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1319321580601484</v>
+        <v>0.101584847811257</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1136649512298212</v>
+        <v>0.1039637714928733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1199245886294926</v>
+        <v>0.07806048230796869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1140332366203635</v>
+        <v>0.06665536943703383</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1167480596966959</v>
+        <v>0.06873749522877382</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1301156158242023</v>
+        <v>0.04741083954511455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1309348465185797</v>
+        <v>0.01635327232449484</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1130427679256119</v>
+        <v>0.008886467272623001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1178522500908646</v>
+        <v>0.01139689209430294</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1290312177581713</v>
+        <v>0.05429211422903118</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1606622840772193</v>
+        <v>0.07320801242136507</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.192614235513922</v>
+        <v>0.05978504810457326</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1806573972626161</v>
+        <v>0.06097379853078927</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2038004942856213</v>
+        <v>0.01839759892479147</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2084685248729318</v>
+        <v>0.005222200449353421</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2132811368860964</v>
+        <v>0.006181042191357295</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1552698155234576</v>
+        <v>0.0007994099429428451</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07667375482177599</v>
+        <v>0.001915508221825255</v>
       </c>
       <c r="X3" t="n">
-        <v>0.100710810988137</v>
+        <v>0.0001659919896475104</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1190238816788092</v>
+        <v>0.0003006088163007226</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1133727869204034</v>
+        <v>0.0002523544648037572</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1467211571508795</v>
+        <v>5.157461523912164e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1710493716661063</v>
+        <v>4.383138225849658e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2859,85 +2859,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1460545571125348</v>
+        <v>0.13969101126494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1436815617117334</v>
+        <v>0.1453880472038584</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1358938219222025</v>
+        <v>0.1716365402268669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1180841929252501</v>
+        <v>0.145241980719176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1319323585332785</v>
+        <v>0.1015854740914473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1136653525129365</v>
+        <v>0.1039644589786371</v>
       </c>
       <c r="H4" t="n">
-        <v>0.119924944458099</v>
+        <v>0.07806131675624541</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1224546360278411</v>
+        <v>0.07873925542056423</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1209076691914207</v>
+        <v>0.07618235216565913</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1143431544284406</v>
+        <v>0.08491870388401704</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1136440534955662</v>
+        <v>0.1057884580001013</v>
       </c>
       <c r="M4" t="n">
-        <v>0.122034282157796</v>
+        <v>0.1131658116902355</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1194814875667614</v>
+        <v>0.1112708256973867</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1139078908187409</v>
+        <v>0.08078015414774661</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0992306996976023</v>
+        <v>0.06892275527169762</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08519365502543812</v>
+        <v>0.07310100907209723</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08970250176727294</v>
+        <v>0.06785464068048702</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07612152204550295</v>
+        <v>0.1129034874368344</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07195208423794131</v>
+        <v>0.1603848415454786</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06726540545331702</v>
+        <v>0.1219505790079252</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09864658610405259</v>
+        <v>0.1677840820297195</v>
       </c>
       <c r="W4" t="n">
-        <v>0.16894383489536</v>
+        <v>0.07454491471784484</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1368675595881967</v>
+        <v>0.0969976500060508</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1090588671071443</v>
+        <v>0.02591537895461584</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09922242716648776</v>
+        <v>0.001846817897333442</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04211973219089378</v>
+        <v>8.477637120477042e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.003117963926427811</v>
+        <v>2.452505182711506e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2947,85 +2947,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.146056328555557</v>
+        <v>0.1396892108569175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.143681998363607</v>
+        <v>0.1453891738455585</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1358920737422591</v>
+        <v>0.1716450709122466</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1180784828397338</v>
+        <v>0.1452402683804271</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1319292727715555</v>
+        <v>0.1015754211262046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1136586976763898</v>
+        <v>0.1039533567800435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1199191042059239</v>
+        <v>0.07804741673785601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1204485227078179</v>
+        <v>0.07765921479038831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.120703462887417</v>
+        <v>0.08014574760162158</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1205368747224618</v>
+        <v>0.0813456370276724</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1209196385323761</v>
+        <v>0.06871035463008156</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1217348243022241</v>
+        <v>0.05980059283579849</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1222310225347147</v>
+        <v>0.06823903014518941</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1225290982915336</v>
+        <v>0.0886101584346633</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1207591570420699</v>
+        <v>0.09033024438087679</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1171708423798139</v>
+        <v>0.09814310827942825</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1199455175996726</v>
+        <v>0.1075540187820055</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1153977139724042</v>
+        <v>0.1161068365428015</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1153596369694127</v>
+        <v>0.09569611600071787</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1155940354852149</v>
+        <v>0.1206221875819654</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1289300988024027</v>
+        <v>0.08784838812209268</v>
       </c>
       <c r="W5" t="n">
-        <v>0.127785187908709</v>
+        <v>0.1630109434286059</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1427215962425343</v>
+        <v>0.1271206676942661</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1580952797956691</v>
+        <v>0.300126167615367</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1756547487381793</v>
+        <v>0.3473420360075136</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2139656750477236</v>
+        <v>0.3908894792027992</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2413935573877335</v>
+        <v>0.541191572952842</v>
       </c>
     </row>
     <row r="6">
@@ -3035,85 +3035,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1379831897285264</v>
+        <v>0.1476353063744816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1415810120570848</v>
+        <v>0.1387371030843821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1484522650298058</v>
+        <v>0.1159246447568127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1647319601857955</v>
+        <v>0.1375422784869827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1517899911093202</v>
+        <v>0.1772079046154293</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1687691453320748</v>
+        <v>0.1734961064128897</v>
       </c>
       <c r="H6" t="n">
-        <v>0.162624984819969</v>
+        <v>0.1976739279454755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1663212273020352</v>
+        <v>0.2072932518121535</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1639174877383195</v>
+        <v>0.19868838559987</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1540383478687769</v>
+        <v>0.2231681365628332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1528870971196547</v>
+        <v>0.290084264262057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1653411490381994</v>
+        <v>0.3173677028465254</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1605818452458419</v>
+        <v>0.2954473337859025</v>
       </c>
       <c r="O6" t="n">
-        <v>0.150714118257001</v>
+        <v>0.1819656820636994</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1264157870477237</v>
+        <v>0.1467958281504493</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1043748455290858</v>
+        <v>0.1516131461759553</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1105643506325804</v>
+        <v>0.129803735405914</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0984077718199312</v>
+        <v>0.1897408316129526</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09530601073680928</v>
+        <v>0.2262689137485686</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09195179441552959</v>
+        <v>0.2216737940803884</v>
       </c>
       <c r="V6" t="n">
-        <v>0.122173626729511</v>
+        <v>0.2606125630129435</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1697281946816691</v>
+        <v>0.239020958937317</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1393770015709578</v>
+        <v>0.3290566188070337</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1130069905224159</v>
+        <v>0.1002257731721631</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1048638188236037</v>
+        <v>0.008307555012204253</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04852302166177196</v>
+        <v>0.000493924352024853</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.004989549191036619</v>
+        <v>3.241735785225506e-06</v>
       </c>
     </row>
     <row r="7">
@@ -3123,85 +3123,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1437438558157899</v>
+        <v>0.1420208834184657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1431031085084572</v>
+        <v>0.1437944078007123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1480600608096861</v>
+        <v>0.1266693343986087</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1588957643305882</v>
+        <v>0.1450170328612948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1507211426328417</v>
+        <v>0.1719061680255441</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1615863623152543</v>
+        <v>0.171822908255739</v>
       </c>
       <c r="H7" t="n">
-        <v>0.158152303201799</v>
+        <v>0.1872183781692246</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1528445389164011</v>
+        <v>0.1737612515056482</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1559275229458124</v>
+        <v>0.1830079688882582</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1694104419655226</v>
+        <v>0.1420427855971304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1707226904169931</v>
+        <v>0.06100464961922953</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1532441087040437</v>
+        <v>0.03717161258189872</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1590847168257769</v>
+        <v>0.04793769204058918</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1720170902647566</v>
+        <v>0.1845354282503434</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2067013373580453</v>
+        <v>0.2406303461784239</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2403651327607537</v>
+        <v>0.2119864428549861</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2291197729068506</v>
+        <v>0.2251137597547563</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2544523585361966</v>
+        <v>0.081434667230337</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2606115540629316</v>
+        <v>0.02616334273449173</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2671542307758767</v>
+        <v>0.03220241291082027</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2040910496777158</v>
+        <v>0.005124821249945938</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1082662988595148</v>
+        <v>0.01253634252419124</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1411388337610934</v>
+        <v>0.00136565646403462</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1670271637133119</v>
+        <v>0.002626520080975664</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1618750618933182</v>
+        <v>0.002406585709709331</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2103476603514852</v>
+        <v>0.0005744862300408538</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2469833589640195</v>
+        <v>5.608354013338168e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3211,85 +3211,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1381844317482034</v>
+        <v>0.1474446219110858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1416361762672128</v>
+        <v>0.1389398377362693</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1484473236626218</v>
+        <v>0.1162911314773548</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1645505039100774</v>
+        <v>0.1378268943650972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1517656719752952</v>
+        <v>0.1771041201848845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1685443463800825</v>
+        <v>0.1735251483910528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1624925430184485</v>
+        <v>0.1974414790255656</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1661668638654893</v>
+        <v>0.2070253543809487</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1637872181728302</v>
+        <v>0.1985679658537065</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1539861770844118</v>
+        <v>0.2229151942365244</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1528506711822681</v>
+        <v>0.2888760321756464</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1652179978125114</v>
+        <v>0.3155385837365199</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606535134819925</v>
+        <v>0.2961662130191569</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1511289856030434</v>
+        <v>0.1867929551770319</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12747054821519</v>
+        <v>0.1519385402009983</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1058559659711653</v>
+        <v>0.1576177526515698</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1120427874263357</v>
+        <v>0.1366752361072554</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09664751060732744</v>
+        <v>0.2179350693891636</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09215431583130822</v>
+        <v>0.2928590449740789</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08715089137369787</v>
+        <v>0.2450058165704567</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1236450487447699</v>
+        <v>0.3231833263422184</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1970542864502382</v>
+        <v>0.1894371510289629</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1633256702997407</v>
+        <v>0.2520178097845601</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1339914775290096</v>
+        <v>0.0838729238778692</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1259508406820353</v>
+        <v>0.007704272147338417</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.06163772722381292</v>
+        <v>0.0005441906956806313</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.007759837634694578</v>
+        <v>6.056208624048243e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3401,85 +3401,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1429587324836809</v>
+        <v>0.1420970079631379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436631531527187</v>
+        <v>0.144472343599112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1410079592147072</v>
+        <v>0.125866145981436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1434151943640374</v>
+        <v>0.154161138722312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1492606044676928</v>
+        <v>0.1670371556139063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1558605609066191</v>
+        <v>0.1851156700898394</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1437792194856672</v>
+        <v>0.1866890855323044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1429401813958939</v>
+        <v>0.1858786439627796</v>
       </c>
       <c r="J2" t="n">
-        <v>0.142453631381707</v>
+        <v>0.1786134468640979</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1440212719538685</v>
+        <v>0.181122356783508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1439247072287111</v>
+        <v>0.2034166755588078</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1437773053835798</v>
+        <v>0.2029326183189518</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1457850352661409</v>
+        <v>0.1968439479638116</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1471472228648572</v>
+        <v>0.2032447784252901</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1480523968929962</v>
+        <v>0.2358808556959854</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1451311244890186</v>
+        <v>0.1825941760359881</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1498459047527465</v>
+        <v>0.2853842475825012</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1488512064975462</v>
+        <v>0.3014742375435553</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1559609765730873</v>
+        <v>0.1994066144136457</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1572253148833446</v>
+        <v>0.1459339882185575</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1642849793440667</v>
+        <v>0.09608426108818321</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1746964539324953</v>
+        <v>0.04846966134081749</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1794955733916183</v>
+        <v>0.06880780927699238</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1868301002546909</v>
+        <v>0.03557606218480228</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1950556582745379</v>
+        <v>3.500674745358593e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1063915848169948</v>
+        <v>1.459788933292088e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.142168424087726</v>
+        <v>2.014173704301994e-10</v>
       </c>
     </row>
     <row r="3">
@@ -3489,85 +3489,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.142531019912314</v>
+        <v>0.1457599187822378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1399511293310427</v>
+        <v>0.1375102662528961</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1445347085574503</v>
+        <v>0.1692437014731719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1406145512865152</v>
+        <v>0.1241442947203082</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1306323200024229</v>
+        <v>0.1009200404114809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1188120820661315</v>
+        <v>0.05610545553836244</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1409298778526244</v>
+        <v>0.05685441404415875</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1537887719573539</v>
+        <v>0.09153917339962495</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1620363106807021</v>
+        <v>0.1179755035966555</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1493985188065179</v>
+        <v>0.1202997918034336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.15680048793972</v>
+        <v>0.06276203024488157</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1650041550009329</v>
+        <v>0.1015572862695432</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1490608119512236</v>
+        <v>0.1201198282977262</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1332548095659596</v>
+        <v>0.121509299234511</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1443053562302114</v>
+        <v>0.03552902141815817</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09272543241137023</v>
+        <v>0.01249397587566222</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1105391698878224</v>
+        <v>0.05402489835269145</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09492531621133868</v>
+        <v>0.02614674627764453</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1173689414061262</v>
+        <v>0.005117362213809232</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1083505052429532</v>
+        <v>0.00182071522955256</v>
       </c>
       <c r="V3" t="n">
-        <v>0.12095133418876</v>
+        <v>0.0004677384514629682</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1998706760748345</v>
+        <v>7.42274712193804e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1584209889781613</v>
+        <v>5.182237761581191e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.139085877396656</v>
+        <v>5.097810868892091e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1153395803416647</v>
+        <v>1.019399228190719e-09</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02952878496867395</v>
+        <v>1.911655067217521e-10</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02495589657864026</v>
+        <v>1.816992831791009e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3577,85 +3577,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1425310194141165</v>
+        <v>0.1457599227882485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.139951125179643</v>
+        <v>0.1375102582613278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1445346397504776</v>
+        <v>0.1692431971336403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1406145515859198</v>
+        <v>0.1241446296910109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1306324661679627</v>
+        <v>0.1009206080220567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1188123716799548</v>
+        <v>0.05610612005495782</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1409299220305999</v>
+        <v>0.05685511913152851</v>
       </c>
       <c r="I4" t="n">
-        <v>0.134535960150057</v>
+        <v>0.04441664006137306</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1303805177431429</v>
+        <v>0.03663075632955231</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1360728090339627</v>
+        <v>0.03475286624697886</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1320734608102368</v>
+        <v>0.05093885989363318</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1276641073634132</v>
+        <v>0.03613697976457637</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1347376262790341</v>
+        <v>0.02995411021785221</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1421256628580247</v>
+        <v>0.02779133427780971</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1361242111115335</v>
+        <v>0.05672249758188531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1635418049001487</v>
+        <v>0.06868881848124089</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1528138284744954</v>
+        <v>0.04523113021287847</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1638464794317055</v>
+        <v>0.06036257126196359</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1417460082488512</v>
+        <v>0.1083592007147371</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1459525599122168</v>
+        <v>0.1300043967482985</v>
       </c>
       <c r="V4" t="n">
-        <v>0.130247467743077</v>
+        <v>0.1491330700895222</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07085698352681243</v>
+        <v>0.1726918753317171</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08829911900684276</v>
+        <v>0.1577736367091118</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09295680515705056</v>
+        <v>0.1595781708374276</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09822464173070108</v>
+        <v>0.2201366398626459</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1921728828066107</v>
+        <v>0.1834458927824063</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1413756886836623</v>
+        <v>0.1493742291277008</v>
       </c>
     </row>
     <row r="5">
@@ -3665,85 +3665,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1425308318675729</v>
+        <v>0.1457614307962978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1399495624229981</v>
+        <v>0.1375072498840661</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1445341537930629</v>
+        <v>0.1692481886505151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1406129031041755</v>
+        <v>0.1241359656175189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1306283839156948</v>
+        <v>0.1009084018180397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1188059194794609</v>
+        <v>0.05609323367252331</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1409275025524886</v>
+        <v>0.05684150650534972</v>
       </c>
       <c r="I5" t="n">
-        <v>0.140261563573218</v>
+        <v>0.05660088737323248</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1398864733797565</v>
+        <v>0.05460716965200021</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1412945527895461</v>
+        <v>0.05544839428100738</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1413021323202613</v>
+        <v>0.0617848958283387</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1412703646157947</v>
+        <v>0.06213486879899432</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1433786394970535</v>
+        <v>0.06014186270627763</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1448674929741761</v>
+        <v>0.06199844883400036</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1456196097123409</v>
+        <v>0.07288917828837949</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1433669480631722</v>
+        <v>0.05694185188261628</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1477457626222704</v>
+        <v>0.08764922778487018</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1488651820419531</v>
+        <v>0.0980766254009937</v>
       </c>
       <c r="T5" t="n">
-        <v>0.151953179951713</v>
+        <v>0.07628111131295061</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1542510097296996</v>
+        <v>0.06110153112911289</v>
       </c>
       <c r="V5" t="n">
-        <v>0.158556753891804</v>
+        <v>0.04522931294407531</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1558066150840203</v>
+        <v>0.02688946422863287</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1667206103238512</v>
+        <v>0.04073089149284422</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1773707807634672</v>
+        <v>0.02816421477085987</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1918817854106245</v>
+        <v>5.578782721152877e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1253632143640229</v>
+        <v>2.94866016856083e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1855986534503913</v>
+        <v>6.893526997833625e-10</v>
       </c>
     </row>
     <row r="6">
@@ -3753,85 +3753,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1433475603772817</v>
+        <v>0.1383382957673709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1473325582357681</v>
+        <v>0.1509531022658651</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1431408403268323</v>
+        <v>0.121865528344018</v>
       </c>
       <c r="E6" t="n">
-        <v>0.146596541028709</v>
+        <v>0.1611774988571235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1556655725488919</v>
+        <v>0.1830153585801627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1667103034190938</v>
+        <v>0.2316247606749779</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1457882869032041</v>
+        <v>0.2289903914247268</v>
       </c>
       <c r="I6" t="n">
-        <v>0.138519644118034</v>
+        <v>0.1766177488317467</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1337895214030576</v>
+        <v>0.143017852918961</v>
       </c>
       <c r="K6" t="n">
-        <v>0.140105919403485</v>
+        <v>0.1343682822796403</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1354848406282541</v>
+        <v>0.2025033179669543</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1304014638718828</v>
+        <v>0.1372542471275659</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1390032086005602</v>
+        <v>0.1085781873170045</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1482577530006375</v>
+        <v>0.09665058543611485</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1397702728911561</v>
+        <v>0.2278922445500922</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.177966058689292</v>
+        <v>0.3153585417643026</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1608428100184768</v>
+        <v>0.1520900144530998</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1691135416443381</v>
+        <v>0.1891550928564843</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1560431557986049</v>
+        <v>0.2546622465989143</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1606717940825342</v>
+        <v>0.2706948865268713</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1527060299637412</v>
+        <v>0.2807903067445434</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1068480350129097</v>
+        <v>0.2770358664297731</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1328051456254787</v>
+        <v>0.264999640780842</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1405663970530335</v>
+        <v>0.2772412010505542</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1503485888362229</v>
+        <v>0.3069595043717331</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2865931409545427</v>
+        <v>0.3030414656223801</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2534398149381287</v>
+        <v>0.3062525111061433</v>
       </c>
     </row>
     <row r="7">
@@ -3841,85 +3841,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1427726612988035</v>
+        <v>0.1437470094692657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1420105041362976</v>
+        <v>0.141419547331371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.139249209796616</v>
+        <v>0.122640105654062</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1417241159547163</v>
+        <v>0.1513691764452694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1477901322473436</v>
+        <v>0.1647768645370438</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1547047678464181</v>
+        <v>0.1849715027859884</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1419903497758825</v>
+        <v>0.1862454220404206</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1515143206207764</v>
+        <v>0.2691404502425748</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1577089122741108</v>
+        <v>0.3266068560038843</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1490819034006284</v>
+        <v>0.3399854584110726</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1549714077432342</v>
+        <v>0.2170098272273634</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1614808868185329</v>
+        <v>0.322898441856212</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1492269415923376</v>
+        <v>0.3751757420082316</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1365300481840291</v>
+        <v>0.3909999844497634</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1464458365890244</v>
+        <v>0.1451469120353631</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.100910534019198</v>
+        <v>0.05730899375490027</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1180251707357056</v>
+        <v>0.2205811370224637</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1037136590726739</v>
+        <v>0.1239919203520046</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1259311223093862</v>
+        <v>0.02817208812504151</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1179582423795096</v>
+        <v>0.01098526546413213</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1311726107007415</v>
+        <v>0.003170686897843412</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2072864916047444</v>
+        <v>0.0005728492285885271</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1692666326520434</v>
+        <v>0.0004360019804687174</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1516738126251674</v>
+        <v>5.016161270752986e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1289480254442157</v>
+        <v>1.061111908159676e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03523017817164333</v>
+        <v>2.1056508411496e-09</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03097048384459074</v>
+        <v>1.943419789000103e-14</v>
       </c>
     </row>
     <row r="8">
@@ -3929,85 +3929,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1433281746462304</v>
+        <v>0.1385364144334415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1471419675415317</v>
+        <v>0.1506272324053619</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1429984885608537</v>
+        <v>0.1218931327631568</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1464221426759266</v>
+        <v>0.1608672959464571</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1553905206499914</v>
+        <v>0.1824215710173097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1662939946023219</v>
+        <v>0.2299832571833509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1456548413995332</v>
+        <v>0.2275240613215112</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1384395581846667</v>
+        <v>0.1758064561286684</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1337446331375231</v>
+        <v>0.1425484146348489</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1400250246119913</v>
+        <v>0.1340228501943592</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1354429633295822</v>
+        <v>0.2015843932800211</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1304017169458636</v>
+        <v>0.1370855578641565</v>
       </c>
       <c r="N8" t="n">
-        <v>0.13880773681365</v>
+        <v>0.1091863214890962</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1478170105523156</v>
+        <v>0.09780556934251057</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1396823165727375</v>
+        <v>0.2259392904301363</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1763580974278002</v>
+        <v>0.3066136422052896</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1601873535084831</v>
+        <v>0.1550393445914952</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1706846151004447</v>
+        <v>0.2007928063073539</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1509966157122311</v>
+        <v>0.3280013766209016</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1555905737697419</v>
+        <v>0.379459216683475</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1420808241678094</v>
+        <v>0.4251246237843694</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08463474476418344</v>
+        <v>0.4742660559692515</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1049919300220044</v>
+        <v>0.467200197382125</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1115162267499343</v>
+        <v>0.4993850917327796</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1202017199620332</v>
+        <v>0.4728130495604374</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2247202139175114</v>
+        <v>0.5134685548073789</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2214910384168607</v>
+        <v>0.5443732588753646</v>
       </c>
     </row>
   </sheetData>
@@ -4119,85 +4119,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1431648764978801</v>
+        <v>0.1423865121971419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143652400576652</v>
+        <v>0.1434289002814881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140004397492568</v>
+        <v>0.1217263132189424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1356046380939053</v>
+        <v>0.1239981187337126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1395102990626242</v>
+        <v>0.1646325076717638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1515686010716502</v>
+        <v>0.1755068148638291</v>
       </c>
       <c r="H2" t="n">
-        <v>0.141470783586604</v>
+        <v>0.1890078883626239</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1418770356841973</v>
+        <v>0.1934457215407068</v>
       </c>
       <c r="J2" t="n">
-        <v>0.142070898969847</v>
+        <v>0.1967102362904398</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1392006268876343</v>
+        <v>0.1874238430602214</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1327828168261538</v>
+        <v>0.1891594907060857</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1355231226870295</v>
+        <v>0.1915998874627222</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1271491990228236</v>
+        <v>0.1014531742701254</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1366895522816799</v>
+        <v>0.1105181174632599</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1422003481338742</v>
+        <v>0.1926983793553228</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1435854411794009</v>
+        <v>0.1246292964846893</v>
       </c>
       <c r="R2" t="n">
-        <v>0.144713484336118</v>
+        <v>0.06342543918468288</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1472468308102741</v>
+        <v>0.06714334631631338</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1477676093458218</v>
+        <v>0.03740826229156226</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1486038624559962</v>
+        <v>0.03401103597177811</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1566081964701607</v>
+        <v>0.04885255713537724</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1551518633428103</v>
+        <v>0.05798378993180826</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1586370628908176</v>
+        <v>0.04523353263932316</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1934717655153094</v>
+        <v>0.08135102469235576</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2031626614353791</v>
+        <v>0.0175842747070116</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2179976942574088</v>
+        <v>0.01327455938821096</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2733625192440339</v>
+        <v>0.003382858609924128</v>
       </c>
     </row>
     <row r="3">
@@ -4207,85 +4207,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.141790513218413</v>
+        <v>0.1448388114538161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1400003757714062</v>
+        <v>0.1415945571608756</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1462345798113921</v>
+        <v>0.1773083776589166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1536384003976605</v>
+        <v>0.1748533770552445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1473222817338504</v>
+        <v>0.1076253731373514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12648361622464</v>
+        <v>0.08648852005827801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.144622166234232</v>
+        <v>0.0473969245285091</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1435452329021749</v>
+        <v>0.04565842085864796</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1459870857483766</v>
+        <v>0.06518796581776354</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1798161581285013</v>
+        <v>0.09488029205883326</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2261321730977816</v>
+        <v>0.09824526841543102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2119194416646029</v>
+        <v>0.1021820631768908</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2592926972756895</v>
+        <v>0.1949230706821299</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2099457151699362</v>
+        <v>0.1847530115821071</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1651751152211975</v>
+        <v>0.1124342262829673</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1594684532003342</v>
+        <v>0.1728343262267579</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1359560662816179</v>
+        <v>0.2205313325493712</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1588109326732525</v>
+        <v>0.2131978678980497</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2021127854679585</v>
+        <v>0.2332092607557425</v>
       </c>
       <c r="U3" t="n">
-        <v>0.129573628960056</v>
+        <v>0.2299181134339852</v>
       </c>
       <c r="V3" t="n">
-        <v>0.183606214318451</v>
+        <v>0.2099874076735131</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1287301538180902</v>
+        <v>0.1973807092736638</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1152423197319409</v>
+        <v>0.1973338890624108</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2153615476909994</v>
+        <v>0.1720308814434595</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2679853265899877</v>
+        <v>0.19801806952775</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2803914200911539</v>
+        <v>0.1936372229433864</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.190156834400218</v>
+        <v>0.2014336996816348</v>
       </c>
     </row>
     <row r="4">
@@ -4295,85 +4295,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1417905116602354</v>
+        <v>0.1448388140486153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140000371682184</v>
+        <v>0.1415945547247112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1462344840437276</v>
+        <v>0.1773077911260098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1536381894079343</v>
+        <v>0.1748529499795543</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1473221848688096</v>
+        <v>0.1076259092409063</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1264838110111527</v>
+        <v>0.08648919198017414</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1446221432246125</v>
+        <v>0.04739757737692905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1448756501446624</v>
+        <v>0.04423566627138333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.143346637737075</v>
+        <v>0.03716428910159938</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1268163682358446</v>
+        <v>0.0284339965293197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1063552012185611</v>
+        <v>0.02653761191168271</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1119053303138054</v>
+        <v>0.02417987402678762</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09272939809989399</v>
+        <v>0.007092920361171621</v>
       </c>
       <c r="O4" t="n">
-        <v>0.11218937987054</v>
+        <v>0.007554014012595083</v>
       </c>
       <c r="P4" t="n">
-        <v>0.131910560987305</v>
+        <v>0.02010050963606044</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1341536603580051</v>
+        <v>0.006552361636080496</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1455747986359193</v>
+        <v>0.002016945866820016</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1279975726192238</v>
+        <v>0.001815353123032712</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09966132832905804</v>
+        <v>0.0003651293183091613</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1450804497459202</v>
+        <v>0.0001913428092045822</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1017024197687601</v>
+        <v>0.0001899716084261607</v>
       </c>
       <c r="W4" t="n">
-        <v>0.137445535497583</v>
+        <v>9.051154043157102e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1420326398899539</v>
+        <v>1.065634942620075e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06177336536057673</v>
+        <v>5.63213330169811e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02705946453005916</v>
+        <v>2.536258481461826e-09</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01134250694834866</v>
+        <v>4.52851672419362e-11</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0165775381002909</v>
+        <v>4.017187915094143e-16</v>
       </c>
     </row>
     <row r="5">
@@ -4383,85 +4383,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.141789925092447</v>
+        <v>0.1448397908108688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1399988323256724</v>
+        <v>0.1415936375930718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1462344758656548</v>
+        <v>0.1773168976317265</v>
       </c>
       <c r="E5" t="n">
-        <v>0.153640110678121</v>
+        <v>0.1748592838980563</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1473221833224696</v>
+        <v>0.1076158381878716</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1264789498410117</v>
+        <v>0.0864768835543601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.144620881329915</v>
+        <v>0.04738585649373376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1450378685967871</v>
+        <v>0.0457894232599357</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1452776460259481</v>
+        <v>0.04679104701017994</v>
       </c>
       <c r="K5" t="n">
-        <v>0.142734712496187</v>
+        <v>0.04483847182611801</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1366204853047104</v>
+        <v>0.04532673298035018</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1393162656973496</v>
+        <v>0.04600555140076782</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1303590566023098</v>
+        <v>0.02400963792842487</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1405098255687889</v>
+        <v>0.0261547227782152</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1465684604485644</v>
+        <v>0.04605071725313731</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1480347758003215</v>
+        <v>0.02941225123977388</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1494421676324712</v>
+        <v>0.01481433181093817</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1489345942672503</v>
+        <v>0.01559391040794253</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1442410420651424</v>
+        <v>0.007603109265257515</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1536404908785336</v>
+        <v>0.006524517404654501</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1539011679413488</v>
+        <v>0.009354266342097234</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1598992801030502</v>
+        <v>0.01060016628252419</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1658911724010738</v>
+        <v>0.006888953214983526</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1807932314366326</v>
+        <v>0.01225118961220965</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1780994015943901</v>
+        <v>0.001406521984240039</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1868557727847553</v>
+        <v>0.0008214317295609983</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2726754844376767</v>
+        <v>0.000103312414382491</v>
       </c>
     </row>
     <row r="6">
@@ -4471,85 +4471,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1444871797866658</v>
+        <v>0.139720917865712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1472536443385945</v>
+        <v>0.144566892494902</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1415875913853439</v>
+        <v>0.1128643858848191</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1349224684181449</v>
+        <v>0.114300598815368</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1404640216108609</v>
+        <v>0.173926726335325</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1595320763685251</v>
+        <v>0.1944801210144637</v>
       </c>
       <c r="H6" t="n">
-        <v>0.142556304396639</v>
+        <v>0.238873623889555</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1427597408550935</v>
+        <v>0.2362762887676955</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1410325794149527</v>
+        <v>0.1939296812816548</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1232844146185962</v>
+        <v>0.144507553581203</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1018205670605491</v>
+        <v>0.1333480025265947</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1074818642228122</v>
+        <v>0.1195500939525383</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08599702049232777</v>
+        <v>0.02944131361521668</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1074097605380156</v>
+        <v>0.03092739289206507</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1306023239365525</v>
+        <v>0.09149642221317771</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1328234986889083</v>
+        <v>0.0235939577645525</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1470124532029538</v>
+        <v>0.006249328290016313</v>
       </c>
       <c r="S6" t="n">
-        <v>0.135564021779685</v>
+        <v>0.005825277224687945</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1147818125949596</v>
+        <v>0.001659525795419043</v>
       </c>
       <c r="U6" t="n">
-        <v>0.149318205450264</v>
+        <v>0.001074719335695828</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1212458098164875</v>
+        <v>0.001314286752838337</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1491196791316092</v>
+        <v>0.0009861323102336496</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1545146750986409</v>
+        <v>0.0001099449664025825</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06991444310494785</v>
+        <v>6.219535877889464e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03206689024697654</v>
+        <v>3.490638292065111e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01454759176895557</v>
+        <v>7.544181485485597e-10</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02430886650138195</v>
+        <v>1.244530027168283e-14</v>
       </c>
     </row>
     <row r="7">
@@ -4559,85 +4559,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1425576272833491</v>
+        <v>0.1435103057180022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1420275605091663</v>
+        <v>0.1426972370084346</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1382406497137846</v>
+        <v>0.1203574982109349</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1336872016373863</v>
+        <v>0.122552600959697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.137698216266919</v>
+        <v>0.1648988257980691</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1502438690467912</v>
+        <v>0.1766227659905375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.13965580136049</v>
+        <v>0.1926429943486471</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1392460123179023</v>
+        <v>0.1998482402886602</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1413366634322315</v>
+        <v>0.267218688697645</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1648307727426391</v>
+        <v>0.3558288207469596</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1943289199896084</v>
+        <v>0.3743126080401714</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1862499114695191</v>
+        <v>0.3970394744589151</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2179390011903223</v>
+        <v>0.6128864252110373</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1856695714025551</v>
+        <v>0.6083062425740113</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1533584273361064</v>
+        <v>0.4445789431862743</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1495273696824086</v>
+        <v>0.6182324991417011</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1311646414732759</v>
+        <v>0.6862622965832285</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1508393250458478</v>
+        <v>0.6903553780997995</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1867611027705832</v>
+        <v>0.7183778341583236</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1270573912280408</v>
+        <v>0.7275022478819921</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1745721740419121</v>
+        <v>0.7294643740075927</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1277268015713195</v>
+        <v>0.7324842516448649</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1163578809485922</v>
+        <v>0.7503621376982895</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2101969661590996</v>
+        <v>0.7342630027494473</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2592297739774814</v>
+        <v>0.7829910727696981</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2733956864585434</v>
+        <v>0.7922667845600331</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1950306824091144</v>
+        <v>0.7950801292940314</v>
       </c>
     </row>
     <row r="8">
@@ -4647,85 +4647,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1444193664610096</v>
+        <v>0.1398648479058438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1470668147963245</v>
+        <v>0.1445242207365165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1414638216875291</v>
+        <v>0.1131187362686507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1348689913668477</v>
+        <v>0.1145830705583674</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1403608131344664</v>
+        <v>0.1736748196287127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1592090764362292</v>
+        <v>0.1939357025383572</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1424519198675077</v>
+        <v>0.2372951350000022</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1426584594991823</v>
+        <v>0.2347462390129705</v>
       </c>
       <c r="J8" t="n">
-        <v>0.140948488671569</v>
+        <v>0.1929980918007174</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1233169468905975</v>
+        <v>0.1440870221973451</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1019598365026354</v>
+        <v>0.1330702854196843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1076040639448813</v>
+        <v>0.1194430555213782</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08653362731663305</v>
+        <v>0.0301934579318941</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1075861951684842</v>
+        <v>0.03178649869774625</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1301847639363999</v>
+        <v>0.09264080207306009</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1324068010906213</v>
+        <v>0.02474530750644488</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1461363884376438</v>
+        <v>0.006700325714943107</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1306067228044664</v>
+        <v>0.006068866930174134</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1046743194264765</v>
+        <v>0.001376878415385858</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1467259712811892</v>
+        <v>0.0007780231626896638</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1083640176428797</v>
+        <v>0.0008371364801551957</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1419266865355376</v>
+        <v>0.0004744390164735839</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1473242490389807</v>
+        <v>6.088606916419149e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06848868073243443</v>
+        <v>3.607401044710973e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03239648162572589</v>
+        <v>2.356865878642872e-08</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01546932769083456</v>
+        <v>5.791052157408973e-10</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02788807490728422</v>
+        <v>1.430198537493638e-14</v>
       </c>
     </row>
   </sheetData>
@@ -4837,85 +4837,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1422865595072206</v>
+        <v>0.142422311000038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1423263124564962</v>
+        <v>0.1442489476345158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1476397293875116</v>
+        <v>0.1384366162072374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1442038335225867</v>
+        <v>0.1525181653826708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1627767270428413</v>
+        <v>0.1566810403364201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.160509209691221</v>
+        <v>0.1743935535686812</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1567643354447419</v>
+        <v>0.1852295921860733</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1540385243125758</v>
+        <v>0.1821492894710462</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1541845722861306</v>
+        <v>0.1729184785149161</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1573771057147435</v>
+        <v>0.1747582008828666</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1570166938248228</v>
+        <v>0.1347677936690681</v>
       </c>
       <c r="M2" t="n">
-        <v>0.153883042951843</v>
+        <v>0.1096023618107948</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1547635478782489</v>
+        <v>0.1037542301348347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1582884215602232</v>
+        <v>0.1430338224248002</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1548454631622992</v>
+        <v>0.1329143001006453</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1567279217060129</v>
+        <v>0.08589151394040186</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1550825003597144</v>
+        <v>0.0581073275332681</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1604066198642063</v>
+        <v>0.05985888172541208</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1424190256505331</v>
+        <v>0.08115787102251791</v>
       </c>
       <c r="U2" t="n">
-        <v>0.117550246533214</v>
+        <v>0.1332858086811376</v>
       </c>
       <c r="V2" t="n">
-        <v>0.14597946557845</v>
+        <v>0.04700093326465721</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1800986180175194</v>
+        <v>0.05134457799984914</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1517931870129957</v>
+        <v>0.1271593492660431</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1309927508123744</v>
+        <v>0.009755040953356307</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1110621771433425</v>
+        <v>0.001571136448065951</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0341715837229364</v>
+        <v>9.925192883240312e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.003396826710949171</v>
+        <v>2.856516764591287e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4925,85 +4925,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1448523269497237</v>
+        <v>0.1446158334722764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447529813075231</v>
+        <v>0.1383206517802537</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1360272733525268</v>
+        <v>0.1489946070338927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1419507264054535</v>
+        <v>0.1266258140052074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1090951909480402</v>
+        <v>0.1212000651503605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1136945038612283</v>
+        <v>0.08910328944469569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1210264030171158</v>
+        <v>0.06540709571194786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1478805992846172</v>
+        <v>0.03734401897448993</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1495192786131998</v>
+        <v>0.02318429380391298</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1220169815456769</v>
+        <v>0.01999827906077438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1348197376389704</v>
+        <v>0.005766643286455026</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1661595514573012</v>
+        <v>0.002719134019245894</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1651063253919075</v>
+        <v>0.001920787011859568</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1434821008288139</v>
+        <v>0.004024048452274506</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07584929545112253</v>
+        <v>0.002239900970919519</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07727707651295752</v>
+        <v>0.0005487069533487875</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0681496793685582</v>
+        <v>0.0001782840758687259</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07630077123897368</v>
+        <v>0.0001341885138082705</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04291364309760713</v>
+        <v>0.0001716336887966455</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02239937193033473</v>
+        <v>0.0003356738361114392</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03758195745499897</v>
+        <v>1.421765145538973e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0636028160833616</v>
+        <v>9.687167557545169e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03665591469005135</v>
+        <v>1.490682323554861e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0232902185518084</v>
+        <v>7.434372066568856e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01417003470503435</v>
+        <v>3.605150751117132e-09</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00195182408311072</v>
+        <v>6.37097821735436e-12</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.572952589902528e-05</v>
+        <v>1.240135059848846e-15</v>
       </c>
     </row>
     <row r="4">
@@ -5013,85 +5013,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1448523298499405</v>
+        <v>0.1446158358235342</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447529840299518</v>
+        <v>0.1383206449351331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1360274135482019</v>
+        <v>0.1489944908895207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1419507911940671</v>
+        <v>0.1266261062435633</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1090956367700024</v>
+        <v>0.1212004966999568</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1136949197546056</v>
+        <v>0.08910399802116027</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1210267641495642</v>
+        <v>0.06540785954837255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1088862553520119</v>
+        <v>0.07696031275223328</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1079254748259749</v>
+        <v>0.08402070729076809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.12013686710091</v>
+        <v>0.08518559970828533</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1137426953093363</v>
+        <v>0.09652134599068427</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09939733945924074</v>
+        <v>0.1002644507730738</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09951522352820001</v>
+        <v>0.1012942641112948</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1084060441270066</v>
+        <v>0.1014830302273279</v>
       </c>
       <c r="P4" t="n">
-        <v>0.141148842737216</v>
+        <v>0.1036615526848824</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1400981204347174</v>
+        <v>0.1033769322727846</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1449690025840984</v>
+        <v>0.1000060941465587</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1356870291251114</v>
+        <v>0.0949975432421902</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1703007653225382</v>
+        <v>0.08180952480691688</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2050770017935623</v>
+        <v>0.06184512071486564</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1685206036639262</v>
+        <v>0.08736416471086972</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1242710587450303</v>
+        <v>0.07340200671962886</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1511231750978756</v>
+        <v>0.06170758596785543</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1672585815039204</v>
+        <v>0.07634309863599038</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.179771856306964</v>
+        <v>0.07550187452929358</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.229055137806803</v>
+        <v>0.07746042576910353</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2511426289128566</v>
+        <v>0.07059258172877782</v>
       </c>
     </row>
     <row r="5">
@@ -5101,85 +5101,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1448534216151868</v>
+        <v>0.1446167209143805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1447540088643682</v>
+        <v>0.1383180681223108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1360259699979679</v>
+        <v>0.1489933105252548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1419507099889429</v>
+        <v>0.1266182674317836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1090886500239732</v>
+        <v>0.1211903389837653</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1136884903151988</v>
+        <v>0.08908968895366809</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1210213464197288</v>
+        <v>0.06539309553382801</v>
       </c>
       <c r="I5" t="n">
-        <v>0.119206641027093</v>
+        <v>0.06478430123941557</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1193466394961404</v>
+        <v>0.06124426659462039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1215212087274507</v>
+        <v>0.06185547835997823</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1214071190525755</v>
+        <v>0.04718233593052576</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1193387777374931</v>
+        <v>0.03811768573113025</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1200173068791983</v>
+        <v>0.03610292944395208</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1229277928437293</v>
+        <v>0.04946798614895181</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1209972454396774</v>
+        <v>0.04610638014712744</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1224322230280078</v>
+        <v>0.03008617970331574</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1212736278382172</v>
+        <v>0.02051394572455267</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1237540466431208</v>
+        <v>0.02118161580617961</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1161259802055602</v>
+        <v>0.02759169193449679</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1016348820093074</v>
+        <v>0.04181312213926548</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1198810688296485</v>
+        <v>0.01908327104454335</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1394439261527143</v>
+        <v>0.0215545453313187</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1254702424776606</v>
+        <v>0.05192744804242289</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1141107082808073</v>
+        <v>0.007113851545440216</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1028139097996681</v>
+        <v>0.001599290175614733</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03839248643845321</v>
+        <v>1.719649056694402e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.005144987702676844</v>
+        <v>6.825979413451935e-09</v>
       </c>
     </row>
     <row r="6">
@@ -5189,85 +5189,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1398027281253721</v>
+        <v>0.1400919466600837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1399427389010272</v>
+        <v>0.1497031523324138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1476087188374224</v>
+        <v>0.1396843901016322</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1422414517173383</v>
+        <v>0.1591402284792135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1724773461434154</v>
+        <v>0.163147232986827</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1679251278376553</v>
+        <v>0.1934009755039153</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1607941165074988</v>
+        <v>0.2178582361528753</v>
       </c>
       <c r="I6" t="n">
-        <v>0.14322701050776</v>
+        <v>0.2611221467082952</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1417763454035894</v>
+        <v>0.2892185324057589</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1593561770133806</v>
+        <v>0.2925658291280805</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1499093120524671</v>
+        <v>0.3458011748613103</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1291821986393578</v>
+        <v>0.3694986779961782</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1290436616758576</v>
+        <v>0.3752236160215154</v>
       </c>
       <c r="O6" t="n">
-        <v>0.142895692281105</v>
+        <v>0.3393303188612257</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2016720377889381</v>
+        <v>0.3502711772084877</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1985943651367477</v>
+        <v>0.3908521262998286</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2077470303775495</v>
+        <v>0.4155876093098552</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2011061359088753</v>
+        <v>0.4260845842708548</v>
       </c>
       <c r="T6" t="n">
-        <v>0.227713601172517</v>
+        <v>0.4423370742703762</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2444224305817064</v>
+        <v>0.4519825630241561</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2330620227358857</v>
+        <v>0.4546623459246119</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2092422603966722</v>
+        <v>0.4872478016344741</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2525084343009911</v>
+        <v>0.4226214125799952</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2788005356638008</v>
+        <v>0.5094422089113296</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3007263223614428</v>
+        <v>0.5154322090220358</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3707874701668776</v>
+        <v>0.5224503658714647</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4000170507912607</v>
+        <v>0.5346932547454095</v>
       </c>
     </row>
     <row r="7">
@@ -5277,85 +5277,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1434221425751984</v>
+        <v>0.1434207901606675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1434048098160588</v>
+        <v>0.1416581109690047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149002486700299</v>
+        <v>0.1353553980115798</v>
       </c>
       <c r="E7" t="n">
-        <v>0.145347013925426</v>
+        <v>0.1496388754937123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1652093992784704</v>
+        <v>0.1537272641214167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1627131575482837</v>
+        <v>0.1721938866808148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1586216400612379</v>
+        <v>0.1839748569342001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1834747027608244</v>
+        <v>0.1182125420341204</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1853991083669367</v>
+        <v>0.08236603200738661</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1602648961854728</v>
+        <v>0.07521429914289027</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1731533633658755</v>
+        <v>0.02772625997596654</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2026903795538082</v>
+        <v>0.01484972611743916</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2022983293268769</v>
+        <v>0.0112050423386884</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1812042001049549</v>
+        <v>0.02248075456331925</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1062987896024776</v>
+        <v>0.01404183225604333</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1084826127434622</v>
+        <v>0.004029646035685903</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09765180065122968</v>
+        <v>0.001467209180139137</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1085025792938383</v>
+        <v>0.001176226730969235</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06497844032962607</v>
+        <v>0.001569827965642168</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03602700400390331</v>
+        <v>0.003125218502629154</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05857748160299903</v>
+        <v>0.0001732571516962799</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09612374781232093</v>
+        <v>0.0001263109221353404</v>
       </c>
       <c r="X7" t="n">
-        <v>0.05774759105408493</v>
+        <v>0.0002112198376359759</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03791444915017325</v>
+        <v>1.324135643858042e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02385284409205769</v>
+        <v>7.003434167334107e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.003519213373101492</v>
+        <v>1.316412358495431e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0001288940389792597</v>
+        <v>2.561541253814273e-14</v>
       </c>
     </row>
     <row r="8">
@@ -5365,85 +5365,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1399304913773577</v>
+        <v>0.1402165619690197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1400661646245747</v>
+        <v>0.149430424226368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1476684081760705</v>
+        <v>0.1395411872308824</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1423554732461856</v>
+        <v>0.158832542963849</v>
       </c>
       <c r="F8" t="n">
-        <v>0.172257049793257</v>
+        <v>0.1628535617212536</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1677745909918074</v>
+        <v>0.1927146078270649</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1607453944001125</v>
+        <v>0.2167292639327028</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1432862667551176</v>
+        <v>0.2594273888203993</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1418485810080282</v>
+        <v>0.2870476893826369</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1593267637123656</v>
+        <v>0.2904223137171246</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1499510787559525</v>
+        <v>0.3422344462859899</v>
       </c>
       <c r="M8" t="n">
-        <v>0.129348710200956</v>
+        <v>0.3649479635521378</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1292556053197108</v>
+        <v>0.3704991309378549</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1427957482541672</v>
+        <v>0.3401800393221007</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1991883258182691</v>
+        <v>0.3507648566318943</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1963876804380946</v>
+        <v>0.3852148947946344</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2051263588206325</v>
+        <v>0.4041395300297574</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1942428179258741</v>
+        <v>0.3965669597105858</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2355485442216182</v>
+        <v>0.3653623763112533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2728890631479719</v>
+        <v>0.3076124931018346</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2363974001340914</v>
+        <v>0.3917018102521663</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1872175727923814</v>
+        <v>0.3663150702250365</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2247014553663408</v>
+        <v>0.336358077482812</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2476327560371154</v>
+        <v>0.397344401474519</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2676028555914906</v>
+        <v>0.4058954161854975</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3221222844087174</v>
+        <v>0.4000620865379695</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3401038823173784</v>
+        <v>0.3947141538432896</v>
       </c>
     </row>
   </sheetData>

--- a/Data/history_nocalib.xlsx
+++ b/Data/history_nocalib.xlsx
@@ -529,85 +529,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1439423005788555</v>
+        <v>0.1443218032980289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1454317511950664</v>
+        <v>0.1264541672675657</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1527897433293409</v>
+        <v>0.2021369561848312</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1306019439541518</v>
+        <v>0.2251686667118916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1255663830559891</v>
+        <v>0.2416117888038767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.101704988647033</v>
+        <v>0.2584993530213703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1375542081705523</v>
+        <v>0.2794385419323094</v>
       </c>
       <c r="I2" t="n">
-        <v>0.144195929657986</v>
+        <v>0.3403400455661405</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1429677317827667</v>
+        <v>0.4199253000592226</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1542068016554864</v>
+        <v>0.458734714697784</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1546414089207017</v>
+        <v>0.5435468983630846</v>
       </c>
       <c r="M2" t="n">
-        <v>0.162923686794208</v>
+        <v>0.6365760735763486</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1543522788657457</v>
+        <v>0.8150217329644018</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1612374036961101</v>
+        <v>0.7104922257655809</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1990219804641122</v>
+        <v>0.8587998373823623</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2063483997836353</v>
+        <v>0.935160076771105</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2333246860118848</v>
+        <v>0.9488543583815319</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2602634581952693</v>
+        <v>0.9547765702868867</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2785655832444235</v>
+        <v>0.9547082291799488</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3023384213124284</v>
+        <v>0.9721686651036968</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3492479120726596</v>
+        <v>0.9702981541282967</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2447447302043307</v>
+        <v>0.9755724483484305</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3380582926065546</v>
+        <v>0.96700341007532</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5070450923229597</v>
+        <v>0.9946581179598252</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5144818565535219</v>
+        <v>0.9969988767675817</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4898353986790631</v>
+        <v>0.9912091956909064</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6484997463407884</v>
+        <v>0.9779039558767472</v>
       </c>
     </row>
     <row r="3">
@@ -617,85 +617,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1392268530669587</v>
+        <v>0.1412636097865382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1331042108729976</v>
+        <v>0.1847194390089764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1206643080223919</v>
+        <v>0.08075118812945876</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1606498553393467</v>
+        <v>0.04475155676758276</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1698695957325026</v>
+        <v>0.03267758046910201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2072468950119725</v>
+        <v>0.03725659424901778</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1547658167422366</v>
+        <v>0.01376987646705428</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1312119238736408</v>
+        <v>0.00956273247789868</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06669776688856402</v>
+        <v>0.005898104939181537</v>
       </c>
       <c r="K3" t="n">
-        <v>0.127526075094528</v>
+        <v>0.006356064606934141</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05796260200962575</v>
+        <v>0.0001958127468203708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06170096552868343</v>
+        <v>0.0001166938542267069</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03036676107064228</v>
+        <v>0.0002973461827482209</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02731433889083077</v>
+        <v>0.001096136392581107</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06940614250407562</v>
+        <v>0.0002476897185493167</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04963030156972247</v>
+        <v>2.283530874821333e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06348130199934797</v>
+        <v>3.492483804759049e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08457761248581828</v>
+        <v>4.470637270379353e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1157568840477133</v>
+        <v>3.367974031009776e-08</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03698110576088107</v>
+        <v>2.85066921669839e-08</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1089871615840798</v>
+        <v>4.915880240680324e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2209636030721666</v>
+        <v>6.878766119678449e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005286464476089815</v>
+        <v>9.527461269723673e-13</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01747034890414066</v>
+        <v>2.477060897554524e-12</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.005239847165304714</v>
+        <v>3.65536055540957e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001471566763838014</v>
+        <v>4.498444298237525e-17</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.004015909928944174</v>
+        <v>9.542922797751324e-19</v>
       </c>
     </row>
     <row r="4">
@@ -705,85 +705,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1392268476647148</v>
+        <v>0.1412636046238362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1331041973381766</v>
+        <v>0.1847195127056789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1206645143486542</v>
+        <v>0.08075251610779381</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1606495582882956</v>
+        <v>0.04475267350233299</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1698692237488362</v>
+        <v>0.0326786534197415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.207245817791065</v>
+        <v>0.03725804465787629</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1547659871886331</v>
+        <v>0.01377062900311183</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1579456020416445</v>
+        <v>0.0122381105218156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1958063488259061</v>
+        <v>0.011280735355977</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1518413402053866</v>
+        <v>0.00649328295462217</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1932856882663712</v>
+        <v>0.01688538264159738</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1854992250728544</v>
+        <v>0.01412740424270869</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2097383200136386</v>
+        <v>0.005319032749173903</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2099897683935678</v>
+        <v>0.001386061126307051</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623385164177179</v>
+        <v>0.00111003398770223</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1728866663496733</v>
+        <v>0.001245767115274567</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1471755928092771</v>
+        <v>0.001010216276170383</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1006843423815594</v>
+        <v>0.0002702954573700263</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05763094696669322</v>
+        <v>7.326900893287886e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09905346701221986</v>
+        <v>8.935574797252614e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01391515675355429</v>
+        <v>1.712918516836293e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002186749376856585</v>
+        <v>1.05210968625146e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04167003201083671</v>
+        <v>4.399675404262579e-11</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0004020365279428005</v>
+        <v>7.464903310632053e-16</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001598444286034464</v>
+        <v>1.568954092551702e-18</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.396222610771773e-06</v>
+        <v>2.20180406821553e-21</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.494959969912582e-12</v>
+        <v>1.46535609968987e-28</v>
       </c>
     </row>
     <row r="5">
@@ -793,85 +793,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1392248140225317</v>
+        <v>0.1412616609045513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.133099102323263</v>
+        <v>0.1847472564408603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1206559042005659</v>
+        <v>0.08073987378594147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1606480912638355</v>
+        <v>0.04473901063314747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1698686843680918</v>
+        <v>0.03266417558186143</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2072560593908087</v>
+        <v>0.03723756847588375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1547565893931968</v>
+        <v>0.01375927847287263</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1542543136340853</v>
+        <v>0.01558711838742268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1519288167203672</v>
+        <v>0.01930003776330242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1652388527063968</v>
+        <v>0.02135702088736661</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1644948818335528</v>
+        <v>0.02456411462135333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1735918448051877</v>
+        <v>0.02880083479174171</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1652373727842729</v>
+        <v>0.03606346872121494</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1725880515360367</v>
+        <v>0.03064559294012013</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2110659221137489</v>
+        <v>0.03694151602084404</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2191806427607434</v>
+        <v>0.04072594504637442</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2467866593448214</v>
+        <v>0.04171574043743698</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2600517472727928</v>
+        <v>0.04197051307653785</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2583098564740881</v>
+        <v>0.04401496270402363</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3132527321005617</v>
+        <v>0.02771990329308123</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2887068211903639</v>
+        <v>0.02967879717694026</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1670639530666771</v>
+        <v>0.02442613700626428</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4036752555517791</v>
+        <v>0.03299656617817802</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4281164586344717</v>
+        <v>0.005341861780727174</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4631371298641043</v>
+        <v>0.003001122732642137</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5036647385210434</v>
+        <v>0.008790804308363731</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3336036848096477</v>
+        <v>0.02209604412323493</v>
       </c>
     </row>
     <row r="6">
@@ -881,85 +881,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1483655360393827</v>
+        <v>0.1442299658346802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1580169611890328</v>
+        <v>0.08347865169264168</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1695635965915633</v>
+        <v>0.1543235456975478</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1316368069451967</v>
+        <v>0.181823174086654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1228223310723442</v>
+        <v>0.1820991518874016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0903077898798752</v>
+        <v>0.1588912241034422</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1337722490677442</v>
+        <v>0.1704632397078729</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1453326748644291</v>
+        <v>0.1490561409844122</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1844276232862</v>
+        <v>0.1305641296510592</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1372292857009153</v>
+        <v>0.06861196565078995</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1789097460818057</v>
+        <v>0.1883427067843659</v>
       </c>
       <c r="M6" t="n">
-        <v>0.169103533087705</v>
+        <v>0.1451258319534998</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1986382190288035</v>
+        <v>0.03620996587884257</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1937931095115412</v>
+        <v>0.006790861275446284</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1296289768263212</v>
+        <v>0.00448939765075368</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1367491911679623</v>
+        <v>0.004190197906453664</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1036705019448513</v>
+        <v>0.002402498216434934</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08440473019274464</v>
+        <v>0.00132457192832851</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06050416129466971</v>
+        <v>0.0007442073120501674</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09667528450933091</v>
+        <v>4.055757869345701e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03082404015557039</v>
+        <v>1.892102401795658e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.008184471694951049</v>
+        <v>1.041524164489403e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1455595195864866</v>
+        <v>1.610002730698342e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001821824389539224</v>
+        <v>3.10011945101726e-13</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.000778221034670829</v>
+        <v>7.821526590299949e-16</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.65592315428359e-05</v>
+        <v>1.54592573638534e-18</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.434204977590264e-11</v>
+        <v>2.226237705822265e-25</v>
       </c>
     </row>
     <row r="7">
@@ -969,85 +969,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1418717613185222</v>
+        <v>0.1433491561038224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1398891657385359</v>
+        <v>0.1505037006440965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1469233052540918</v>
+        <v>0.2440329415081818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.124443147960648</v>
+        <v>0.2736950381498973</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1193167997435252</v>
+        <v>0.2924049886422831</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09576806966576021</v>
+        <v>0.3075742406308609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1307121145445775</v>
+        <v>0.3333900335747427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.121885774437995</v>
+        <v>0.3192796790905321</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07425113597753535</v>
+        <v>0.2776853543048142</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1266963476889028</v>
+        <v>0.3668492690308411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07205636925698614</v>
+        <v>0.03064196405619913</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07813282307314881</v>
+        <v>0.0234181991295966</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0441458652767709</v>
+        <v>0.06674590168696036</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04157456289211306</v>
+        <v>0.2416589157674753</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09631466394768828</v>
+        <v>0.09301372477183227</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07546186967459058</v>
+        <v>0.01345719463888267</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09770874169639222</v>
+        <v>0.002855620022151705</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1314311958178451</v>
+        <v>0.0005177231747860583</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1805642779472295</v>
+        <v>5.734833843223047e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0695074862832278</v>
+        <v>6.194332332557595e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1928065656711128</v>
+        <v>1.850556373042772e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3539264125094073</v>
+        <v>3.451614429858784e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0138546415049971</v>
+        <v>6.462153342188652e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04437010879107463</v>
+        <v>2.025663568198869e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01585608175816878</v>
+        <v>4.997388102036849e-10</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.00500001381751804</v>
+        <v>7.29782146646281e-13</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01388065887067214</v>
+        <v>1.786074386590821e-14</v>
       </c>
     </row>
     <row r="8">
@@ -1057,85 +1057,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1481418873090342</v>
+        <v>0.1443101994485428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1573546113429277</v>
+        <v>0.08537727224018057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1687386282533923</v>
+        <v>0.1572629785862451</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1313705962485257</v>
+        <v>0.1850698801484938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.122686982278711</v>
+        <v>0.1858636611957336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09047037961348517</v>
+        <v>0.1632829748615489</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1336730348930595</v>
+        <v>0.1754084008420361</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1451737814902193</v>
+        <v>0.1539361729717782</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1839205765186607</v>
+        <v>0.1353463379264431</v>
       </c>
       <c r="K8" t="n">
-        <v>0.137261296948384</v>
+        <v>0.07159768217166208</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1786493036309566</v>
+        <v>0.1958231207865793</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1690479216382126</v>
+        <v>0.151834962451878</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1975211829601259</v>
+        <v>0.04034255181665836</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1935027650798004</v>
+        <v>0.007930206732489254</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1322237977263361</v>
+        <v>0.005397800467956174</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1397429286936728</v>
+        <v>0.005197983213161358</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1078525161934253</v>
+        <v>0.003158074182469397</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07858691365397044</v>
+        <v>0.001139879012363792</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04866829002518257</v>
+        <v>0.0004019497768720399</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08219150302135032</v>
+        <v>8.008637030973028e-06</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01551234257265925</v>
+        <v>2.105330932497159e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002930080075610485</v>
+        <v>2.683880042829396e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05189579426325638</v>
+        <v>1.139371737073472e-09</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0007741304298712802</v>
+        <v>2.40507125139182e-14</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.000347019195625953</v>
+        <v>6.888694393676634e-17</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.326764383734743e-06</v>
+        <v>1.722047749021553e-19</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.411067359546315e-11</v>
+        <v>4.104786124107227e-26</v>
       </c>
     </row>
   </sheetData>
@@ -1247,85 +1247,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1408239464041433</v>
+        <v>0.1470386543416035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1420898734757787</v>
+        <v>0.1474820657044371</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1363739374055111</v>
+        <v>0.1607327208769208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.107972392422595</v>
+        <v>0.07407757617641283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09134224314361075</v>
+        <v>0.03139666961613536</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1198317154609555</v>
+        <v>0.008493911703438115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08887000769636379</v>
+        <v>0.01621132202887707</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08841656260374094</v>
+        <v>0.0009655719825094243</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09105579644443293</v>
+        <v>0.0003983874652800017</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08252419245148233</v>
+        <v>6.116756526514194e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06917988017307189</v>
+        <v>9.864411432998171e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06914681433364273</v>
+        <v>4.963131717292591e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07830960942851492</v>
+        <v>5.640500968811855e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09017065479166696</v>
+        <v>5.362356142427252e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>0.109023157199702</v>
+        <v>1.48206387481302e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.111005526824761</v>
+        <v>3.241578791257771e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>0.115970979617924</v>
+        <v>6.907159517408297e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1251012486651809</v>
+        <v>1.196346034658977e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1195409261508628</v>
+        <v>1.969915993974478e-09</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0938880087807758</v>
+        <v>5.006482691720025e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09982935619034973</v>
+        <v>1.575249865651524e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02279276199579488</v>
+        <v>2.006719905855804e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03926701177713549</v>
+        <v>1.011188575289216e-12</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002313655148156196</v>
+        <v>3.973145584031229e-13</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001026869257015481</v>
+        <v>1.576570287043865e-15</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001659708610333323</v>
+        <v>4.289224342909365e-17</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.279095637714648e-05</v>
+        <v>1.213556620448226e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1335,85 +1335,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1498532745792311</v>
+        <v>0.1291312068980824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1462669634157065</v>
+        <v>0.1329464984144917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156343002215171</v>
+        <v>0.1236755180452951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1996820901838079</v>
+        <v>0.2527862766571635</v>
       </c>
       <c r="F3" t="n">
-        <v>0.223465210235329</v>
+        <v>0.3023886516609217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1844641447719104</v>
+        <v>0.3258527671929515</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2296599322026268</v>
+        <v>0.3193744653277041</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2230821417732583</v>
+        <v>0.9308649452803345</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2172023027215881</v>
+        <v>0.9658073416184975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3310602237791312</v>
+        <v>0.9885147180206008</v>
       </c>
       <c r="L3" t="n">
-        <v>0.440324918406903</v>
+        <v>0.9942262965174719</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4487087525477598</v>
+        <v>0.9947854186740855</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4023502461385356</v>
+        <v>0.9933463820901801</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3408466996619083</v>
+        <v>0.9949278299136436</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1263875822447138</v>
+        <v>0.995350439714165</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2589290685289522</v>
+        <v>0.9955880131534193</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2573743912659616</v>
+        <v>0.9956398631790053</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2691545627088276</v>
+        <v>0.9935170210699221</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3539993613897485</v>
+        <v>0.9930313845841744</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4701463996554849</v>
+        <v>0.9921089004570273</v>
       </c>
       <c r="V3" t="n">
-        <v>0.463600508915999</v>
+        <v>0.9871199044026795</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6773540293039245</v>
+        <v>0.988091191729726</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6264910266678383</v>
+        <v>0.9898323527965607</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7325723785922407</v>
+        <v>0.9863912475507126</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7445849945019324</v>
+        <v>0.9892575308344923</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7680508337587725</v>
+        <v>0.9911912904190061</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.78637560207019</v>
+        <v>0.9920956542552162</v>
       </c>
     </row>
     <row r="4">
@@ -1423,85 +1423,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.149853284828406</v>
+        <v>0.1291311865918007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1462669677430786</v>
+        <v>0.1329464796330104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1563429096571039</v>
+        <v>0.123676291069934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1996811459070928</v>
+        <v>0.2527858129932232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.223463653546076</v>
+        <v>0.3023862445198416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1844637955675527</v>
+        <v>0.3258476051021236</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2296586959275263</v>
+        <v>0.3193742402657658</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2349252885076086</v>
+        <v>0.008601879443787338</v>
       </c>
       <c r="J4" t="n">
-        <v>0.232376362100093</v>
+        <v>0.002364866867513401</v>
       </c>
       <c r="K4" t="n">
-        <v>0.159706407543114</v>
+        <v>0.0001797675605066023</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1053282282594113</v>
+        <v>1.499291634559789e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09647233704881981</v>
+        <v>4.592161451840198e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1087674874000421</v>
+        <v>2.887541273608827e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1282113915218994</v>
+        <v>7.884770243669438e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2570716481147385</v>
+        <v>9.458515805963463e-09</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1456869608563098</v>
+        <v>6.570220944866879e-10</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1342027223897958</v>
+        <v>3.62621389888007e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1007141477271786</v>
+        <v>1.267764304363084e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04667262856249303</v>
+        <v>1.433036940644995e-13</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01425463387372654</v>
+        <v>3.284662003143772e-15</v>
       </c>
       <c r="V4" t="n">
-        <v>0.008150163302540276</v>
+        <v>7.53907351856275e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0001173962251859342</v>
+        <v>9.472892129515333e-20</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001376357634237195</v>
+        <v>2.25248067206424e-22</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.833417281836383e-09</v>
+        <v>1.713367078019316e-24</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.793635901448262e-10</v>
+        <v>7.024553205803695e-29</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.347702205022744e-13</v>
+        <v>6.980536739657662e-33</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.035297111408662e-17</v>
+        <v>2.451220024875377e-38</v>
       </c>
     </row>
     <row r="5">
@@ -1511,85 +1511,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1498571430448639</v>
+        <v>0.1291235424749218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1462685966739274</v>
+        <v>0.1329394091914219</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156346094228922</v>
+        <v>0.1236559024742683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1996996574248894</v>
+        <v>0.2527798658208211</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2234931120375102</v>
+        <v>0.3024115179187835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.184471748673118</v>
+        <v>0.3259197444394574</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2296826122397816</v>
+        <v>0.3193604017408631</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2394745129361072</v>
+        <v>0.04429586132895472</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2467739547908067</v>
+        <v>0.01848471050857793</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2252601847459759</v>
+        <v>0.002897121571568324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.190017408889788</v>
+        <v>0.0004762978634975829</v>
       </c>
       <c r="M5" t="n">
-        <v>0.190254465960821</v>
+        <v>0.0002427078852468996</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2156494600439232</v>
+        <v>0.0002735495218612774</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2486411101598448</v>
+        <v>2.527449700784253e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.304080222715554</v>
+        <v>6.860945993704182e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3063688627432848</v>
+        <v>1.464398288708433e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3195470407569501</v>
+        <v>3.033510912665761e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3329034824973652</v>
+        <v>4.324172774707458e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2915838451526966</v>
+        <v>4.524438914387913e-08</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2036169791729249</v>
+        <v>7.802860902619275e-09</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2057090621253584</v>
+        <v>1.784967191073739e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03306203836656951</v>
+        <v>8.84329518903541e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05779366224728078</v>
+        <v>2.333232430039372e-12</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001451973288893701</v>
+        <v>4.857683530198302e-13</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.000506421981294535</v>
+        <v>7.454068256581726e-16</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.746624813693745e-05</v>
+        <v>9.407913339146859e-18</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.54297373464532e-06</v>
+        <v>1.062520729018651e-19</v>
       </c>
     </row>
     <row r="6">
@@ -1599,85 +1599,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1321803520598376</v>
+        <v>0.1636225430253968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1374146330827044</v>
+        <v>0.1561790175458314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1282873912293173</v>
+        <v>0.157284852697925</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0922288421613449</v>
+        <v>0.0493577364926893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07342984425973506</v>
+        <v>0.01641720185530209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1031091614692267</v>
+        <v>0.003191989481753723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06680268491708717</v>
+        <v>0.005708026637860036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06443749778074316</v>
+        <v>4.240769762640555e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06330772226088066</v>
+        <v>1.114151572479461e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04207224691299839</v>
+        <v>7.858895484133697e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02695320974454878</v>
+        <v>6.107611850557281e-08</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02436582798502958</v>
+        <v>1.76169570715019e-08</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02718981894946722</v>
+        <v>9.124508460826716e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03181843051098546</v>
+        <v>1.819851288757751e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07275649991979986</v>
+        <v>1.736300493255828e-11</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03357892630040995</v>
+        <v>8.807253213509391e-13</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02929697685772909</v>
+        <v>3.340201779633867e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02521977017932907</v>
+        <v>2.279764988991359e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01514883157848692</v>
+        <v>5.355892349950684e-16</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006457132967696009</v>
+        <v>2.451896424733035e-17</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004807757261605888</v>
+        <v>1.344090218830861e-17</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001819640374152832</v>
+        <v>4.690779118665559e-21</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0002247593666079809</v>
+        <v>2.413577752068404e-24</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.961620786892476e-08</v>
+        <v>2.028640383058259e-26</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.040451524633281e-09</v>
+        <v>9.333159960338872e-31</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.172368736014647e-12</v>
+        <v>1.147604707726199e-34</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.007401445011726e-16</v>
+        <v>6.862090251573115e-40</v>
       </c>
     </row>
     <row r="7">
@@ -1687,85 +1687,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448099556353296</v>
+        <v>0.1391493936795754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.144023537019039</v>
+        <v>0.141616509055481</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1376788386493123</v>
+        <v>0.1535388370262664</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1080003130774187</v>
+        <v>0.0682393344144839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09083989061930482</v>
+        <v>0.0282590089053613</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1199930603911421</v>
+        <v>0.007407347263204823</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0878848593603045</v>
+        <v>0.0140791786961456</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08457449258597241</v>
+        <v>0.01518496095564691</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08530356502421073</v>
+        <v>0.01292185619702617</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1167544512790029</v>
+        <v>0.008345609999035931</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1408335894438485</v>
+        <v>0.005272422433023371</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1462919703937414</v>
+        <v>0.004962281763721753</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1400581156466481</v>
+        <v>0.00637152120885944</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1278789955857557</v>
+        <v>0.005046280115281238</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05789374063907919</v>
+        <v>0.004642541636989941</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1097800310405484</v>
+        <v>0.004410489373509015</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1131207067354807</v>
+        <v>0.004359826526404675</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1228826735693533</v>
+        <v>0.006482534536618928</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1608632632410113</v>
+        <v>0.00696856820137634</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2074539120971102</v>
+        <v>0.00789109123946034</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2152692247305648</v>
+        <v>0.0128800761723981</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2664386829817164</v>
+        <v>0.01190880816177381</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2760207376963943</v>
+        <v>0.01016764720009483</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2636619569826631</v>
+        <v>0.01360875244840437</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2538817123725587</v>
+        <v>0.01074246916550537</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2317357291299708</v>
+        <v>0.008808709580993987</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2135860639996977</v>
+        <v>0.007904345744783905</v>
       </c>
     </row>
     <row r="8">
@@ -1775,85 +1775,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1326220434481884</v>
+        <v>0.1628034729886193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1376694285897654</v>
+        <v>0.1558900204553264</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1286278266146624</v>
+        <v>0.1574358778093903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09273555882285121</v>
+        <v>0.04997339744520628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07396604615843425</v>
+        <v>0.01674070552365417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1036663736660943</v>
+        <v>0.003286634817070741</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06744120765631002</v>
+        <v>0.005892365302784407</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06508950381256955</v>
+        <v>4.437331114051651e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0639802966579878</v>
+        <v>1.169582738027556e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04262229328829529</v>
+        <v>8.293934747917089e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02736276508242852</v>
+        <v>6.478211017181988e-08</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02475983173018542</v>
+        <v>1.876681971973679e-08</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02767526239286876</v>
+        <v>1.001234831188947e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03243271776793945</v>
+        <v>2.087655744840947e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07278714916641249</v>
+        <v>2.05850039694475e-11</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0346506237057338</v>
+        <v>1.092353960803512e-12</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03048718237615881</v>
+        <v>4.372231236858365e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02402411465276522</v>
+        <v>2.076366868100519e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01219114392470086</v>
+        <v>2.972950073071914e-16</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004182933452281695</v>
+        <v>8.554700705397192e-18</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002633927473582079</v>
+        <v>2.631236483940368e-18</v>
       </c>
       <c r="W8" t="n">
-        <v>5.312708939339358e-05</v>
+        <v>4.526687599298727e-22</v>
       </c>
       <c r="X8" t="n">
-        <v>6.516648131921568e-05</v>
+        <v>8.705962131544805e-25</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.538421265243395e-09</v>
+        <v>7.84467998217686e-27</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.673837675073008e-10</v>
+        <v>3.906495425203592e-31</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.793229581026101e-13</v>
+        <v>5.545682022120572e-35</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.655642235138975e-16</v>
+        <v>4.67518934073226e-40</v>
       </c>
     </row>
   </sheetData>
@@ -1965,85 +1965,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452613372974713</v>
+        <v>0.1450417047195629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1461636661885674</v>
+        <v>0.143691631230987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1554393769063962</v>
+        <v>0.09328742447298412</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1099012061497436</v>
+        <v>0.07937283446190305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09355275566325061</v>
+        <v>0.03478283411010092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07796191873488469</v>
+        <v>0.09101252649062054</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07916335505015094</v>
+        <v>0.05585417193554067</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08104956158863477</v>
+        <v>0.06143797454947385</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08609534963812739</v>
+        <v>0.06297411352128554</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0889061253869172</v>
+        <v>0.10181537100378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09170256284730625</v>
+        <v>0.08319207022637004</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09516654407199843</v>
+        <v>0.06575752361031423</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08801381754882384</v>
+        <v>0.05284083422478023</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09195830652239652</v>
+        <v>0.03639898499917832</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09715938486869317</v>
+        <v>0.007335899714389057</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09857469916504678</v>
+        <v>0.002818793925225389</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0780395336675426</v>
+        <v>0.01292632671637667</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06072595670978226</v>
+        <v>0.003000822373534575</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05032258416002663</v>
+        <v>0.0001095278409060105</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0499841338374004</v>
+        <v>4.12712912419254e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08279976945456559</v>
+        <v>9.12432254520769e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08021444424828612</v>
+        <v>1.180990795778795e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02279676528409947</v>
+        <v>2.101203500262009e-11</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06337901069513481</v>
+        <v>3.935349732158622e-13</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02304630458874084</v>
+        <v>5.10746330145581e-16</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0002739910291955668</v>
+        <v>6.897283908974821e-22</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.058087511604786e-08</v>
+        <v>1.826703159394473e-28</v>
       </c>
     </row>
     <row r="3">
@@ -2053,85 +2053,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1335099599546734</v>
+        <v>0.1386093175616627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1291064390484172</v>
+        <v>0.1470924970834481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1127878909093373</v>
+        <v>0.2261416275568413</v>
       </c>
       <c r="E3" t="n">
-        <v>0.191421626225188</v>
+        <v>0.2476641281323278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2159838514524762</v>
+        <v>0.2999495315577985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2386992443466913</v>
+        <v>0.2451109713354814</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2381068581589029</v>
+        <v>0.2852157909468317</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2402523544216938</v>
+        <v>0.2891697787095558</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1786227986499409</v>
+        <v>0.01227141534372742</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1722883037421742</v>
+        <v>0.06248451683522375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1179707792072719</v>
+        <v>0.0005184014072857534</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1104378690943132</v>
+        <v>9.462451606263286e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3057923934441471</v>
+        <v>1.121163229170503e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2933741407139951</v>
+        <v>7.811564160263048e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2861939538601995</v>
+        <v>9.144194355359691e-09</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05262684755604264</v>
+        <v>5.36884473625238e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02080365611926115</v>
+        <v>1.548481903749123e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>0.008498264437476673</v>
+        <v>8.763868693707227e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>0.003621320317255153</v>
+        <v>2.55015497803816e-15</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002019691646736664</v>
+        <v>1.354057181752705e-16</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00308039446753413</v>
+        <v>1.532916289931397e-18</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001135103752728851</v>
+        <v>2.724902117811594e-22</v>
       </c>
       <c r="X3" t="n">
-        <v>5.26124334446555e-05</v>
+        <v>5.426168555693056e-25</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.375387335453363e-05</v>
+        <v>3.430132374523533e-27</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.874012754182139e-06</v>
+        <v>2.37941680745476e-30</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.416577811120733e-09</v>
+        <v>1.800176022750193e-35</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.109597959615348e-13</v>
+        <v>3.585197666682138e-41</v>
       </c>
     </row>
     <row r="4">
@@ -2141,85 +2141,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1335099471434628</v>
+        <v>0.1386093087281059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1291064208320523</v>
+        <v>0.1470924970184877</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1127881379134923</v>
+        <v>0.2261408207095749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1914205795104248</v>
+        <v>0.2476640074279024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2159821409342217</v>
+        <v>0.2999484374382786</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2386968604457358</v>
+        <v>0.2451145447106839</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2381047217026859</v>
+        <v>0.2852206922118858</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2311733206285621</v>
+        <v>0.220009109619537</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2657738367099216</v>
+        <v>0.5101264121506436</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2631905650448327</v>
+        <v>0.2157988849802841</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2997667985881596</v>
+        <v>0.4170913933079119</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2972667146233891</v>
+        <v>0.5214849234236965</v>
       </c>
       <c r="N4" t="n">
-        <v>0.159446624768521</v>
+        <v>0.5919547086525297</v>
       </c>
       <c r="O4" t="n">
-        <v>0.158758287251525</v>
+        <v>0.6813877478276859</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1508924177597317</v>
+        <v>0.805607967481122</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3394662048923748</v>
+        <v>0.8079511481811046</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4039438331717421</v>
+        <v>0.8268217280728423</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4585121695595037</v>
+        <v>0.8874952271462756</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4879274613957828</v>
+        <v>0.9437106674623222</v>
       </c>
       <c r="U4" t="n">
-        <v>0.476354872997224</v>
+        <v>0.9382131695822665</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3531266930299781</v>
+        <v>0.9202020861318564</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3317823807027142</v>
+        <v>0.9554433123282953</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4577410923569196</v>
+        <v>0.9633780590398621</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2995815548246906</v>
+        <v>0.9679657894084378</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3712207295583185</v>
+        <v>0.9641184365431608</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4537599884990492</v>
+        <v>0.9854154997600933</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4710263498966121</v>
+        <v>0.9995614320750941</v>
       </c>
     </row>
     <row r="5">
@@ -2229,85 +2229,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1335051245504008</v>
+        <v>0.1386059831740122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1290995636000479</v>
+        <v>0.1470924719354368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112777469078144</v>
+        <v>0.2261548555046758</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1914281031657815</v>
+        <v>0.2476660335657703</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2159998885612512</v>
+        <v>0.2999674608906568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2387251035911774</v>
+        <v>0.2450519803846094</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2381286707150552</v>
+        <v>0.2851348948036066</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2425398331748993</v>
+        <v>0.3425273836642166</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2569371538913815</v>
+        <v>0.3412745175820638</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2654701715472363</v>
+        <v>0.5680039464179364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2728922511368365</v>
+        <v>0.4493097387354311</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2833054431943116</v>
+        <v>0.3494833099739486</v>
       </c>
       <c r="N5" t="n">
-        <v>0.258940858963745</v>
+        <v>0.2841467171444962</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2703956536658422</v>
+        <v>0.1992529311737205</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2853269878000311</v>
+        <v>0.04175138479600299</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2946024982335422</v>
+        <v>0.01640906290922728</v>
       </c>
       <c r="R5" t="n">
-        <v>0.235160260893994</v>
+        <v>0.07423344426333013</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1959778009588502</v>
+        <v>0.02746586845086076</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1728905934444387</v>
+        <v>0.001732006254634912</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1783033039970332</v>
+        <v>0.0008859861736179852</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2791366939111351</v>
+        <v>0.0003467564926497722</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2906742869188045</v>
+        <v>1.075487752550495e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1164921638211038</v>
+        <v>3.083311355888111e-09</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3324060725598595</v>
+        <v>8.515752591000885e-11</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1968265000389098</v>
+        <v>1.658751590823797e-13</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004512513664141583</v>
+        <v>1.520036799839014e-19</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387256535574694e-07</v>
+        <v>2.214636803601346e-26</v>
       </c>
     </row>
     <row r="6">
@@ -2317,85 +2317,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1574520587909212</v>
+        <v>0.1483396678918361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1645700675147964</v>
+        <v>0.1341816208890561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1800587941315093</v>
+        <v>0.06745985698971091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1067959235150275</v>
+        <v>0.04955290300489801</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08588762648633376</v>
+        <v>0.01592761017176292</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06698821661039653</v>
+        <v>0.04279447170062173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06675730445524455</v>
+        <v>0.01809526127627967</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06466166813872938</v>
+        <v>0.01335917444580396</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07483501142305944</v>
+        <v>0.03311098800151016</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07354894063336753</v>
+        <v>0.01161067330981119</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08446203903509586</v>
+        <v>0.02389706242519123</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08296451095023423</v>
+        <v>0.03076476592583296</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03796281784037644</v>
+        <v>0.03464054462662592</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03701363388677661</v>
+        <v>0.04043583188471688</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03355310519812971</v>
+        <v>0.07291617561811664</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09350004091739592</v>
+        <v>0.08767823700666198</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1258128920892497</v>
+        <v>0.04099415160377675</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1322005638259655</v>
+        <v>0.03681360872674772</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1360153585130106</v>
+        <v>0.01676886206321053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1435352716558867</v>
+        <v>0.01884847249416099</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1534152232046201</v>
+        <v>0.02719096278077898</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1682342575908464</v>
+        <v>0.005885771425157564</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2316754370518627</v>
+        <v>0.009307156963099462</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.169514641745039</v>
+        <v>0.008569461641433828</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2236696031027551</v>
+        <v>0.009498558489355656</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2924661676661875</v>
+        <v>0.005665182980261529</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3010825280694719</v>
+        <v>0.0003753571863223174</v>
       </c>
     </row>
     <row r="7">
@@ -2405,85 +2405,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1399565472680944</v>
+        <v>0.1425485329241065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1383783463018165</v>
+        <v>0.1460453397145826</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1473305496953687</v>
+        <v>0.09252378900259692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1024249611238384</v>
+        <v>0.07768658180684654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08671447506371949</v>
+        <v>0.03307431200935012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07181408609388212</v>
+        <v>0.08698530874172415</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07281229147888579</v>
+        <v>0.05167978242350275</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07546188750972223</v>
+        <v>0.05956771881121565</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06270423545868467</v>
+        <v>0.005878079574051245</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06281230009759385</v>
+        <v>0.02807057513873524</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04852213157057784</v>
+        <v>0.000955947819823135</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04761753298231611</v>
+        <v>0.0002452184832645952</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1108504442443042</v>
+        <v>4.019143455733596e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1103590156509679</v>
+        <v>4.102887219421878e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1120442068236579</v>
+        <v>6.538720283645709e-08</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02710156875442328</v>
+        <v>4.917703648651901e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01184191320207153</v>
+        <v>1.72237370875944e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005294917055481538</v>
+        <v>1.99207257590541e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002491194968515191</v>
+        <v>6.857923342979235e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001526214203298473</v>
+        <v>4.416616004889931e-15</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002440927587641547</v>
+        <v>6.213761815258782e-17</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001039307318743815</v>
+        <v>1.122637888599126e-20</v>
       </c>
       <c r="X7" t="n">
-        <v>5.686286430813456e-05</v>
+        <v>2.004774406312634e-23</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.703057788703857e-05</v>
+        <v>1.349819935316981e-25</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.047269310289884e-06</v>
+        <v>9.461523046056428e-29</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.833478201314754e-09</v>
+        <v>6.230134670519142e-34</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.154693455314084e-13</v>
+        <v>1.072330942876411e-39</v>
       </c>
     </row>
     <row r="8">
@@ -2493,85 +2493,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1568050249949762</v>
+        <v>0.1482454850007137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1635754965143022</v>
+        <v>0.1348039421280017</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1788177813657523</v>
+        <v>0.06829162576361605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.106607600309996</v>
+        <v>0.05039351160035187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0858792618387471</v>
+        <v>0.01634981382205194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06711457017723213</v>
+        <v>0.0439301966362588</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06692679843907461</v>
+        <v>0.01879940640235273</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06486137453775831</v>
+        <v>0.01392886020019697</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07503161422888441</v>
+        <v>0.03436447382671826</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0737835935478782</v>
+        <v>0.01221603231422957</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08468343761475226</v>
+        <v>0.02503538607798706</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08324138508343736</v>
+        <v>0.0321696340668805</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03899304319008253</v>
+        <v>0.0363657922847188</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03814096230849679</v>
+        <v>0.04251962007106286</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03482994368955693</v>
+        <v>0.07238849785897224</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09412814048117436</v>
+        <v>0.08514275252319259</v>
       </c>
       <c r="R8" t="n">
-        <v>0.124397910856139</v>
+        <v>0.04502433057145519</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1387903274529402</v>
+        <v>0.04522447328178428</v>
       </c>
       <c r="T8" t="n">
-        <v>0.146731487200971</v>
+        <v>0.03767893637885514</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1482765116624206</v>
+        <v>0.04201110045870789</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1260002983445255</v>
+        <v>0.05225107027216947</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1269202194678762</v>
+        <v>0.03866982894888672</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1711850661882615</v>
+        <v>0.02731478089271513</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1349379357240344</v>
+        <v>0.0234647488645773</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1852299414292112</v>
+        <v>0.02638300496731709</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.24898732289137</v>
+        <v>0.008919317259644991</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.227890872726861</v>
+        <v>6.321073858355452e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2683,85 +2683,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1438279501265147</v>
+        <v>0.1410722689739271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1423633861184135</v>
+        <v>0.1401185875927626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.126196336826751</v>
+        <v>0.0396413147848163</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1438897357525656</v>
+        <v>0.01731794441658628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1690360641452332</v>
+        <v>0.04913883109949785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1692742496887646</v>
+        <v>0.02642940055715525</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1834969990576644</v>
+        <v>0.005557159018544628</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1888663026532632</v>
+        <v>0.006415765251459269</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1946700846621109</v>
+        <v>0.003812834787596971</v>
       </c>
       <c r="K2" t="n">
-        <v>0.198198703146708</v>
+        <v>0.003116134133032699</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1691829689883894</v>
+        <v>0.003300884248899912</v>
       </c>
       <c r="M2" t="n">
-        <v>0.148069229036399</v>
+        <v>0.00345776803422856</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1695420132174722</v>
+        <v>0.002968524410911834</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2230235076974843</v>
+        <v>0.0007219973182014598</v>
       </c>
       <c r="P2" t="n">
-        <v>0.228174273396189</v>
+        <v>0.001183700255229161</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2477534928613901</v>
+        <v>0.001534388693680612</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2720248107387926</v>
+        <v>0.001409053759303136</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2634815088631193</v>
+        <v>0.0009517285097017348</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1934055405473108</v>
+        <v>0.001079511939821416</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2523641676570867</v>
+        <v>0.001136138772910305</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1546474093001372</v>
+        <v>0.008082910450994631</v>
       </c>
       <c r="W2" t="n">
-        <v>0.319534181141253</v>
+        <v>0.01367450194481327</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1932756052544071</v>
+        <v>0.003060445884857712</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4869326274827085</v>
+        <v>0.000939357202139278</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6321403787610971</v>
+        <v>0.0008732418558786254</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6073615685330105</v>
+        <v>0.001009683381161984</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4587384171738711</v>
+        <v>0.0001912271404578727</v>
       </c>
     </row>
     <row r="3">
@@ -2771,85 +2771,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1396910160475946</v>
+        <v>0.1517952188476132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1453880442108061</v>
+        <v>0.1567177442992033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1716369414013592</v>
+        <v>0.2914906104448975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1452418094344566</v>
+        <v>0.3162325925545434</v>
       </c>
       <c r="F3" t="n">
-        <v>0.101584847811257</v>
+        <v>0.2839958255758758</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1039637714928733</v>
+        <v>0.3096830990069469</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07806048230796869</v>
+        <v>0.3288351153011514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06665536943703383</v>
+        <v>0.03585616361482118</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06873749522877382</v>
+        <v>0.002200079398883347</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04741083954511455</v>
+        <v>0.0004719265077860434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01635327232449484</v>
+        <v>0.000152875483458652</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008886467272623001</v>
+        <v>3.312887979010637e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01139689209430294</v>
+        <v>3.351332385743047e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05429211422903118</v>
+        <v>2.339292499646418e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07320801242136507</v>
+        <v>1.887777199013436e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05978504810457326</v>
+        <v>2.864748011293823e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06097379853078927</v>
+        <v>1.760064871569226e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01839759892479147</v>
+        <v>5.125199926193336e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005222200449353421</v>
+        <v>3.62635604414632e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>0.006181042191357295</v>
+        <v>1.77053521710097e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0007994099429428451</v>
+        <v>2.545358431043533e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001915508221825255</v>
+        <v>1.017079464401992e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001659919896475104</v>
+        <v>8.55603371070626e-20</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0003006088163007226</v>
+        <v>1.480444333995813e-21</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0002523544648037572</v>
+        <v>1.520721649112926e-22</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.157461523912164e-05</v>
+        <v>2.091467573196546e-24</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.383138225849658e-06</v>
+        <v>6.25197286504254e-28</v>
       </c>
     </row>
     <row r="4">
@@ -2859,85 +2859,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.13969101126494</v>
+        <v>0.1517952293431561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1453880472038584</v>
+        <v>0.156717760016015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1716365402268669</v>
+        <v>0.291486601466558</v>
       </c>
       <c r="E4" t="n">
-        <v>0.145241980719176</v>
+        <v>0.3162259699602314</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1015854740914473</v>
+        <v>0.2839952032826585</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1039644589786371</v>
+        <v>0.3096827087898608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07806131675624541</v>
+        <v>0.328831726079257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07873925542056423</v>
+        <v>0.5807434612024878</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07618235216565913</v>
+        <v>0.7727895055844771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08491870388401704</v>
+        <v>0.8161777319822243</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1057884580001013</v>
+        <v>0.807250557532954</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1131658116902355</v>
+        <v>0.8000989213713661</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1112708256973867</v>
+        <v>0.8259342927379373</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08078015414774661</v>
+        <v>0.9485632923915905</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06892275527169762</v>
+        <v>0.9240811502546342</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07310100907209723</v>
+        <v>0.9044101741799178</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06785464068048702</v>
+        <v>0.9113515667093149</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1129034874368344</v>
+        <v>0.9203811783840334</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1603848415454786</v>
+        <v>0.8845703417647595</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1219505790079252</v>
+        <v>0.8289027924368418</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1677840820297195</v>
+        <v>0.08136057834452901</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07454491471784484</v>
+        <v>0.001474087199287245</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0969976500060508</v>
+        <v>0.002869638013216106</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02591537895461584</v>
+        <v>0.001254076032622917</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001846817897333442</v>
+        <v>3.22969141796866e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.477637120477042e-05</v>
+        <v>1.453051160086257e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.452505182711506e-07</v>
+        <v>3.821953554806338e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2947,85 +2947,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1396892108569175</v>
+        <v>0.1517991800294039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1453891738455585</v>
+        <v>0.1567236759356068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1716450709122466</v>
+        <v>0.2915675365763017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1452402683804271</v>
+        <v>0.3163535346946129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1015754211262046</v>
+        <v>0.2840166262289513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1039533567800435</v>
+        <v>0.309701022388494</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07804741673785601</v>
+        <v>0.328903187618948</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07765921479038831</v>
+        <v>0.3707732079215292</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08014574760162158</v>
+        <v>0.2148696154936097</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0813456370276724</v>
+        <v>0.1736549396455866</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06871035463008156</v>
+        <v>0.1830655590575393</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05980059283579849</v>
+        <v>0.1905040670778452</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06823903014518941</v>
+        <v>0.1652670498004141</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0886101584346633</v>
+        <v>0.04179158882926358</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09033024438087679</v>
+        <v>0.06837152686837555</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09814310827942825</v>
+        <v>0.08908455974971216</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1075540187820055</v>
+        <v>0.08315609156756691</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1161068365428015</v>
+        <v>0.07397313612628097</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09569611600071787</v>
+        <v>0.1078273839013156</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1206221875819654</v>
+        <v>0.1597755279248908</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08784838812209268</v>
+        <v>0.9059502365053549</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1630109434286059</v>
+        <v>0.9844918988692229</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1271206676942661</v>
+        <v>0.993330192779702</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.300126167615367</v>
+        <v>0.9973810543179167</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3473420360075136</v>
+        <v>0.9991267576654331</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3908894792027992</v>
+        <v>0.9989903166188135</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.541191572952842</v>
+        <v>0.9998087728595422</v>
       </c>
     </row>
     <row r="6">
@@ -3035,85 +3035,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1476353063744816</v>
+        <v>0.1283382694764947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1387371030843821</v>
+        <v>0.1202809283384789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1159246447568127</v>
+        <v>0.02288313385630764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1375422784869827</v>
+        <v>0.008332331040568101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1772079046154293</v>
+        <v>0.0248504811452938</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1734961064128897</v>
+        <v>0.009421306188981921</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1976739279454755</v>
+        <v>0.001339724571347457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2072932518121535</v>
+        <v>0.002091479288115553</v>
       </c>
       <c r="J6" t="n">
-        <v>0.19868838559987</v>
+        <v>0.003001232676780439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2231681365628332</v>
+        <v>0.003193066389364683</v>
       </c>
       <c r="L6" t="n">
-        <v>0.290084264262057</v>
+        <v>0.003033168413043901</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3173677028465254</v>
+        <v>0.002878943334263552</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2954473337859025</v>
+        <v>0.00283117461987333</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1819656820636994</v>
+        <v>0.004427551972271902</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1467958281504493</v>
+        <v>0.003069336737617768</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1516131461759553</v>
+        <v>0.002348986612784782</v>
       </c>
       <c r="R6" t="n">
-        <v>0.129803735405914</v>
+        <v>0.001890227316050914</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1897408316129526</v>
+        <v>0.002286395505826853</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2262689137485686</v>
+        <v>0.003665215457836181</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2216737940803884</v>
+        <v>0.006657401136053009</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2606125630129435</v>
+        <v>0.003968721760757899</v>
       </c>
       <c r="W6" t="n">
-        <v>0.239020958937317</v>
+        <v>0.0003402758175256839</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3290566188070337</v>
+        <v>0.0006971242425638028</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1002257731721631</v>
+        <v>0.0003964505940240275</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.008307555012204253</v>
+        <v>1.423402004206862e-10</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.000493924352024853</v>
+        <v>8.918730019998744e-15</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.241735785225506e-06</v>
+        <v>4.944790086479113e-20</v>
       </c>
     </row>
     <row r="7">
@@ -3123,85 +3123,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1420208834184657</v>
+        <v>0.1461606074064444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1437944078007123</v>
+        <v>0.1480838592420816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1266693343986087</v>
+        <v>0.03960108657717823</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1450170328612948</v>
+        <v>0.01699767728075407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1719061680255441</v>
+        <v>0.04855525979701233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.171822908255739</v>
+        <v>0.02532625336268233</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1872183781692246</v>
+        <v>0.005129709103031117</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1737612515056482</v>
+        <v>0.001930105339265581</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1830079688882582</v>
+        <v>0.0002009213941512911</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1420427855971304</v>
+        <v>6.177554477115937e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06100464961922953</v>
+        <v>2.912783982354926e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03717161258189872</v>
+        <v>1.034041179938489e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04793769204058918</v>
+        <v>1.585105412976362e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1845354282503434</v>
+        <v>1.746610707338006e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2406303461784239</v>
+        <v>1.696204135377289e-08</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2119864428549861</v>
+        <v>4.061634785966258e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2251137597547563</v>
+        <v>3.889910226337352e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>0.081434667230337</v>
+        <v>1.62836673765961e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02616334273449173</v>
+        <v>1.58030362440706e-12</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03220241291082027</v>
+        <v>1.044260598140292e-13</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005124821249945938</v>
+        <v>1.999622315287433e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01253634252419124</v>
+        <v>1.146160050215111e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00136565646403462</v>
+        <v>1.429976503871981e-18</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002626520080975664</v>
+        <v>2.757373990787718e-20</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.002406585709709331</v>
+        <v>3.359144570840742e-21</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0005744862300408538</v>
+        <v>5.86918992563953e-23</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.608354013338168e-05</v>
+        <v>1.906058730496028e-26</v>
       </c>
     </row>
     <row r="8">
@@ -3211,85 +3211,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1474446219110858</v>
+        <v>0.1290392259229607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1389398377362693</v>
+        <v>0.1213574445758517</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1162911314773548</v>
+        <v>0.02332971629394062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1378268943650972</v>
+        <v>0.008539950052703915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1771041201848845</v>
+        <v>0.0254477728707104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1735251483910528</v>
+        <v>0.009756209705878958</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1974414790255656</v>
+        <v>0.001403378307720283</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2070253543809487</v>
+        <v>0.00218981738232142</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1985679658537065</v>
+        <v>0.003125810664500843</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2229151942365244</v>
+        <v>0.003324425797234559</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2888760321756464</v>
+        <v>0.003167827424280746</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3155385837365199</v>
+        <v>0.003016830890707372</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2961662130191569</v>
+        <v>0.002994021993064698</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1867929551770319</v>
+        <v>0.00449552862964058</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1519385402009983</v>
+        <v>0.003294250044330182</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1576177526515698</v>
+        <v>0.002621883837521983</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1366752361072554</v>
+        <v>0.002193060082766558</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2179350693891636</v>
+        <v>0.002407561452748058</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2928590449740789</v>
+        <v>0.002857546934324521</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450058165704567</v>
+        <v>0.003528139729181981</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3231833263422184</v>
+        <v>0.00063755293813804</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1894371510289629</v>
+        <v>1.923616902609544e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2520178097845601</v>
+        <v>4.259907966043648e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0838729238778692</v>
+        <v>2.906185329711302e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.007704272147338417</v>
+        <v>1.33790045874865e-11</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0005441906956806313</v>
+        <v>1.052591660413584e-15</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.056208624048243e-06</v>
+        <v>9.512034735768079e-21</v>
       </c>
     </row>
   </sheetData>
@@ -3401,85 +3401,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1420970079631379</v>
+        <v>0.1470071711739475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.144472343599112</v>
+        <v>0.1479760738930732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.125866145981436</v>
+        <v>0.1300413375626949</v>
       </c>
       <c r="E2" t="n">
-        <v>0.154161138722312</v>
+        <v>0.1803191854462687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1670371556139063</v>
+        <v>0.1983661669947703</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1851156700898394</v>
+        <v>0.2201502463538932</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1866890855323044</v>
+        <v>0.2356525413329186</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1858786439627796</v>
+        <v>0.1723726472790363</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1786134468640979</v>
+        <v>0.09067894669398269</v>
       </c>
       <c r="K2" t="n">
-        <v>0.181122356783508</v>
+        <v>0.04370517222916222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2034166755588078</v>
+        <v>0.07873124844250937</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2029326183189518</v>
+        <v>0.05665340156502558</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1968439479638116</v>
+        <v>0.04996800156061296</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2032447784252901</v>
+        <v>0.01955179176126422</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2358808556959854</v>
+        <v>0.01479122118266755</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1825941760359881</v>
+        <v>0.004934379501342665</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2853842475825012</v>
+        <v>0.0006732396561160096</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3014742375435553</v>
+        <v>0.000935108049024459</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1994066144136457</v>
+        <v>0.0001630559666167102</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1459339882185575</v>
+        <v>0.0001054259253209441</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09608426108818321</v>
+        <v>8.814346368317011e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04846966134081749</v>
+        <v>6.923145736752509e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06880780927699238</v>
+        <v>1.82553820272982e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03557606218480228</v>
+        <v>8.044872517508133e-12</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.500674745358593e-05</v>
+        <v>7.182575973803971e-16</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.459788933292088e-05</v>
+        <v>4.915518558970569e-19</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.014173704301994e-10</v>
+        <v>1.158074114641181e-25</v>
       </c>
     </row>
     <row r="3">
@@ -3489,85 +3489,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1457599187822378</v>
+        <v>0.1215534242472723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1375102662528961</v>
+        <v>0.1081905027981169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1692437014731719</v>
+        <v>0.1552591797964715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1241442947203082</v>
+        <v>0.08007786670990465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1009200404114809</v>
+        <v>0.0204101879238215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05610545553836244</v>
+        <v>0.02511435525485949</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05685441404415875</v>
+        <v>0.01032857671921</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09153917339962495</v>
+        <v>0.000843914202345438</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1179755035966555</v>
+        <v>7.922847906112585e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1202997918034336</v>
+        <v>7.627607653497465e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06276203024488157</v>
+        <v>1.091892379037222e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1015572862695432</v>
+        <v>5.856002724623294e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1201198282977262</v>
+        <v>8.518683523486931e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.121509299234511</v>
+        <v>2.083729717526641e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03552902141815817</v>
+        <v>2.467272311394585e-10</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01249397587566222</v>
+        <v>5.508725964456369e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05402489835269145</v>
+        <v>7.228075199236225e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02614674627764453</v>
+        <v>2.336927230975145e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005117362213809232</v>
+        <v>5.249312705367801e-17</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00182071522955256</v>
+        <v>2.700373416119706e-18</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0004677384514629682</v>
+        <v>7.947844721342813e-21</v>
       </c>
       <c r="W3" t="n">
-        <v>7.42274712193804e-05</v>
+        <v>4.576468238121397e-23</v>
       </c>
       <c r="X3" t="n">
-        <v>5.182237761581191e-05</v>
+        <v>1.441762406647151e-25</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.097810868892091e-06</v>
+        <v>3.362404120095676e-29</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.019399228190719e-09</v>
+        <v>7.628048172552052e-33</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.911655067217521e-10</v>
+        <v>3.811134043507586e-36</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816992831791009e-15</v>
+        <v>6.321798338455345e-42</v>
       </c>
     </row>
     <row r="4">
@@ -3577,85 +3577,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1457599227882485</v>
+        <v>0.1215533984953097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1375102582613278</v>
+        <v>0.1081904647719936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1692431971336403</v>
+        <v>0.1552589528522844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1241446296910109</v>
+        <v>0.08007894783498774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1009206080220567</v>
+        <v>0.02041076593741208</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05610612005495782</v>
+        <v>0.02511517244284571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05685511913152851</v>
+        <v>0.01032907981106318</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04441664006137306</v>
+        <v>0.01424749852776264</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03663075632955231</v>
+        <v>0.01504105640197968</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03475286624697886</v>
+        <v>0.01480419394107283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05093885989363318</v>
+        <v>0.01563947623973697</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03613697976457637</v>
+        <v>0.0160006962173199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02995411021785221</v>
+        <v>0.01693746062978389</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02779133427780971</v>
+        <v>0.01575741160953026</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05672249758188531</v>
+        <v>0.01670974096749161</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06868881848124089</v>
+        <v>0.01537181925428387</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04523113021287847</v>
+        <v>0.01089183283672383</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06036257126196359</v>
+        <v>0.00723674255839517</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1083592007147371</v>
+        <v>0.00731469966270921</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1300043967482985</v>
+        <v>0.004250859928442418</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1491330700895222</v>
+        <v>0.003722178700791847</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1726918753317171</v>
+        <v>0.002507553882156533</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1577736367091118</v>
+        <v>0.002196401118873925</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1595781708374276</v>
+        <v>0.002258010097938472</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2201366398626459</v>
+        <v>0.004540945351350059</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1834458927824063</v>
+        <v>0.004445529975202766</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1493742291277008</v>
+        <v>0.00506964457880084</v>
       </c>
     </row>
     <row r="5">
@@ -3665,85 +3665,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1457614307962978</v>
+        <v>0.1215437048260722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1375072498840661</v>
+        <v>0.1081761511438801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1692481886505151</v>
+        <v>0.1552400514261489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1241359656175189</v>
+        <v>0.08004825302054688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009084018180397</v>
+        <v>0.02039765661040432</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05609323367252331</v>
+        <v>0.02509719004755026</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05684150650534972</v>
+        <v>0.0103187663567464</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05660088737323248</v>
+        <v>0.00844662085048547</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05460716965200021</v>
+        <v>0.004353431352566367</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05544839428100738</v>
+        <v>0.002056070738550287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0617848958283387</v>
+        <v>0.003730724591093764</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06213486879899432</v>
+        <v>0.002636508706440888</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06014186270627763</v>
+        <v>0.002344760202609313</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06199844883400036</v>
+        <v>0.0009408021702315316</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07288917828837949</v>
+        <v>0.0007220672226452458</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05694185188261628</v>
+        <v>0.000247985957690198</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08764922778487018</v>
+        <v>3.503050185112496e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0980766254009937</v>
+        <v>5.067767488879852e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07628111131295061</v>
+        <v>1.559326593499164e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06110153112911289</v>
+        <v>1.37550163447078e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04522931294407531</v>
+        <v>2.326437886112335e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02688946422863287</v>
+        <v>3.471211173684731e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04073089149284422</v>
+        <v>2.163520648929845e-08</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02816421477085987</v>
+        <v>1.72024177457257e-11</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.578782721152877e-05</v>
+        <v>1.46872284461777e-15</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.94866016856083e-05</v>
+        <v>1.290966128455407e-18</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.893526997833625e-10</v>
+        <v>1.720099650663207e-25</v>
       </c>
     </row>
     <row r="6">
@@ -3753,85 +3753,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1383382957673709</v>
+        <v>0.1775076466972995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1509531022658651</v>
+        <v>0.2009239849847679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.121865528344018</v>
+        <v>0.1471016753859521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1611774988571235</v>
+        <v>0.2131208114418566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1830153585801627</v>
+        <v>0.2851188481863252</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2316247606749779</v>
+        <v>0.2580664679132521</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2289903914247268</v>
+        <v>0.2655944253376672</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1766177488317467</v>
+        <v>0.394410933684372</v>
       </c>
       <c r="J6" t="n">
-        <v>0.143017852918961</v>
+        <v>0.446985941446445</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1343682822796403</v>
+        <v>0.4743858204880634</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2025033179669543</v>
+        <v>0.453618414852789</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1372542471275659</v>
+        <v>0.465371334605954</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1085781873170045</v>
+        <v>0.4659500630316356</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09665058543611485</v>
+        <v>0.485523919923101</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2278922445500922</v>
+        <v>0.4842124042347458</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3153585417643026</v>
+        <v>0.4920406720454631</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1520900144530998</v>
+        <v>0.508667691347319</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1891550928564843</v>
+        <v>0.6002161598049486</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2546622465989143</v>
+        <v>0.5843743645165899</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2706948865268713</v>
+        <v>0.6749385656780308</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2807903067445434</v>
+        <v>0.6709642834780211</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2770358664297731</v>
+        <v>0.6926100221172299</v>
       </c>
       <c r="X6" t="n">
-        <v>0.264999640780842</v>
+        <v>0.6770563905547392</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2772412010505542</v>
+        <v>0.6845030999909205</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3069595043717331</v>
+        <v>0.7691379699923103</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3030414656223801</v>
+        <v>0.7869551291396015</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3062525111061433</v>
+        <v>0.9113190444991791</v>
       </c>
     </row>
     <row r="7">
@@ -3841,85 +3841,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1437470094692657</v>
+        <v>0.1350559114958516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.141419547331371</v>
+        <v>0.1287605902552837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122640105654062</v>
+        <v>0.11142436109102</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1513691764452694</v>
+        <v>0.1554483787643676</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1647768645370438</v>
+        <v>0.1745765719264139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1849715027859884</v>
+        <v>0.1905832070425346</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1862454220404206</v>
+        <v>0.203873504160251</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2691404502425748</v>
+        <v>0.01932667162763767</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3266068560038843</v>
+        <v>0.002684588720991617</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3399854584110726</v>
+        <v>0.000367479548916493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2170098272273634</v>
+        <v>0.0006210591441797007</v>
       </c>
       <c r="M7" t="n">
-        <v>0.322898441856212</v>
+        <v>6.933225517283401e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3751757420082316</v>
+        <v>1.41013797522103e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3909999844497634</v>
+        <v>5.254401353036698e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1451469120353631</v>
+        <v>8.452027687162806e-08</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05730899375490027</v>
+        <v>2.696605318449589e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2205811370224637</v>
+        <v>4.533824648418101e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1239919203520046</v>
+        <v>1.820377811855136e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02817208812504151</v>
+        <v>5.940714601727786e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01098526546413213</v>
+        <v>3.944683817352794e-15</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003170686897843412</v>
+        <v>1.431899058800299e-17</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0005728492285885271</v>
+        <v>9.711933694122547e-20</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0004360019804687174</v>
+        <v>3.294667165653209e-22</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.016161270752986e-05</v>
+        <v>7.544620602984996e-26</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.061111908159676e-08</v>
+        <v>1.548115345839199e-29</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.1056508411496e-09</v>
+        <v>7.729526400064256e-33</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.943419789000103e-14</v>
+        <v>1.113010697256545e-38</v>
       </c>
     </row>
     <row r="8">
@@ -3929,85 +3929,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1385364144334415</v>
+        <v>0.1757787430642473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1506272324053619</v>
+        <v>0.1977822321528847</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1218931327631568</v>
+        <v>0.1456744418854281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1608672959464571</v>
+        <v>0.2109065567820678</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1824215710173097</v>
+        <v>0.2807198024208526</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2299832571833509</v>
+        <v>0.2558733609450646</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2275240613215112</v>
+        <v>0.2639031062821436</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1758064561286684</v>
+        <v>0.3903517138283603</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1425484146348489</v>
+        <v>0.4401768069049735</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1340228501943592</v>
+        <v>0.4646736354465812</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2015843932800211</v>
+        <v>0.4476481578059009</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1370855578641565</v>
+        <v>0.4592681410498144</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1091863214890962</v>
+        <v>0.4647855280087707</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09780556934251057</v>
+        <v>0.4782255470120079</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2259392904301363</v>
+        <v>0.4835644816254456</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3066136422052896</v>
+        <v>0.4874051405391061</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1550393445914952</v>
+        <v>0.4797322056125793</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2007928063073539</v>
+        <v>0.391561311894516</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3280013766209016</v>
+        <v>0.4081322865880896</v>
       </c>
       <c r="U8" t="n">
-        <v>0.379459216683475</v>
+        <v>0.3206913934518572</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4251246237843694</v>
+        <v>0.3253023970369328</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4742660559692515</v>
+        <v>0.3048813845649225</v>
       </c>
       <c r="X8" t="n">
-        <v>0.467200197382125</v>
+        <v>0.3207471684357984</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4993850917327796</v>
+        <v>0.3132388898858937</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4728130495604374</v>
+        <v>0.2263210846563375</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5134685548073789</v>
+        <v>0.2085993408851957</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5443732588753646</v>
+        <v>0.08361131092202001</v>
       </c>
     </row>
   </sheetData>
@@ -4119,85 +4119,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1423865121971419</v>
+        <v>0.1470970021421319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1434289002814881</v>
+        <v>0.1456427082231492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1217263132189424</v>
+        <v>0.1921872405447589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1239981187337126</v>
+        <v>0.2122557974687697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1646325076717638</v>
+        <v>0.2019408396724596</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1755068148638291</v>
+        <v>0.2463843597194691</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1890078883626239</v>
+        <v>0.2641442592198781</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1934457215407068</v>
+        <v>0.3090635219983597</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1967102362904398</v>
+        <v>0.3922262837574193</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1874238430602214</v>
+        <v>0.4617829317311887</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1891594907060857</v>
+        <v>0.5919210246777988</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1915998874627222</v>
+        <v>0.3379629449898912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1014531742701254</v>
+        <v>0.2025394871561031</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1105181174632599</v>
+        <v>0.06340948720749913</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1926983793553228</v>
+        <v>0.09879308415796978</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1246292964846893</v>
+        <v>0.005404253977477222</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06342543918468288</v>
+        <v>0.003280044857872907</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06714334631631338</v>
+        <v>0.007352597788801837</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03740826229156226</v>
+        <v>0.02086230095529506</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03401103597177811</v>
+        <v>0.0002471296109833279</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04885255713537724</v>
+        <v>1.23748416083732e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05798378993180826</v>
+        <v>7.95374967306086e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04523353263932316</v>
+        <v>1.149747718008036e-07</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08135102469235576</v>
+        <v>2.745180870522505e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0175842747070116</v>
+        <v>2.560247110343473e-09</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01327455938821096</v>
+        <v>3.328575661861071e-10</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.003382858609924128</v>
+        <v>8.149047040175749e-12</v>
       </c>
     </row>
     <row r="3">
@@ -4207,85 +4207,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1448388114538161</v>
+        <v>0.1297116949374955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1415945571608756</v>
+        <v>0.141454043819325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1773083776589166</v>
+        <v>0.07175751028930902</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1748533770552445</v>
+        <v>0.02856215665716166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1076253731373514</v>
+        <v>0.006278064867885113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08648852005827801</v>
+        <v>0.04390696632507302</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0473969245285091</v>
+        <v>0.007802465297768827</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04565842085864796</v>
+        <v>0.007576007886076123</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06518796581776354</v>
+        <v>0.002315290668935926</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09488029205883326</v>
+        <v>0.003947178952007645</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09824526841543102</v>
+        <v>0.001410360179854205</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1021820631768908</v>
+        <v>0.005367385784353911</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1949230706821299</v>
+        <v>0.006215481447869623</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1847530115821071</v>
+        <v>0.007329115972323462</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1124342262829673</v>
+        <v>0.004616881485100461</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1728343262267579</v>
+        <v>0.006230167687123079</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2205313325493712</v>
+        <v>0.005078544202860444</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2131978678980497</v>
+        <v>0.00335413371789167</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2332092607557425</v>
+        <v>0.002336043821735818</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2299181134339852</v>
+        <v>0.002761498529829374</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2099874076735131</v>
+        <v>0.004221307571145486</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1973807092736638</v>
+        <v>0.005436638850096201</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1973338890624108</v>
+        <v>0.005121840939486624</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1720308814434595</v>
+        <v>0.002810796511258227</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.19801806952775</v>
+        <v>0.002553538598027726</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1936372229433864</v>
+        <v>0.001882281215628836</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2014336996816348</v>
+        <v>0.001565400411652165</v>
       </c>
     </row>
     <row r="4">
@@ -4295,85 +4295,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1448388140486153</v>
+        <v>0.129711674828161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1415945547247112</v>
+        <v>0.1414540351049774</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1773077911260098</v>
+        <v>0.07175851867299381</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1748529499795543</v>
+        <v>0.02856290102273714</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1076259092409063</v>
+        <v>0.006278318707389269</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08648919198017414</v>
+        <v>0.04390843901569727</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04739757737692905</v>
+        <v>0.007802938042184376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04423566627138333</v>
+        <v>0.006043800875005501</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03716428910159938</v>
+        <v>0.007799031167493025</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0284339965293197</v>
+        <v>0.003986688928698209</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02653761191168271</v>
+        <v>0.004191876807351442</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02417987402678762</v>
+        <v>0.0004365602985917013</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007092920361171621</v>
+        <v>0.0001297682421771788</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007554014012595083</v>
+        <v>1.226610887644682e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02010050963606044</v>
+        <v>1.063577571246299e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006552361636080496</v>
+        <v>5.009158126204818e-08</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002016945866820016</v>
+        <v>1.196845970978774e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001815353123032712</v>
+        <v>3.849233391517754e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0003651293183091613</v>
+        <v>9.645189488780473e-10</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001913428092045822</v>
+        <v>6.539002918313752e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001899716084261607</v>
+        <v>4.174376376911642e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>9.051154043157102e-05</v>
+        <v>2.122003931229559e-18</v>
       </c>
       <c r="X4" t="n">
-        <v>1.065634942620075e-05</v>
+        <v>1.351986314322589e-20</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.63213330169811e-06</v>
+        <v>5.026938548262442e-22</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.536258481461826e-09</v>
+        <v>4.996147153822906e-27</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.52851672419362e-11</v>
+        <v>6.097415441770009e-31</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.017187915094143e-16</v>
+        <v>4.307766763822203e-37</v>
       </c>
     </row>
     <row r="5">
@@ -4383,85 +4383,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1448397908108688</v>
+        <v>0.1297041047900027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1415936375930718</v>
+        <v>0.1414507540618771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1773168976317265</v>
+        <v>0.07173892369819845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1748592838980563</v>
+        <v>0.02854910636614622</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076158381878716</v>
+        <v>0.006273709929452679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0864768835543601</v>
+        <v>0.04388149310073165</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04738585649373376</v>
+        <v>0.007794462369315619</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0457894232599357</v>
+        <v>0.008039785911421626</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04679104701017994</v>
+        <v>0.01014752964575039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04483847182611801</v>
+        <v>0.01216212614825734</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04532673298035018</v>
+        <v>0.01558170142186489</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04600555140076782</v>
+        <v>0.009269488855131196</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02400963792842487</v>
+        <v>0.005467669816821519</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0261547227782152</v>
+        <v>0.001669466370202549</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04605071725313731</v>
+        <v>0.002579197151577007</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02941225123977388</v>
+        <v>0.0001338540058358066</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01481433181093817</v>
+        <v>7.984156886691758e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01559391040794253</v>
+        <v>0.0001489370759036358</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007603109265257515</v>
+        <v>0.0003456386929864273</v>
       </c>
       <c r="U5" t="n">
-        <v>0.006524517404654501</v>
+        <v>1.506816414896488e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.009354266342097234</v>
+        <v>5.218959167803066e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01060016628252419</v>
+        <v>2.202740595174883e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>0.006888953214983526</v>
+        <v>1.762106563327141e-10</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01225118961220965</v>
+        <v>2.342396860305336e-10</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001406521984240039</v>
+        <v>3.797497292301095e-13</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0008214317295609983</v>
+        <v>1.765457967503743e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.000103312414382491</v>
+        <v>1.142346874443271e-16</v>
       </c>
     </row>
     <row r="6">
@@ -4471,85 +4471,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.139720917865712</v>
+        <v>0.1624957759307934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144566892494902</v>
+        <v>0.1424873705554625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1128643858848191</v>
+        <v>0.1996539841145946</v>
       </c>
       <c r="E6" t="n">
-        <v>0.114300598815368</v>
+        <v>0.2433888834088148</v>
       </c>
       <c r="F6" t="n">
-        <v>0.173926726335325</v>
+        <v>0.2857539085336156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1944801210144637</v>
+        <v>0.1887198400284181</v>
       </c>
       <c r="H6" t="n">
-        <v>0.238873623889555</v>
+        <v>0.2236209643039653</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2362762887676955</v>
+        <v>0.1629188033332603</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1939296812816548</v>
+        <v>0.2063188463302899</v>
       </c>
       <c r="K6" t="n">
-        <v>0.144507553581203</v>
+        <v>0.09404044671672049</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1333480025265947</v>
+        <v>0.09441068327263964</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1195500939525383</v>
+        <v>0.007959590526534884</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02944131361521668</v>
+        <v>0.001890686284551705</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03092739289206507</v>
+        <v>0.0001284972849330227</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09149642221317771</v>
+        <v>9.008263388447786e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0235939577645525</v>
+        <v>2.262745995652083e-07</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006249328290016313</v>
+        <v>4.042766214890804e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005825277224687945</v>
+        <v>3.064116676152282e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001659525795419043</v>
+        <v>1.935996287414659e-08</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001074719335695828</v>
+        <v>4.194113689892322e-12</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001314286752838337</v>
+        <v>4.702321737239411e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0009861323102336496</v>
+        <v>5.004151262196681e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001099449664025825</v>
+        <v>9.811613974419861e-19</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.219535877889464e-05</v>
+        <v>4.072786599383576e-20</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.490638292065111e-08</v>
+        <v>4.566720805856655e-25</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.544181485485597e-10</v>
+        <v>7.080025489391525e-29</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.244530027168283e-14</v>
+        <v>8.889606004124412e-35</v>
       </c>
     </row>
     <row r="7">
@@ -4559,85 +4559,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1435103057180022</v>
+        <v>0.1395264001620909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1426972370084346</v>
+        <v>0.1446857097470447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1203574982109349</v>
+        <v>0.1929843837455215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122552600959697</v>
+        <v>0.215536079118008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1648988257980691</v>
+        <v>0.2095989764775106</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1766227659905375</v>
+        <v>0.2420632331212094</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1926429943486471</v>
+        <v>0.2628036258051031</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1998482402886602</v>
+        <v>0.3408794771053654</v>
       </c>
       <c r="J7" t="n">
-        <v>0.267218688697645</v>
+        <v>0.1713234148060755</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3558288207469596</v>
+        <v>0.3276223914252776</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3743126080401714</v>
+        <v>0.1953114155605624</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3970394744589151</v>
+        <v>0.6306861353987281</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6128864252110373</v>
+        <v>0.7817112450044662</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6083062425740113</v>
+        <v>0.9273054123677938</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4445789431862743</v>
+        <v>0.8938046594440683</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6182324991417011</v>
+        <v>0.9882311586460024</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6862622965832285</v>
+        <v>0.9915614630367547</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6903553780997995</v>
+        <v>0.9891442713485694</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7183778341583236</v>
+        <v>0.9764559874267257</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7275022478819921</v>
+        <v>0.99698986503767</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7294643740075927</v>
+        <v>0.9957662653976005</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7324842516448649</v>
+        <v>0.9945625635721954</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7503621376982895</v>
+        <v>0.9948780439095308</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7342630027494473</v>
+        <v>0.9971889287364151</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7829910727696981</v>
+        <v>0.9974464588413454</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7922667845600331</v>
+        <v>0.998117718451496</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7950801292940314</v>
+        <v>0.9984345995801986</v>
       </c>
     </row>
     <row r="8">
@@ -4647,85 +4647,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1398648479058438</v>
+        <v>0.1617533472093246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1445242207365165</v>
+        <v>0.1428253784881642</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1131187362686507</v>
+        <v>0.1999194389346237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1145830705583674</v>
+        <v>0.2431450759583626</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1736748196287127</v>
+        <v>0.2838761818116871</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1939357025383572</v>
+        <v>0.1911356686894014</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2372951350000022</v>
+        <v>0.2260312849617848</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2347462390129705</v>
+        <v>0.1654786028905114</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1929980918007174</v>
+        <v>0.209869603624036</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1440870221973451</v>
+        <v>0.0964582360978499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1330702854196843</v>
+        <v>0.09717293807992865</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1194430555213782</v>
+        <v>0.008317894146768886</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0301934579318941</v>
+        <v>0.002045662048010747</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03178649869774625</v>
+        <v>0.0001457546883714063</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09264080207306009</v>
+        <v>0.0001054593516875306</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02474530750644488</v>
+        <v>2.893173807014557e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>0.006700325714943107</v>
+        <v>5.393752320183114e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006068866930174134</v>
+        <v>2.557843330832792e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001376878415385858</v>
+        <v>8.778775184928139e-09</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0007780231626896638</v>
+        <v>8.429110907570307e-13</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0008371364801551957</v>
+        <v>6.478772843706594e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0004744390164735839</v>
+        <v>4.218185441339e-17</v>
       </c>
       <c r="X8" t="n">
-        <v>6.088606916419149e-05</v>
+        <v>2.355420990717224e-19</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.607401044710973e-05</v>
+        <v>1.055773534278303e-20</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.356865878642872e-08</v>
+        <v>1.286622838093365e-25</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.791052157408973e-10</v>
+        <v>2.345674031446469e-29</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.430198537493638e-14</v>
+        <v>4.267384772195806e-35</v>
       </c>
     </row>
   </sheetData>
@@ -4837,85 +4837,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.142422311000038</v>
+        <v>0.1436677389508098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1442489476345158</v>
+        <v>0.1446114936469385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1384366162072374</v>
+        <v>0.1376555457596775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1525181653826708</v>
+        <v>0.1925359687642219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1566810403364201</v>
+        <v>0.2199652330611108</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1743935535686812</v>
+        <v>0.2271823009563988</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1852295921860733</v>
+        <v>0.2372895734903359</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1821492894710462</v>
+        <v>0.2941974270865443</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1729184785149161</v>
+        <v>0.2979638941665031</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1747582008828666</v>
+        <v>0.3625102699710043</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1347677936690681</v>
+        <v>0.1829050332539615</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1096023618107948</v>
+        <v>0.1180626282140189</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1037542301348347</v>
+        <v>0.1589664059599722</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1430338224248002</v>
+        <v>0.04521124609019989</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1329143001006453</v>
+        <v>0.01629772153582915</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08589151394040186</v>
+        <v>0.007831382605478854</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0581073275332681</v>
+        <v>0.00332122716455374</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05985888172541208</v>
+        <v>0.0006034607039608433</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08115787102251791</v>
+        <v>3.725498590280051e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1332858086811376</v>
+        <v>2.308075923065664e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04700093326465721</v>
+        <v>4.981477713269668e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05134457799984914</v>
+        <v>1.76980462294028e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1271593492660431</v>
+        <v>4.768389613998138e-09</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.009755040953356307</v>
+        <v>4.974771275244478e-13</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001571136448065951</v>
+        <v>6.265877607225275e-17</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.925192883240312e-06</v>
+        <v>1.129317839700648e-21</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.856516764591287e-09</v>
+        <v>7.019151702178139e-26</v>
       </c>
     </row>
     <row r="3">
@@ -4925,85 +4925,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1446158334722764</v>
+        <v>0.1435650195217678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1383206517802537</v>
+        <v>0.1441750099643081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1489946070338927</v>
+        <v>0.1650697465663758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1266258140052074</v>
+        <v>0.09273597814722249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1212000651503605</v>
+        <v>0.01458363470762193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08910328944469569</v>
+        <v>0.008656625641311573</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06540709571194786</v>
+        <v>0.004154897219224447</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03734401897448993</v>
+        <v>0.003325374880309173</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02318429380391298</v>
+        <v>0.005972609367897256</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01999827906077438</v>
+        <v>0.0001289916517611833</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005766643286455026</v>
+        <v>1.031161106703765e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002719134019245894</v>
+        <v>1.446433277116599e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001920787011859568</v>
+        <v>5.337612877238791e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004024048452274506</v>
+        <v>2.688323641846754e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002239900970919519</v>
+        <v>1.373938959884813e-10</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005487069533487875</v>
+        <v>6.709659627847083e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001782840758687259</v>
+        <v>2.181182451515589e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001341885138082705</v>
+        <v>2.052670943121842e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0001716336887966455</v>
+        <v>1.136560399611157e-17</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003356738361114392</v>
+        <v>1.186571106062146e-18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.421765145538973e-05</v>
+        <v>9.727801787577417e-22</v>
       </c>
       <c r="W3" t="n">
-        <v>9.687167557545169e-06</v>
+        <v>4.89683097400969e-24</v>
       </c>
       <c r="X3" t="n">
-        <v>1.490682323554861e-05</v>
+        <v>1.671228531248506e-25</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.434372066568856e-08</v>
+        <v>1.163660190484752e-29</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.605150751117132e-09</v>
+        <v>1.508325512387105e-33</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.37097821735436e-12</v>
+        <v>1.100814388292172e-37</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.240135059848846e-15</v>
+        <v>1.062732752569837e-41</v>
       </c>
     </row>
     <row r="4">
@@ -5013,85 +5013,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1446158358235342</v>
+        <v>0.1435650176243976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1383206449351331</v>
+        <v>0.1441750056779304</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1489944908895207</v>
+        <v>0.1650702428949882</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1266261062435633</v>
+        <v>0.09273744873907185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1212004966999568</v>
+        <v>0.01458415004052757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08910399802116027</v>
+        <v>0.0086570028750121</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06540785954837255</v>
+        <v>0.004155130070106126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07696031275223328</v>
+        <v>0.00372427837368073</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08402070729076809</v>
+        <v>0.001801705094684788</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08518559970828533</v>
+        <v>0.005224581508298271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09652134599068427</v>
+        <v>0.006466125359778404</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1002644507730738</v>
+        <v>0.006803165929435725</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1012942641112948</v>
+        <v>0.007512775158575504</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1014830302273279</v>
+        <v>0.007194694395417562</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1036615526848824</v>
+        <v>0.00634804652853777</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1033769322727846</v>
+        <v>0.006278671105091014</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1000060941465587</v>
+        <v>0.00631123753156928</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0949975432421902</v>
+        <v>0.007499750691885221</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08180952480691688</v>
+        <v>0.01190552263071568</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06184512071486564</v>
+        <v>0.008744855028244347</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08736416471086972</v>
+        <v>0.0104056574116728</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07340200671962886</v>
+        <v>0.01255058169006239</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06170758596785543</v>
+        <v>0.008932053036996929</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07634309863599038</v>
+        <v>0.008740710282830536</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07550187452929358</v>
+        <v>0.00899869277248555</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07746042576910353</v>
+        <v>0.03641451012239995</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07059258172877782</v>
+        <v>0.0002396390545593983</v>
       </c>
     </row>
     <row r="5">
@@ -5101,85 +5101,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1446167209143805</v>
+        <v>0.143564303095897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1383180681223108</v>
+        <v>0.1441733915159998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1489933105252548</v>
+        <v>0.1650595665928608</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1266182674317836</v>
+        <v>0.09271061580029136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1211903389837653</v>
+        <v>0.01457496559738801</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08908968895366809</v>
+        <v>0.008650304549625959</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06539309553382801</v>
+        <v>0.004151010259584564</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06478430123941557</v>
+        <v>0.005085085218742164</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06124426659462039</v>
+        <v>0.005241537574800294</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06185547835997823</v>
+        <v>0.006178465942221878</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04718233593052576</v>
+        <v>0.003040461013899646</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03811768573113025</v>
+        <v>0.001929617310711248</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03610292944395208</v>
+        <v>0.00259786180144849</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04946798614895181</v>
+        <v>0.0007650903472881401</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04610638014712744</v>
+        <v>0.0002818873177134544</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03008617970331574</v>
+        <v>0.0001385770383337722</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02051394572455267</v>
+        <v>6.04224451358e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02118161580617961</v>
+        <v>1.752135707435603e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02759169193449679</v>
+        <v>1.812457526639627e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04181312213926548</v>
+        <v>1.421240785412678e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01908327104454335</v>
+        <v>7.162676667043226e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0215545453313187</v>
+        <v>4.320293406028058e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05192744804242289</v>
+        <v>2.163349918787965e-09</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.007113851545440216</v>
+        <v>4.976863754031467e-13</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001599290175614733</v>
+        <v>8.43966728497391e-17</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.719649056694402e-05</v>
+        <v>1.139326301587278e-21</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.825979413451935e-09</v>
+        <v>7.099548856538564e-26</v>
       </c>
     </row>
     <row r="6">
@@ -5189,85 +5189,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1400919466600837</v>
+        <v>0.1406981105398097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1497031523324138</v>
+        <v>0.1385741296676319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1396843901016322</v>
+        <v>0.1148048665528478</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1591402284792135</v>
+        <v>0.1678931759267391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.163147232986827</v>
+        <v>0.2550760929534066</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1934009755039153</v>
+        <v>0.2564372640355379</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2178582361528753</v>
+        <v>0.2528251350804215</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2611221467082952</v>
+        <v>0.2155608242640076</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2892185324057589</v>
+        <v>0.09499011583141601</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2925658291280805</v>
+        <v>0.2944300630030033</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3458011748613103</v>
+        <v>0.4011745210829599</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3694986779961782</v>
+        <v>0.4359852761001197</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3752236160215154</v>
+        <v>0.4096695509005026</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3393303188612257</v>
+        <v>0.4724479474665142</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3502711772084877</v>
+        <v>0.4925983459236034</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3908521262998286</v>
+        <v>0.4960522863054712</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4155876093098552</v>
+        <v>0.4960311578130845</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4260845842708548</v>
+        <v>0.4416610169727886</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4423370742703762</v>
+        <v>0.3034533365493068</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4519825630241561</v>
+        <v>0.3532753773286236</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4546623459246119</v>
+        <v>0.2625115946247404</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4872478016344741</v>
+        <v>0.1629605023013545</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4226214125799952</v>
+        <v>0.1556744440534919</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5094422089113296</v>
+        <v>0.1560396801943377</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5154322090220358</v>
+        <v>0.1626334901352189</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5224503658714647</v>
+        <v>0.2809290340154406</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5346932547454095</v>
+        <v>0.09865971320551593</v>
       </c>
     </row>
     <row r="7">
@@ -5277,85 +5277,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1434207901606675</v>
+        <v>0.1440156905058493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1416581109690047</v>
+        <v>0.1452574945941989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1353553980115798</v>
+        <v>0.136638605530202</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1496388754937123</v>
+        <v>0.1923000118941363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1537272641214167</v>
+        <v>0.2262803270095609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1721938866808148</v>
+        <v>0.2336960894797468</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1839748569342001</v>
+        <v>0.2435994396403686</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1182125420341204</v>
+        <v>0.2608658091612725</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08236603200738661</v>
+        <v>0.497653294792474</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07521429914289027</v>
+        <v>0.03416148089630233</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02772625997596654</v>
+        <v>0.003977845354693127</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01484972611743916</v>
+        <v>0.0007930261689014628</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0112050423386884</v>
+        <v>0.0003978674522938649</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02248075456331925</v>
+        <v>3.702558262614712e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01404183225604333</v>
+        <v>2.481721113417066e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004029646035685903</v>
+        <v>1.673786115990083e-08</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001467209180139137</v>
+        <v>7.593198504767805e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001176226730969235</v>
+        <v>9.270382014271202e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001569827965642168</v>
+        <v>6.062325865501796e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003125218502629154</v>
+        <v>7.667477108689237e-15</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001732571516962799</v>
+        <v>7.315939666669107e-18</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001263109221353404</v>
+        <v>4.156049832972675e-20</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0002112198376359759</v>
+        <v>1.598091069317189e-21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.324135643858042e-06</v>
+        <v>1.03992550449485e-25</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.003434167334107e-08</v>
+        <v>1.288993994887447e-29</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.316412358495431e-10</v>
+        <v>8.364235508347038e-34</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.561541253814273e-14</v>
+        <v>7.694276153606944e-38</v>
       </c>
     </row>
     <row r="8">
@@ -5365,85 +5365,85 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1402165619690197</v>
+        <v>0.1409241197614686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149430424226368</v>
+        <v>0.1390334749329924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1395411872308824</v>
+        <v>0.1157014261030477</v>
       </c>
       <c r="E8" t="n">
-        <v>0.158832542963849</v>
+        <v>0.169086800728317</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1628535617212536</v>
+        <v>0.2549355966303842</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1927146078270649</v>
+        <v>0.2567204124623668</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2167292639327028</v>
+        <v>0.253824814239959</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2594273888203993</v>
+        <v>0.2172412010154434</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2870476893826369</v>
+        <v>0.0963768431722247</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2904223137171246</v>
+        <v>0.2973661470274087</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3422344462859899</v>
+        <v>0.4024257023236404</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3649479635521378</v>
+        <v>0.4364248398435359</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3704991309378549</v>
+        <v>0.4208550049659196</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3401800393221007</v>
+        <v>0.4743773164539939</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3507648566318943</v>
+        <v>0.484473750384811</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3852148947946344</v>
+        <v>0.4896990662010544</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4041395300297574</v>
+        <v>0.4942759542861186</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3965669597105858</v>
+        <v>0.5502182502650185</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3653623763112533</v>
+        <v>0.6846020733764873</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3076124931018346</v>
+        <v>0.6379552656431082</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3917018102521663</v>
+        <v>0.7270821781890487</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3663150702250365</v>
+        <v>0.8244888939902435</v>
       </c>
       <c r="X8" t="n">
-        <v>0.336358077482812</v>
+        <v>0.8353934959777717</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.397344401474519</v>
+        <v>0.8352196095218366</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4058954161854975</v>
+        <v>0.8283678170922953</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4000620865379695</v>
+        <v>0.6826564558621595</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3947141538432896</v>
+        <v>0.9011006477399246</v>
       </c>
     </row>
   </sheetData>

--- a/Data/history_nocalib.xlsx
+++ b/Data/history_nocalib.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,84 +441,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -529,85 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1443218032980289</v>
+        <v>0.1396335494071907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1264541672675657</v>
+        <v>0.1418126876452788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2021369561848312</v>
+        <v>0.1424473135876681</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2251686667118916</v>
+        <v>0.1551618376128884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2416117888038767</v>
+        <v>0.1846230077208971</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2584993530213703</v>
+        <v>0.1946419309470716</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2794385419323094</v>
+        <v>0.1955079033852217</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3403400455661405</v>
+        <v>0.1841125360547813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4199253000592226</v>
+        <v>0.1907077115912737</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458734714697784</v>
+        <v>0.189670140256836</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5435468983630846</v>
+        <v>0.1647285816902567</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6365760735763486</v>
+        <v>0.1897265783950379</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8150217329644018</v>
+        <v>0.213502531724887</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7104922257655809</v>
+        <v>0.2121724074686089</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8587998373823623</v>
+        <v>0.1110136338975951</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.935160076771105</v>
+        <v>0.1840692524191796</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9488543583815319</v>
+        <v>0.2433986003413689</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9547765702868867</v>
+        <v>0.3040337830647973</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9547082291799488</v>
+        <v>0.3655885052436932</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9721686651036968</v>
+        <v>0.275382662599948</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9702981541282967</v>
+        <v>0.3849998607742612</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9755724483484305</v>
+        <v>0.5638201503756285</v>
       </c>
       <c r="X2" t="n">
-        <v>0.96700341007532</v>
+        <v>0.5788429451777969</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9946581179598252</v>
+        <v>0.7105746594347367</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9969988767675817</v>
+        <v>0.7485438900641488</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9912091956909064</v>
+        <v>0.7780296949368214</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9779039558767472</v>
+        <v>0.7446371980699856</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.6398667620013631</v>
       </c>
     </row>
     <row r="3">
@@ -617,85 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1412636097865382</v>
+        <v>0.1528063214010036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1847194390089764</v>
+        <v>0.1469791538467997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08075118812945876</v>
+        <v>0.1458356884806019</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04475155676758276</v>
+        <v>0.1280565566009263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03267758046910201</v>
+        <v>0.07852772337398699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03725659424901778</v>
+        <v>0.06001514625692168</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01376987646705428</v>
+        <v>0.06631457958388444</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00956273247789868</v>
+        <v>0.0972635939834746</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005898104939181537</v>
+        <v>0.09357010422960324</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006356064606934141</v>
+        <v>0.04688279099900331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001958127468203708</v>
+        <v>0.02095551547770542</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001166938542267069</v>
+        <v>0.04148594992896224</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002973461827482209</v>
+        <v>0.04601893417133962</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001096136392581107</v>
+        <v>0.01871442234732869</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002476897185493167</v>
+        <v>0.002268949070546023</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.283530874821333e-05</v>
+        <v>0.007849200442619032</v>
       </c>
       <c r="R3" t="n">
-        <v>3.492483804759049e-06</v>
+        <v>0.01793361220610592</v>
       </c>
       <c r="S3" t="n">
-        <v>4.470637270379353e-07</v>
+        <v>0.04858990787120044</v>
       </c>
       <c r="T3" t="n">
-        <v>3.367974031009776e-08</v>
+        <v>0.02543140535551468</v>
       </c>
       <c r="U3" t="n">
-        <v>2.85066921669839e-08</v>
+        <v>0.001923676204872749</v>
       </c>
       <c r="V3" t="n">
-        <v>4.915880240680324e-10</v>
+        <v>0.002928537646175587</v>
       </c>
       <c r="W3" t="n">
-        <v>6.878766119678449e-11</v>
+        <v>0.003957065789183684</v>
       </c>
       <c r="X3" t="n">
-        <v>9.527461269723673e-13</v>
+        <v>0.0005854393374472235</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.477060897554524e-12</v>
+        <v>0.001135436815720381</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.65536055540957e-14</v>
+        <v>0.004133163136393607</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.498444298237525e-17</v>
+        <v>0.0007256670937035152</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.542922797751324e-19</v>
+        <v>5.586394516421967e-05</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.959325909589092e-06</v>
       </c>
     </row>
     <row r="4">
@@ -705,85 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1412636046238362</v>
+        <v>0.1528063370128463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1847195127056789</v>
+        <v>0.1469791594296621</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08075251610779381</v>
+        <v>0.145835691497751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04475267350233299</v>
+        <v>0.1280569891192229</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0326786534197415</v>
+        <v>0.07852862472790885</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03725804465787629</v>
+        <v>0.06001607071218767</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01377062900311183</v>
+        <v>0.06631564958443378</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0122381105218156</v>
+        <v>0.09726494194826617</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011280735355977</v>
+        <v>0.09566339841609039</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00649328295462217</v>
+        <v>0.1213563103888337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01688538264159738</v>
+        <v>0.1435304636181279</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01412740424270869</v>
+        <v>0.1241402125153578</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005319032749173903</v>
+        <v>0.1134076165138925</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001386061126307051</v>
+        <v>0.1324682102821382</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00111003398770223</v>
+        <v>0.153849281743989</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001245767115274567</v>
+        <v>0.1451915011730792</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001010216276170383</v>
+        <v>0.1273088657260083</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002702954573700263</v>
+        <v>0.08609983424699563</v>
       </c>
       <c r="T4" t="n">
-        <v>7.326900893287886e-05</v>
+        <v>0.07708913726252892</v>
       </c>
       <c r="U4" t="n">
-        <v>8.935574797252614e-07</v>
+        <v>0.1394745258041857</v>
       </c>
       <c r="V4" t="n">
-        <v>1.712918516836293e-07</v>
+        <v>0.08247636665170829</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05210968625146e-09</v>
+        <v>0.01656548451837257</v>
       </c>
       <c r="X4" t="n">
-        <v>4.399675404262579e-11</v>
+        <v>0.01081857483291727</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.464903310632053e-16</v>
+        <v>0.0009719341590986642</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.568954092551702e-18</v>
+        <v>0.0001466591159455576</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.20180406821553e-21</v>
+        <v>5.849937992505534e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.46535609968987e-28</v>
+        <v>1.343078605473389e-07</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.901971239896338e-10</v>
       </c>
     </row>
     <row r="5">
@@ -793,85 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1412616609045513</v>
+        <v>0.1528122140833184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1847472564408603</v>
+        <v>0.1469812610099953</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08073987378594147</v>
+        <v>0.1458368271473384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04473901063314747</v>
+        <v>0.1280504697829589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03266417558186143</v>
+        <v>0.07851350522698458</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03723756847588375</v>
+        <v>0.06000039703605422</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01375927847287263</v>
+        <v>0.06629748243393521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01558711838742268</v>
+        <v>0.09724216600266541</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01930003776330242</v>
+        <v>0.1008213617790743</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02135702088736661</v>
+        <v>0.09955628051163151</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02456411462135333</v>
+        <v>0.08575450964168829</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02880083479174171</v>
+        <v>0.09951501333069948</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03606346872121494</v>
+        <v>0.1124296236444713</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03064559294012013</v>
+        <v>0.1123189170360295</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03694151602084404</v>
+        <v>0.05975892883494639</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04072594504637442</v>
+        <v>0.09798615519465464</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04171574043743698</v>
+        <v>0.1285225369244071</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04197051307653785</v>
+        <v>0.1586351433967896</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04401496270402363</v>
+        <v>0.190675269832332</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02771990329308123</v>
+        <v>0.17882518471138</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02967879717694026</v>
+        <v>0.2256222371023906</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02442613700626428</v>
+        <v>0.2822253800385146</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03299656617817802</v>
+        <v>0.3114375404536317</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005341861780727174</v>
+        <v>0.2667844378099714</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003001122732642137</v>
+        <v>0.2068245701757159</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.008790804308363731</v>
+        <v>0.2128306052871183</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02209604412323493</v>
+        <v>0.2545154267607556</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.3600476464053821</v>
       </c>
     </row>
     <row r="6">
@@ -881,85 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1442299658346802</v>
+        <v>0.1280311036353105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08347865169264168</v>
+        <v>0.1364028693534058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1543235456975478</v>
+        <v>0.1378259331259584</v>
       </c>
       <c r="E6" t="n">
-        <v>0.181823174086654</v>
+        <v>0.1516012499114864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1820991518874016</v>
+        <v>0.1956265900243568</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1588912241034422</v>
+        <v>0.2129972598545273</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1704632397078729</v>
+        <v>0.2029646948529096</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1490561409844122</v>
+        <v>0.1688213124104871</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1305641296510592</v>
+        <v>0.1647598902518575</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06861196565078995</v>
+        <v>0.2143959581532192</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1883427067843659</v>
+        <v>0.2629783268795534</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1451258319534998</v>
+        <v>0.2198300063889219</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03620996587884257</v>
+        <v>0.1945766229141006</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006790861275446284</v>
+        <v>0.2309522282639485</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00448939765075368</v>
+        <v>0.336801400047593</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004190197906453664</v>
+        <v>0.2680195245408806</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002402498216434934</v>
+        <v>0.2072508898097622</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00132457192832851</v>
+        <v>0.1159578558890737</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0007442073120501674</v>
+        <v>0.1209653538623704</v>
       </c>
       <c r="U6" t="n">
-        <v>4.055757869345701e-05</v>
+        <v>0.1923611206473693</v>
       </c>
       <c r="V6" t="n">
-        <v>1.892102401795658e-05</v>
+        <v>0.1539172715941355</v>
       </c>
       <c r="W6" t="n">
-        <v>1.041524164489403e-06</v>
+        <v>0.07101667269818106</v>
       </c>
       <c r="X6" t="n">
-        <v>1.610002730698342e-08</v>
+        <v>0.06611847011579888</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.10011945101726e-13</v>
+        <v>0.006329025981055422</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.821526590299949e-16</v>
+        <v>0.001001733999185637</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.54592573638534e-18</v>
+        <v>4.49551673679106e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.226237705822265e-25</v>
+        <v>1.189481266523971e-06</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.96825003948556e-09</v>
       </c>
     </row>
     <row r="7">
@@ -969,85 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1433491561038224</v>
+        <v>0.1453086220406011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1505037006440965</v>
+        <v>0.1441545608441977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2440329415081818</v>
+        <v>0.1441237511503576</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2736950381498973</v>
+        <v>0.1571995790622477</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2924049886422831</v>
+        <v>0.1886291671806813</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3075742406308609</v>
+        <v>0.1995802576461343</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3333900335747427</v>
+        <v>0.1995334393864038</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3192796790905321</v>
+        <v>0.185752070604741</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2776853543048142</v>
+        <v>0.1889192566578775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3668492690308411</v>
+        <v>0.1130922583299453</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03064196405619913</v>
+        <v>0.05896646429372723</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0234181991295966</v>
+        <v>0.1048425292641172</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06674590168696036</v>
+        <v>0.124478202789342</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2416589157674753</v>
+        <v>0.06158536534217206</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09301372477183227</v>
+        <v>0.009245160719944912</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01345719463888267</v>
+        <v>0.03004854774433144</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002855620022151705</v>
+        <v>0.06541145586367014</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0005177231747860583</v>
+        <v>0.165773673454762</v>
       </c>
       <c r="T7" t="n">
-        <v>5.734833843223047e-05</v>
+        <v>0.1057636285642393</v>
       </c>
       <c r="U7" t="n">
-        <v>6.194332332557595e-05</v>
+        <v>0.01104817138530588</v>
       </c>
       <c r="V7" t="n">
-        <v>1.850556373042772e-06</v>
+        <v>0.01814646883569952</v>
       </c>
       <c r="W7" t="n">
-        <v>3.451614429858784e-07</v>
+        <v>0.02681672433705161</v>
       </c>
       <c r="X7" t="n">
-        <v>6.462153342188652e-09</v>
+        <v>0.005537601487519208</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.025663568198869e-08</v>
+        <v>0.01153581138535577</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.997388102036849e-10</v>
+        <v>0.03891321399355688</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.29782146646281e-13</v>
+        <v>0.008341920945303496</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.786074386590821e-14</v>
+        <v>0.00078956368060135</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.062226059023113e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1057,85 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1443101994485428</v>
+        <v>0.1286018524197292</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08537727224018057</v>
+        <v>0.1366903078706606</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1572629785862451</v>
+        <v>0.1380947950103247</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1850698801484938</v>
+        <v>0.1518733179102694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1858636611957336</v>
+        <v>0.1955513817451844</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1632829748615489</v>
+        <v>0.2127489375471032</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1754084008420361</v>
+        <v>0.2030662507732115</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1539361729717782</v>
+        <v>0.1695433789955844</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1353463379264431</v>
+        <v>0.1655582770742232</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07159768217166208</v>
+        <v>0.2150462613605311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1958231207865793</v>
+        <v>0.2630861383989411</v>
       </c>
       <c r="M8" t="n">
-        <v>0.151834962451878</v>
+        <v>0.2204597101769034</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04034255181665836</v>
+        <v>0.195586468241967</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007930206732489254</v>
+        <v>0.2317884492597742</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005397800467956174</v>
+        <v>0.3270626456853855</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005197983213161358</v>
+        <v>0.2668358184852553</v>
       </c>
       <c r="R8" t="n">
-        <v>0.003158074182469397</v>
+        <v>0.2101740391286775</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001139879012363792</v>
+        <v>0.1209098020763813</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0004019497768720399</v>
+        <v>0.1144866998793215</v>
       </c>
       <c r="U8" t="n">
-        <v>8.008637030973028e-06</v>
+        <v>0.2009846586469382</v>
       </c>
       <c r="V8" t="n">
-        <v>2.105330932497159e-06</v>
+        <v>0.1319092573956293</v>
       </c>
       <c r="W8" t="n">
-        <v>2.683880042829396e-08</v>
+        <v>0.03559852224306801</v>
       </c>
       <c r="X8" t="n">
-        <v>1.139371737073472e-09</v>
+        <v>0.02665942859488866</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.40507125139182e-14</v>
+        <v>0.002668694414061556</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.888694393676634e-17</v>
+        <v>0.0004367695150535481</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.722047749021553e-19</v>
+        <v>2.130663169274447e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.104786124107227e-26</v>
+        <v>6.237543663041158e-07</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.448307804578102e-09</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,84 +1183,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -1247,85 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1470386543416035</v>
+        <v>0.1409413726115504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1474820657044371</v>
+        <v>0.1434674344822354</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1607327208769208</v>
+        <v>0.1457518988431134</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07407757617641283</v>
+        <v>0.1646211861905578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03139666961613536</v>
+        <v>0.1524132388241954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008493911703438115</v>
+        <v>0.1532491614117822</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01621132202887707</v>
+        <v>0.1107736644809353</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009655719825094243</v>
+        <v>0.1451416652612954</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003983874652800017</v>
+        <v>0.1175026482775834</v>
       </c>
       <c r="K2" t="n">
-        <v>6.116756526514194e-05</v>
+        <v>0.133227562859729</v>
       </c>
       <c r="L2" t="n">
-        <v>9.864411432998171e-06</v>
+        <v>0.1292419769025776</v>
       </c>
       <c r="M2" t="n">
-        <v>4.963131717292591e-06</v>
+        <v>0.06646984581621861</v>
       </c>
       <c r="N2" t="n">
-        <v>5.640500968811855e-06</v>
+        <v>0.07202129456782809</v>
       </c>
       <c r="O2" t="n">
-        <v>5.362356142427252e-07</v>
+        <v>0.03373929950913881</v>
       </c>
       <c r="P2" t="n">
-        <v>1.48206387481302e-07</v>
+        <v>0.0151136789811906</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.241578791257771e-08</v>
+        <v>0.03405022893557484</v>
       </c>
       <c r="R2" t="n">
-        <v>6.907159517408297e-09</v>
+        <v>0.01301350230467961</v>
       </c>
       <c r="S2" t="n">
-        <v>1.196346034658977e-08</v>
+        <v>0.00684771372848006</v>
       </c>
       <c r="T2" t="n">
-        <v>1.969915993974478e-09</v>
+        <v>0.01442191756884959</v>
       </c>
       <c r="U2" t="n">
-        <v>5.006482691720025e-10</v>
+        <v>0.008820225545115525</v>
       </c>
       <c r="V2" t="n">
-        <v>1.575249865651524e-09</v>
+        <v>0.00237843781964295</v>
       </c>
       <c r="W2" t="n">
-        <v>2.006719905855804e-11</v>
+        <v>0.00196164425632313</v>
       </c>
       <c r="X2" t="n">
-        <v>1.011188575289216e-12</v>
+        <v>0.000824495160750921</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.973145584031229e-13</v>
+        <v>0.001217138997337913</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.576570287043865e-15</v>
+        <v>0.0002896884113070645</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.289224342909365e-17</v>
+        <v>6.239918019860518e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.213556620448226e-18</v>
+        <v>0.0001724156674139974</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.78746634618747e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1335,85 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1291312068980824</v>
+        <v>0.1495622163461961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1329464984144917</v>
+        <v>0.1417061103240753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1236755180452951</v>
+        <v>0.1329060246030493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2527862766571635</v>
+        <v>0.0986600318389592</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3023886516609217</v>
+        <v>0.1257506111240715</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3258527671929515</v>
+        <v>0.1296596645699152</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3193744653277041</v>
+        <v>0.1984578807577979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9308649452803345</v>
+        <v>0.1480547107611012</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9658073416184975</v>
+        <v>0.2985246181802121</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9885147180206008</v>
+        <v>0.2522756246452004</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9942262965174719</v>
+        <v>0.2977985640384041</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9947854186740855</v>
+        <v>0.4957395049789321</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9933463820901801</v>
+        <v>0.4739226924323721</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9949278299136436</v>
+        <v>0.5698361447446783</v>
       </c>
       <c r="P3" t="n">
-        <v>0.995350439714165</v>
+        <v>0.6361511671324118</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9955880131534193</v>
+        <v>0.5676609302370448</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9956398631790053</v>
+        <v>0.6284341691567965</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9935170210699221</v>
+        <v>0.6442143011269176</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9930313845841744</v>
+        <v>0.5935139617308051</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9921089004570273</v>
+        <v>0.59760901042665</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9871199044026795</v>
+        <v>0.6406970467536355</v>
       </c>
       <c r="W3" t="n">
-        <v>0.988091191729726</v>
+        <v>0.6238927377837703</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9898323527965607</v>
+        <v>0.6518515772123274</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9863912475507126</v>
+        <v>0.6192827322375323</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9892575308344923</v>
+        <v>0.6567878167244369</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9911912904190061</v>
+        <v>0.6777861649546971</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9920956542552162</v>
+        <v>0.648353214277651</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.643293085903443</v>
       </c>
     </row>
     <row r="4">
@@ -1423,85 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1291311865918007</v>
+        <v>0.1495622260487768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1329464796330104</v>
+        <v>0.1417061078441554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.123676291069934</v>
+        <v>0.1329060101119928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2527858129932232</v>
+        <v>0.09866045453271163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3023862445198416</v>
+        <v>0.1257509276404765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3258476051021236</v>
+        <v>0.1296601784845617</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3193742402657658</v>
+        <v>0.1984575975827014</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008601879443787338</v>
+        <v>0.1480552915310138</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002364866867513401</v>
+        <v>0.08869291893364743</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001797675605066023</v>
+        <v>0.0984679834699065</v>
       </c>
       <c r="L4" t="n">
-        <v>1.499291634559789e-05</v>
+        <v>0.07276608459795753</v>
       </c>
       <c r="M4" t="n">
-        <v>4.592161451840198e-06</v>
+        <v>0.02164111128067267</v>
       </c>
       <c r="N4" t="n">
-        <v>2.887541273608827e-06</v>
+        <v>0.01981171306515706</v>
       </c>
       <c r="O4" t="n">
-        <v>7.884770243669438e-08</v>
+        <v>0.005533855060733489</v>
       </c>
       <c r="P4" t="n">
-        <v>9.458515805963463e-09</v>
+        <v>0.001728573721486062</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.570220944866879e-10</v>
+        <v>0.004739729776719134</v>
       </c>
       <c r="R4" t="n">
-        <v>3.62621389888007e-11</v>
+        <v>0.0009360484893581682</v>
       </c>
       <c r="S4" t="n">
-        <v>1.267764304363084e-11</v>
+        <v>0.0002446845022489433</v>
       </c>
       <c r="T4" t="n">
-        <v>1.433036940644995e-13</v>
+        <v>0.0003802709605744797</v>
       </c>
       <c r="U4" t="n">
-        <v>3.284662003143772e-15</v>
+        <v>8.065066868954725e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>7.53907351856275e-16</v>
+        <v>6.608451497472749e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>9.472892129515333e-20</v>
+        <v>1.713362500279039e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.25248067206424e-22</v>
+        <v>3.260782929167114e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.713367078019316e-24</v>
+        <v>4.040999438054914e-08</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.024553205803695e-29</v>
+        <v>2.253469126011792e-09</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.980536739657662e-33</v>
+        <v>4.043767070263653e-11</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.451220024875377e-38</v>
+        <v>2.32712298693414e-13</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3.609103526764772e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1511,85 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1291235424749218</v>
+        <v>0.1495658784964808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1329394091914219</v>
+        <v>0.1417051742210442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1236559024742683</v>
+        <v>0.1329005550839328</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2527798658208211</v>
+        <v>0.09864882671655885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3024115179187835</v>
+        <v>0.1257399920436538</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3259197444394574</v>
+        <v>0.1296456232507997</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3193604017408631</v>
+        <v>0.1984540220844213</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04429586132895472</v>
+        <v>0.1480387765134741</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01848471050857793</v>
+        <v>0.1209189239475774</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002897121571568324</v>
+        <v>0.1370077817164485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004762978634975829</v>
+        <v>0.1336780017107566</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0002427078852468996</v>
+        <v>0.06978454610977386</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002735495218612774</v>
+        <v>0.07582038301971988</v>
       </c>
       <c r="O5" t="n">
-        <v>2.527449700784253e-05</v>
+        <v>0.03512803199329601</v>
       </c>
       <c r="P5" t="n">
-        <v>6.860945993704182e-06</v>
+        <v>0.01560710306448691</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.464398288708433e-06</v>
+        <v>0.03538775550003589</v>
       </c>
       <c r="R5" t="n">
-        <v>3.033510912665761e-07</v>
+        <v>0.01334152303154182</v>
       </c>
       <c r="S5" t="n">
-        <v>4.324172774707458e-07</v>
+        <v>0.006931075208888113</v>
       </c>
       <c r="T5" t="n">
-        <v>4.524438914387913e-08</v>
+        <v>0.01468811533376025</v>
       </c>
       <c r="U5" t="n">
-        <v>7.802860902619275e-09</v>
+        <v>0.00777267901529205</v>
       </c>
       <c r="V5" t="n">
-        <v>1.784967191073739e-08</v>
+        <v>0.001729278165079619</v>
       </c>
       <c r="W5" t="n">
-        <v>8.84329518903541e-11</v>
+        <v>0.001245136601332797</v>
       </c>
       <c r="X5" t="n">
-        <v>2.333232430039372e-12</v>
+        <v>0.0004639011840254541</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.857683530198302e-13</v>
+        <v>0.0005448620632053858</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.454068256581726e-16</v>
+        <v>0.0001003313644134839</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.407913339146859e-18</v>
+        <v>1.451499071027875e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.062520729018651e-19</v>
+        <v>3.034052382220103e-05</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.942143415989227e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1599,85 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1636225430253968</v>
+        <v>0.1325881009598263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1561790175458314</v>
+        <v>0.1443212003945674</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157284852697925</v>
+        <v>0.1580465616616867</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0493577364926893</v>
+        <v>0.1906348585384477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01641720185530209</v>
+        <v>0.1622985311985965</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003191989481753723</v>
+        <v>0.1557750330468227</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005708026637860036</v>
+        <v>0.09467964439131547</v>
       </c>
       <c r="I6" t="n">
-        <v>4.240769762640555e-05</v>
+        <v>0.1364058645629065</v>
       </c>
       <c r="J6" t="n">
-        <v>1.114151572479461e-05</v>
+        <v>0.0791496472385131</v>
       </c>
       <c r="K6" t="n">
-        <v>7.858895484133697e-07</v>
+        <v>0.08716393851359835</v>
       </c>
       <c r="L6" t="n">
-        <v>6.107611850557281e-08</v>
+        <v>0.06194570400137386</v>
       </c>
       <c r="M6" t="n">
-        <v>1.76169570715019e-08</v>
+        <v>0.01730210863520129</v>
       </c>
       <c r="N6" t="n">
-        <v>9.124508460826716e-09</v>
+        <v>0.01540753006327127</v>
       </c>
       <c r="O6" t="n">
-        <v>1.819851288757751e-10</v>
+        <v>0.003726892498211292</v>
       </c>
       <c r="P6" t="n">
-        <v>1.736300493255828e-11</v>
+        <v>0.001059455275809798</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.807253213509391e-13</v>
+        <v>0.002944355246872566</v>
       </c>
       <c r="R6" t="n">
-        <v>3.340201779633867e-14</v>
+        <v>0.0004803405532915617</v>
       </c>
       <c r="S6" t="n">
-        <v>2.279764988991359e-14</v>
+        <v>9.991298263506361e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>5.355892349950684e-16</v>
+        <v>0.000184067352650223</v>
       </c>
       <c r="U6" t="n">
-        <v>2.451896424733035e-17</v>
+        <v>5.50538597929332e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.344090218830861e-17</v>
+        <v>6.382407336205354e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.690779118665559e-21</v>
+        <v>2.492641712776645e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>2.413577752068404e-24</v>
+        <v>6.063048128784705e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.028640383058259e-26</v>
+        <v>8.088967732527795e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.333159960338872e-31</v>
+        <v>4.66026006320111e-09</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.147604707726199e-34</v>
+        <v>8.873057277722303e-11</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.862090251573115e-40</v>
+        <v>5.617462293380665e-13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.345074197287059e-16</v>
       </c>
     </row>
     <row r="7">
@@ -1687,85 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1391493936795754</v>
+        <v>0.1447636429611653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.141616509055481</v>
+        <v>0.142795726066456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1535388370262664</v>
+        <v>0.1400665997929125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0682393344144839</v>
+        <v>0.1592424724912594</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0282590089053613</v>
+        <v>0.1462797109722387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007407347263204823</v>
+        <v>0.1465064396976624</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0140791786961456</v>
+        <v>0.1041744112515055</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01518496095564691</v>
+        <v>0.1377952843917718</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01292185619702617</v>
+        <v>0.2158221260703495</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008345609999035931</v>
+        <v>0.2043752768534302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005272422433023371</v>
+        <v>0.2422203442921905</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004962281763721753</v>
+        <v>0.3115695479388977</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00637152120885944</v>
+        <v>0.3274067983148118</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005046280115281238</v>
+        <v>0.3481808298062691</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004642541636989941</v>
+        <v>0.3292292980632505</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004410489373509015</v>
+        <v>0.3521323516610824</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004359826526404675</v>
+        <v>0.3432770406782587</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006482534536618928</v>
+        <v>0.3415510005574744</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00696856820137634</v>
+        <v>0.3766273813308704</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00789109123946034</v>
+        <v>0.3856184787933162</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0128800761723981</v>
+        <v>0.355178211802795</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01190880816177381</v>
+        <v>0.3728950705642346</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01016764720009483</v>
+        <v>0.3468588449347245</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01360875244840437</v>
+        <v>0.3789551103970423</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01074246916550537</v>
+        <v>0.3428221545226853</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.008808709580993987</v>
+        <v>0.3221369207042704</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.007904345744783905</v>
+        <v>0.3514440295300397</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3566770972896773</v>
       </c>
     </row>
     <row r="8">
@@ -1775,85 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1628034729886193</v>
+        <v>0.1330165625760042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1558900204553264</v>
+        <v>0.1442982466674661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1574358778093903</v>
+        <v>0.1574223499033126</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04997339744520628</v>
+        <v>0.1895321696915052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01674070552365417</v>
+        <v>0.1617669881967674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003286634817070741</v>
+        <v>0.155503899538456</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005892365302784407</v>
+        <v>0.09500277945132306</v>
       </c>
       <c r="I8" t="n">
-        <v>4.437331114051651e-05</v>
+        <v>0.1365084069784372</v>
       </c>
       <c r="J8" t="n">
-        <v>1.169582738027556e-05</v>
+        <v>0.07938911735211684</v>
       </c>
       <c r="K8" t="n">
-        <v>8.293934747917089e-07</v>
+        <v>0.08748183194168736</v>
       </c>
       <c r="L8" t="n">
-        <v>6.478211017181988e-08</v>
+        <v>0.06234932445673988</v>
       </c>
       <c r="M8" t="n">
-        <v>1.876681971973679e-08</v>
+        <v>0.0174933352403037</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001234831188947e-08</v>
+        <v>0.01560958853683964</v>
       </c>
       <c r="O8" t="n">
-        <v>2.087655744840947e-10</v>
+        <v>0.003854946387672997</v>
       </c>
       <c r="P8" t="n">
-        <v>2.05850039694475e-11</v>
+        <v>0.001110723761364486</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.092353960803512e-12</v>
+        <v>0.00308464864267037</v>
       </c>
       <c r="R8" t="n">
-        <v>4.372231236858365e-14</v>
+        <v>0.0005173757860736778</v>
       </c>
       <c r="S8" t="n">
-        <v>2.076366868100519e-14</v>
+        <v>0.0001113118933556638</v>
       </c>
       <c r="T8" t="n">
-        <v>2.972950073071914e-16</v>
+        <v>0.00018428572248998</v>
       </c>
       <c r="U8" t="n">
-        <v>8.554700705397192e-18</v>
+        <v>4.390169114367765e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>2.631236483940368e-18</v>
+        <v>4.034600013303561e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.526687599298727e-22</v>
+        <v>1.20479012615274e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.705962131544805e-25</v>
+        <v>2.491250658110998e-07</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.84467998217686e-27</v>
+        <v>3.500521047381663e-08</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.906495425203592e-31</v>
+        <v>2.063428016318612e-09</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.545682022120572e-35</v>
+        <v>4.095543630805757e-11</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.67518934073226e-40</v>
+        <v>2.785729726021667e-13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.869187377853555e-16</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1877,84 +1925,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -1965,85 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450417047195629</v>
+        <v>0.1399338296058449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143691631230987</v>
+        <v>0.1414949375293449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09328742447298412</v>
+        <v>0.1412149529835975</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07937283446190305</v>
+        <v>0.1641532214619154</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03478283411010092</v>
+        <v>0.1335476308607215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09101252649062054</v>
+        <v>0.1542515231302126</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05585417193554067</v>
+        <v>0.1664116136038294</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06143797454947385</v>
+        <v>0.1855543610725608</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06297411352128554</v>
+        <v>0.1967379277906174</v>
       </c>
       <c r="K2" t="n">
-        <v>0.10181537100378</v>
+        <v>0.2107125412149989</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08319207022637004</v>
+        <v>0.2182877825795584</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06575752361031423</v>
+        <v>0.2363154343924021</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05284083422478023</v>
+        <v>0.2147573267614943</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03639898499917832</v>
+        <v>0.1744177218326135</v>
       </c>
       <c r="P2" t="n">
-        <v>0.007335899714389057</v>
+        <v>0.1106406719476895</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002818793925225389</v>
+        <v>0.08985273005908981</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01292632671637667</v>
+        <v>0.05029986748883394</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003000822373534575</v>
+        <v>0.02838101696364897</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001095278409060105</v>
+        <v>0.05899172393499785</v>
       </c>
       <c r="U2" t="n">
-        <v>4.12712912419254e-05</v>
+        <v>0.03640425401302699</v>
       </c>
       <c r="V2" t="n">
-        <v>9.12432254520769e-06</v>
+        <v>0.02688262077933748</v>
       </c>
       <c r="W2" t="n">
-        <v>1.180990795778795e-08</v>
+        <v>0.01020750424123725</v>
       </c>
       <c r="X2" t="n">
-        <v>2.101203500262009e-11</v>
+        <v>0.003827399463423082</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.935349732158622e-13</v>
+        <v>0.005049078480358019</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.10746330145581e-16</v>
+        <v>0.002304301655692799</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.897283908974821e-22</v>
+        <v>1.43654690069538e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.826703159394473e-28</v>
+        <v>7.33431162514935e-08</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.50207548189543e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2053,85 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1386093175616627</v>
+        <v>0.1520614022943488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1470924970834481</v>
+        <v>0.1476406360357498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2261416275568413</v>
+        <v>0.1493873713526317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2476641281323278</v>
+        <v>0.1118743744464373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2999495315577985</v>
+        <v>0.161948125280445</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2451109713354814</v>
+        <v>0.1305062537390418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2852157909468317</v>
+        <v>0.1151354492297873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2891697787095558</v>
+        <v>0.08482601547824511</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01227141534372742</v>
+        <v>0.04908160065361217</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06248451683522375</v>
+        <v>0.0514047471508953</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005184014072857534</v>
+        <v>0.07772919108464692</v>
       </c>
       <c r="M3" t="n">
-        <v>9.462451606263286e-05</v>
+        <v>0.0409834330918768</v>
       </c>
       <c r="N3" t="n">
-        <v>1.121163229170503e-05</v>
+        <v>0.01387664451698668</v>
       </c>
       <c r="O3" t="n">
-        <v>7.811564160263048e-07</v>
+        <v>0.00478521811179323</v>
       </c>
       <c r="P3" t="n">
-        <v>9.144194355359691e-09</v>
+        <v>0.001097851807314803</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.36884473625238e-10</v>
+        <v>0.0002932830455754968</v>
       </c>
       <c r="R3" t="n">
-        <v>1.548481903749123e-09</v>
+        <v>7.193921375457924e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>8.763868693707227e-13</v>
+        <v>1.117186080728619e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.55015497803816e-15</v>
+        <v>4.311861497020652e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.354057181752705e-16</v>
+        <v>6.967512029622064e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.532916289931397e-18</v>
+        <v>9.458467454201374e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.724902117811594e-22</v>
+        <v>1.307437874722297e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>5.426168555693056e-25</v>
+        <v>2.278355400867726e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.430132374523533e-27</v>
+        <v>2.838234919028738e-09</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.37941680745476e-30</v>
+        <v>2.995834363714389e-11</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.800176022750193e-35</v>
+        <v>6.2230756855341e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.585197666682138e-41</v>
+        <v>1.72424473076653e-16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.861777741473862e-19</v>
       </c>
     </row>
     <row r="4">
@@ -2141,85 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1386093087281059</v>
+        <v>0.1520614165444426</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1470924970184877</v>
+        <v>0.1476406429649356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2261408207095749</v>
+        <v>0.1493873801302032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2476640074279024</v>
+        <v>0.1118748951209064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2999484374382786</v>
+        <v>0.1619479456802017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2451145447106839</v>
+        <v>0.1305066232732343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2852206922118858</v>
+        <v>0.1151361574210787</v>
       </c>
       <c r="I4" t="n">
-        <v>0.220009109619537</v>
+        <v>0.08482694387645633</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5101264121506436</v>
+        <v>0.09853518948349078</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2157988849802841</v>
+        <v>0.09278144865690315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4170913933079119</v>
+        <v>0.07501764891038157</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5214849234236965</v>
+        <v>0.09106797145095187</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5919547086525297</v>
+        <v>0.1152960363400129</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6813877478276859</v>
+        <v>0.1277419546194742</v>
       </c>
       <c r="P4" t="n">
-        <v>0.805607967481122</v>
+        <v>0.1332642146768357</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8079511481811046</v>
+        <v>0.1365755757283147</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8268217280728423</v>
+        <v>0.1282861853437277</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8874952271462756</v>
+        <v>0.1223768373975558</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9437106674623222</v>
+        <v>0.09732568493860719</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9382131695822665</v>
+        <v>0.1036370601431517</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9202020861318564</v>
+        <v>0.09787612576170492</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9554433123282953</v>
+        <v>0.127773208040753</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9633780590398621</v>
+        <v>0.1684578058079932</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9679657894084378</v>
+        <v>0.1574831218940788</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9641184365431608</v>
+        <v>0.1470976116595098</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9854154997600933</v>
+        <v>0.1508677835692122</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9995614320750941</v>
+        <v>0.1458257737644842</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.06075714454586006</v>
       </c>
     </row>
     <row r="5">
@@ -2229,85 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1386059831740122</v>
+        <v>0.1520667809647712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1470924719354368</v>
+        <v>0.1476432513969014</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2261548555046758</v>
+        <v>0.1493906842975813</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2476660335657703</v>
+        <v>0.1118683805891479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2999674608906568</v>
+        <v>0.1619548344171209</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2450519803846094</v>
+        <v>0.1305031824784853</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2851348948036066</v>
+        <v>0.1151264394954853</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3425273836642166</v>
+        <v>0.08481267489111897</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3412745175820638</v>
+        <v>0.08958933586135763</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5680039464179364</v>
+        <v>0.09620477376261193</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4493097387354311</v>
+        <v>0.1002919172945709</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3494833099739486</v>
+        <v>0.1080408994821783</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2841467171444962</v>
+        <v>0.09717666929896164</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1992529311737205</v>
+        <v>0.07951659525071363</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04175138479600299</v>
+        <v>0.05098583959677926</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01640906290922728</v>
+        <v>0.04171588767198083</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07423344426333013</v>
+        <v>0.02359098930290564</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02746586845086076</v>
+        <v>0.01348491429915247</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001732006254634912</v>
+        <v>0.02437779182251867</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0008859861736179852</v>
+        <v>0.01734448053114161</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0003467564926497722</v>
+        <v>0.0147401894644763</v>
       </c>
       <c r="W5" t="n">
-        <v>1.075487752550495e-06</v>
+        <v>0.006637093710372656</v>
       </c>
       <c r="X5" t="n">
-        <v>3.083311355888111e-09</v>
+        <v>0.002872797692748855</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.515752591000885e-11</v>
+        <v>0.00489151576897773</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.658751590823797e-13</v>
+        <v>0.004086563190294595</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.520036799839014e-19</v>
+        <v>4.109984474813452e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.214636803601346e-26</v>
+        <v>2.715128382289773e-07</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.855450308520398e-09</v>
       </c>
     </row>
     <row r="6">
@@ -2317,85 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1483396678918361</v>
+        <v>0.1290772163073028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1341816208890561</v>
+        <v>0.135527525690668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06745985698971091</v>
+        <v>0.1326168842801417</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04955290300489801</v>
+        <v>0.1651723972257303</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01592761017176292</v>
+        <v>0.1216993906315752</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04279447170062173</v>
+        <v>0.1475620629556407</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01809526127627967</v>
+        <v>0.1582271515386107</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01335917444580396</v>
+        <v>0.1838696631763699</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03311098800151016</v>
+        <v>0.2147178477966205</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01161067330981119</v>
+        <v>0.1984873172559782</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02389706242519123</v>
+        <v>0.155682058652742</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03076476592583296</v>
+        <v>0.1899103829950223</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03464054462662592</v>
+        <v>0.2480444952710302</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04043583188471688</v>
+        <v>0.2952773348588824</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07291617561811664</v>
+        <v>0.353245820010433</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08767823700666198</v>
+        <v>0.3698107415474632</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04099415160377675</v>
+        <v>0.4090116421015941</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03681360872674772</v>
+        <v>0.4314214894596399</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01676886206321053</v>
+        <v>0.463279391353082</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01884847249416099</v>
+        <v>0.4661918449481529</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02719096278077898</v>
+        <v>0.4865413208246004</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005885771425157564</v>
+        <v>0.4271999114572239</v>
       </c>
       <c r="X6" t="n">
-        <v>0.009307156963099462</v>
+        <v>0.3492695806982191</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.008569461641433828</v>
+        <v>0.3449309036514843</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.009498558489355656</v>
+        <v>0.3423213990595207</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.005665182980261529</v>
+        <v>0.3477758190266669</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0003753571863223174</v>
+        <v>0.3533776001903269</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.332348896957514</v>
       </c>
     </row>
     <row r="7">
@@ -2405,85 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1425485329241065</v>
+        <v>0.1451841892167905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1460453397145826</v>
+        <v>0.1442183420882144</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09252378900259692</v>
+        <v>0.1449292969272361</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07768658180684654</v>
+        <v>0.1696363672937623</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03307431200935012</v>
+        <v>0.1366733169984063</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08698530874172415</v>
+        <v>0.1586589663031277</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05167978242350275</v>
+        <v>0.1711884446428047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05956771881121565</v>
+        <v>0.1917814667650295</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005878079574051245</v>
+        <v>0.1361586740810636</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02807057513873524</v>
+        <v>0.1512277213744295</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000955947819823135</v>
+        <v>0.2164224298739425</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002452184832645952</v>
+        <v>0.1427450715306738</v>
       </c>
       <c r="N7" t="n">
-        <v>4.019143455733596e-05</v>
+        <v>0.06200622611024521</v>
       </c>
       <c r="O7" t="n">
-        <v>4.102887219421878e-06</v>
+        <v>0.02496176559117773</v>
       </c>
       <c r="P7" t="n">
-        <v>6.538720283645709e-08</v>
+        <v>0.006726802779059578</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.917703648651901e-09</v>
+        <v>0.002244619872514379</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72237370875944e-08</v>
+        <v>0.000618532901005878</v>
       </c>
       <c r="S7" t="n">
-        <v>1.99207257590541e-11</v>
+        <v>0.0001174439402488392</v>
       </c>
       <c r="T7" t="n">
-        <v>6.857923342979235e-14</v>
+        <v>0.0004483371731685528</v>
       </c>
       <c r="U7" t="n">
-        <v>4.416616004889931e-15</v>
+        <v>8.665126612962898e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>6.213761815258782e-17</v>
+        <v>1.49643318574857e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.122637888599126e-20</v>
+        <v>2.298945645285915e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>2.004774406312634e-23</v>
+        <v>4.318983655721816e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.349819935316981e-25</v>
+        <v>6.923942064621064e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.461523046056428e-29</v>
+        <v>1.005997365367062e-09</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.230134670519142e-34</v>
+        <v>2.213773753557305e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.072330942876411e-39</v>
+        <v>6.355218003668049e-15</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3.734518987970413e-17</v>
       </c>
     </row>
     <row r="8">
@@ -2493,85 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1482454850007137</v>
+        <v>0.1296151650664991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1348039421280017</v>
+        <v>0.1358346642941859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06829162576361605</v>
+        <v>0.1330734300286084</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05039351160035187</v>
+        <v>0.1654203638621004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01634981382205194</v>
+        <v>0.1222287561315295</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0439301966362588</v>
+        <v>0.1480113881202575</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01879940640235273</v>
+        <v>0.1587747440684039</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01392886020019697</v>
+        <v>0.1843288747402194</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03436447382671826</v>
+        <v>0.2151794243332379</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01221603231422957</v>
+        <v>0.1991814505841829</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02503538607798706</v>
+        <v>0.1565689716041577</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0321696340668805</v>
+        <v>0.1909368070568949</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0363657922847188</v>
+        <v>0.248842601701269</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04251962007106286</v>
+        <v>0.2932994097353453</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07238849785897224</v>
+        <v>0.3440387991818881</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08514275252319259</v>
+        <v>0.3595071620750616</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04502433057145519</v>
+        <v>0.3881208436481781</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04522447328178428</v>
+        <v>0.4042071260789468</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03767893637885514</v>
+        <v>0.3555339521626554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04201110045870789</v>
+        <v>0.3763287415863676</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05225107027216947</v>
+        <v>0.373943832991278</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03866982894888672</v>
+        <v>0.4281798528609805</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02731478089271513</v>
+        <v>0.4755719616556961</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0234647488645773</v>
+        <v>0.4876453081274455</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02638300496731709</v>
+        <v>0.5041901233990264</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.008919317259644991</v>
+        <v>0.5013009320880896</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.321073858355452e-05</v>
+        <v>0.5007962811892279</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.606893954990968</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +2657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2595,84 +2667,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -2683,85 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1410722689739271</v>
+        <v>0.1437498674839247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1401185875927626</v>
+        <v>0.145763189291204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0396413147848163</v>
+        <v>0.1454840683729546</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01731794441658628</v>
+        <v>0.1523604866759088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04913883109949785</v>
+        <v>0.171113409214933</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02642940055715525</v>
+        <v>0.1781419994656143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005557159018544628</v>
+        <v>0.1887321630579279</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006415765251459269</v>
+        <v>0.1905584166811495</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003812834787596971</v>
+        <v>0.2029537477112824</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003116134133032699</v>
+        <v>0.2144094364250987</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003300884248899912</v>
+        <v>0.2289311355131058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00345776803422856</v>
+        <v>0.2491505763077652</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002968524410911834</v>
+        <v>0.271834404859724</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0007219973182014598</v>
+        <v>0.2805599598287169</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001183700255229161</v>
+        <v>0.3213123545526924</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001534388693680612</v>
+        <v>0.2773085126137135</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001409053759303136</v>
+        <v>0.3191518650464651</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0009517285097017348</v>
+        <v>0.3836512085563857</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001079511939821416</v>
+        <v>0.41263173431758</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001136138772910305</v>
+        <v>0.2908879620447737</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008082910450994631</v>
+        <v>0.2482939300970299</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01367450194481327</v>
+        <v>0.3579993364237012</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003060445884857712</v>
+        <v>0.5787717732818922</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.000939357202139278</v>
+        <v>0.6038724456958775</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0008732418558786254</v>
+        <v>0.5304032917761791</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001009683381161984</v>
+        <v>0.6049183909000647</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001912271404578727</v>
+        <v>0.7020642269222747</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.5530934638535755</v>
       </c>
     </row>
     <row r="3">
@@ -2771,85 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1517952188476132</v>
+        <v>0.140485690417394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1567177442992033</v>
+        <v>0.1334269118421895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2914906104448975</v>
+        <v>0.1360699823634949</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3162325925545434</v>
+        <v>0.1273846261940443</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2839958255758758</v>
+        <v>0.09153400126417732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3096830990069469</v>
+        <v>0.08326349620316228</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3288351153011514</v>
+        <v>0.06795007069799648</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03585616361482118</v>
+        <v>0.07746040680903515</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002200079398883347</v>
+        <v>0.05460927575000318</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0004719265077860434</v>
+        <v>0.04788681243486777</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000152875483458652</v>
+        <v>0.03711383889114702</v>
       </c>
       <c r="M3" t="n">
-        <v>3.312887979010637e-05</v>
+        <v>0.03315147758525718</v>
       </c>
       <c r="N3" t="n">
-        <v>3.351332385743047e-06</v>
+        <v>0.0271419336833052</v>
       </c>
       <c r="O3" t="n">
-        <v>2.339292499646418e-08</v>
+        <v>0.01555314580090758</v>
       </c>
       <c r="P3" t="n">
-        <v>1.887777199013436e-08</v>
+        <v>0.03764476777307525</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.864748011293823e-09</v>
+        <v>0.009356372873953033</v>
       </c>
       <c r="R3" t="n">
-        <v>1.760064871569226e-10</v>
+        <v>0.006519341478845463</v>
       </c>
       <c r="S3" t="n">
-        <v>5.125199926193336e-12</v>
+        <v>0.00556863194597034</v>
       </c>
       <c r="T3" t="n">
-        <v>3.62635604414632e-13</v>
+        <v>0.002236777869631838</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77053521710097e-14</v>
+        <v>0.0006171512915023636</v>
       </c>
       <c r="V3" t="n">
-        <v>2.545358431043533e-14</v>
+        <v>0.0001133524909797694</v>
       </c>
       <c r="W3" t="n">
-        <v>1.017079464401992e-14</v>
+        <v>6.433601527501892e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>8.55603371070626e-20</v>
+        <v>7.183647275338704e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.480444333995813e-21</v>
+        <v>1.14008010082234e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.520721649112926e-22</v>
+        <v>9.219857166079745e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.091467573196546e-24</v>
+        <v>3.446637578402596e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.25197286504254e-28</v>
+        <v>3.916882339861816e-07</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.963871718741247e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2859,85 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1517952293431561</v>
+        <v>0.1404856863641034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.156717760016015</v>
+        <v>0.133426897654326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.291486601466558</v>
+        <v>0.136069970688576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3162259699602314</v>
+        <v>0.1273849248677633</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2839952032826585</v>
+        <v>0.09153459952942433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3096827087898608</v>
+        <v>0.08326425814904126</v>
       </c>
       <c r="H4" t="n">
-        <v>0.328831726079257</v>
+        <v>0.06795096705498621</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5807434612024878</v>
+        <v>0.07746151535994597</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7727895055844771</v>
+        <v>0.08392107163705052</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8161777319822243</v>
+        <v>0.08436728624852279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.807250557532954</v>
+        <v>0.08641525707899449</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8000989213713661</v>
+        <v>0.08402842325285835</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8259342927379373</v>
+        <v>0.08251887131057954</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9485632923915905</v>
+        <v>0.09015601561798477</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9240811502546342</v>
+        <v>0.06594262454887934</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9044101741799178</v>
+        <v>0.09655225259684508</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9113515667093149</v>
+        <v>0.09528643832906561</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9203811783840334</v>
+        <v>0.08854607840559808</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8845703417647595</v>
+        <v>0.07796243155866218</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8289027924368418</v>
+        <v>0.1268797730626427</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08136057834452901</v>
+        <v>0.1291268501597331</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001474087199287245</v>
+        <v>0.07085525813592057</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002869638013216106</v>
+        <v>0.01191265789495764</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001254076032622917</v>
+        <v>0.004961773609710355</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.22969141796866e-10</v>
+        <v>0.002717933419066084</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.453051160086257e-14</v>
+        <v>0.0001940227123274816</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.821953554806338e-20</v>
+        <v>6.070849555811283e-06</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.400144649673622e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2947,85 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1517991800294039</v>
+        <v>0.1404841604793306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1567236759356068</v>
+        <v>0.1334215567190806</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2915675365763017</v>
+        <v>0.1360655756106035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3163535346946129</v>
+        <v>0.1273753966628645</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2840166262289513</v>
+        <v>0.09152104554344161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.309701022388494</v>
+        <v>0.08324812207840544</v>
       </c>
       <c r="H5" t="n">
-        <v>0.328903187618948</v>
+        <v>0.06793299906776945</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3707732079215292</v>
+        <v>0.07743951593986888</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2148696154936097</v>
+        <v>0.08234540960887968</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1736549396455866</v>
+        <v>0.08701032491468978</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1830655590575393</v>
+        <v>0.09286876522907567</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1905040670778452</v>
+        <v>0.10119601008792</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1652670498004141</v>
+        <v>0.1104931229323991</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04179158882926358</v>
+        <v>0.1143622608723049</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06837152686837555</v>
+        <v>0.1297498361595067</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08908455974971216</v>
+        <v>0.1133667165336166</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08315609156756691</v>
+        <v>0.1304502525646023</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07397313612628097</v>
+        <v>0.1566021189367642</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1078273839013156</v>
+        <v>0.1720909614517349</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1597755279248908</v>
+        <v>0.1383305703561893</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9059502365053549</v>
+        <v>0.1342368750420606</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9844918988692229</v>
+        <v>0.1904069455894172</v>
       </c>
       <c r="X5" t="n">
-        <v>0.993330192779702</v>
+        <v>0.2684308008792616</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9973810543179167</v>
+        <v>0.3278959698424999</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9991267576654331</v>
+        <v>0.4282121974343261</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9989903166188135</v>
+        <v>0.3918063686683769</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9998087728595422</v>
+        <v>0.2978065940778478</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.4469044488958059</v>
       </c>
     </row>
     <row r="6">
@@ -3035,85 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1283382694764947</v>
+        <v>0.1462607259654309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1202809283384789</v>
+        <v>0.1570795960103533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02288313385630764</v>
+        <v>0.1525303216825828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008332331040568101</v>
+        <v>0.1587820256941781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0248504811452938</v>
+        <v>0.1936528611095065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009421306188981921</v>
+        <v>0.199110407742206</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001339724571347457</v>
+        <v>0.2115114629809008</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002091479288115553</v>
+        <v>0.1958251430452991</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003001232676780439</v>
+        <v>0.2115831240043999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003193066389364683</v>
+        <v>0.2103515874525191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003033168413043901</v>
+        <v>0.2129913012971088</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002878943334263552</v>
+        <v>0.2026794187906877</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00283117461987333</v>
+        <v>0.1947194998883561</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004427551972271902</v>
+        <v>0.2103139570578378</v>
       </c>
       <c r="P6" t="n">
-        <v>0.003069336737617768</v>
+        <v>0.1353282352278845</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002348986612784782</v>
+        <v>0.2247470308824332</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001890227316050914</v>
+        <v>0.201027562492619</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002286395505826853</v>
+        <v>0.1591283014440391</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003665215457836181</v>
+        <v>0.1605987629257226</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006657401136053009</v>
+        <v>0.2043892639148103</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003968721760757899</v>
+        <v>0.2352930448759083</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0003402758175256839</v>
+        <v>0.2134936054541034</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0006971242425638028</v>
+        <v>0.09942583856658434</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0003964505940240275</v>
+        <v>0.04427311719640545</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.423402004206862e-10</v>
+        <v>0.02661990526109105</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.918730019998744e-15</v>
+        <v>0.002074124007249865</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.944790086479113e-20</v>
+        <v>7.165179315267801e-05</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.478960705735831e-07</v>
       </c>
     </row>
     <row r="7">
@@ -3123,85 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1461606074064444</v>
+        <v>0.1423859535224696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1480838592420816</v>
+        <v>0.1403642522172802</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03960108657717823</v>
+        <v>0.1415556001247952</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01699767728075407</v>
+        <v>0.14820585358677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04855525979701233</v>
+        <v>0.1677875465899195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02532625336268233</v>
+        <v>0.1745704542093721</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005129709103031117</v>
+        <v>0.1851304807283707</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001930105339265581</v>
+        <v>0.1855411863788463</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002009213941512911</v>
+        <v>0.1530774521644946</v>
       </c>
       <c r="K7" t="n">
-        <v>6.177554477115937e-05</v>
+        <v>0.1455196522152803</v>
       </c>
       <c r="L7" t="n">
-        <v>2.912783982354926e-05</v>
+        <v>0.1283981837891719</v>
       </c>
       <c r="M7" t="n">
-        <v>1.034041179938489e-05</v>
+        <v>0.1265113299834601</v>
       </c>
       <c r="N7" t="n">
-        <v>1.585105412976362e-06</v>
+        <v>0.1176722760861018</v>
       </c>
       <c r="O7" t="n">
-        <v>1.746610707338006e-08</v>
+        <v>0.07725941551863261</v>
       </c>
       <c r="P7" t="n">
-        <v>1.696204135377289e-08</v>
+        <v>0.1711865113110904</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.061634785966258e-09</v>
+        <v>0.0520839630356932</v>
       </c>
       <c r="R7" t="n">
-        <v>3.889910226337352e-10</v>
+        <v>0.04167784308867512</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62836673765961e-11</v>
+        <v>0.03922953256356573</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58030362440706e-12</v>
+        <v>0.01938277487703572</v>
       </c>
       <c r="U7" t="n">
-        <v>1.044260598140292e-13</v>
+        <v>0.005986459614086773</v>
       </c>
       <c r="V7" t="n">
-        <v>1.999622315287433e-13</v>
+        <v>0.001365660954614572</v>
       </c>
       <c r="W7" t="n">
-        <v>1.146160050215111e-13</v>
+        <v>0.0009254154463610359</v>
       </c>
       <c r="X7" t="n">
-        <v>1.429976503871981e-18</v>
+        <v>0.001159763947921785</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.757373990787718e-20</v>
+        <v>0.0002278281323045798</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.359144570840742e-21</v>
+        <v>2.256670220426421e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.86918992563953e-23</v>
+        <v>1.071783674724235e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.906058730496028e-26</v>
+        <v>1.418251435856415e-05</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.337472374547274e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3211,85 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1290392259229607</v>
+        <v>0.1461479157673469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1213574445758517</v>
+        <v>0.1565175962655663</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02332971629394062</v>
+        <v>0.152224481156993</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008539950052703915</v>
+        <v>0.1585066863184709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0254477728707104</v>
+        <v>0.1928565367485978</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009756209705878958</v>
+        <v>0.1984012621521985</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001403378307720283</v>
+        <v>0.2107918564120484</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00218981738232142</v>
+        <v>0.1957138157858551</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003125810664500843</v>
+        <v>0.2115099191238898</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003324425797234559</v>
+        <v>0.2104549003090216</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003167827424280746</v>
+        <v>0.2132815182013964</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003016830890707372</v>
+        <v>0.2032827639920514</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002994021993064698</v>
+        <v>0.1956198912395343</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00449552862964058</v>
+        <v>0.2117952453036155</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003294250044330182</v>
+        <v>0.1388356704268712</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002621883837521983</v>
+        <v>0.2265851514637454</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002193060082766558</v>
+        <v>0.2058866969997271</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002407561452748058</v>
+        <v>0.1672741281476768</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002857546934324521</v>
+        <v>0.1550965569996328</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003528139729181981</v>
+        <v>0.2329088197159948</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00063755293813804</v>
+        <v>0.2515702863796737</v>
       </c>
       <c r="W8" t="n">
-        <v>1.923616902609544e-05</v>
+        <v>0.1662551029352216</v>
       </c>
       <c r="X8" t="n">
-        <v>4.259907966043648e-05</v>
+        <v>0.04022732895662887</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.906185329711302e-05</v>
+        <v>0.01875746472219408</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.33790045874865e-11</v>
+        <v>0.01202318342141689</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.052591660413584e-15</v>
+        <v>0.0009960312114759963</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.512034735768079e-21</v>
+        <v>3.688215457646853e-05</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.319671470064074e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3313,84 +3409,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -3401,85 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1470071711739475</v>
+        <v>0.1434457055646654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1479760738930732</v>
+        <v>0.1450396244104849</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1300413375626949</v>
+        <v>0.1441926152452316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1803191854462687</v>
+        <v>0.1345392380432187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1983661669947703</v>
+        <v>0.1203083229423599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2201502463538932</v>
+        <v>0.1508124629331365</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2356525413329186</v>
+        <v>0.1782431909980626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1723726472790363</v>
+        <v>0.1683104684038907</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09067894669398269</v>
+        <v>0.1703488567770298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04370517222916222</v>
+        <v>0.1880252435812622</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07873124844250937</v>
+        <v>0.1931075479933145</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05665340156502558</v>
+        <v>0.1865624159196393</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04996800156061296</v>
+        <v>0.2060269071529587</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01955179176126422</v>
+        <v>0.2151600825593517</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01479122118266755</v>
+        <v>0.2128068442445977</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004934379501342665</v>
+        <v>0.1271414383679482</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006732396561160096</v>
+        <v>0.100732718473944</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000935108049024459</v>
+        <v>0.07076740675949096</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001630559666167102</v>
+        <v>0.1491745482994978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001054259253209441</v>
+        <v>0.1066678567268088</v>
       </c>
       <c r="V2" t="n">
-        <v>8.814346368317011e-06</v>
+        <v>0.1360303963934893</v>
       </c>
       <c r="W2" t="n">
-        <v>6.923145736752509e-07</v>
+        <v>0.1014236611007783</v>
       </c>
       <c r="X2" t="n">
-        <v>1.82553820272982e-08</v>
+        <v>0.07570208008221016</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.044872517508133e-12</v>
+        <v>0.006680723756814325</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.182575973803971e-16</v>
+        <v>0.004422553104222758</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.915518558970569e-19</v>
+        <v>6.825116810586695e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.158074114641181e-25</v>
+        <v>3.242188915885355e-05</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.2521211872492e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3489,85 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1215534242472723</v>
+        <v>0.1415905541424912</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1081905027981169</v>
+        <v>0.1353287922124777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1552591797964715</v>
+        <v>0.1398816756664836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08007786670990465</v>
+        <v>0.1571756976609889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0204101879238215</v>
+        <v>0.1813743905518221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02511435525485949</v>
+        <v>0.1365477630544493</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01032857671921</v>
+        <v>0.08501086432257496</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000843914202345438</v>
+        <v>0.1092783267647314</v>
       </c>
       <c r="J3" t="n">
-        <v>7.922847906112585e-05</v>
+        <v>0.1443481237835434</v>
       </c>
       <c r="K3" t="n">
-        <v>7.627607653497465e-06</v>
+        <v>0.06910178646914494</v>
       </c>
       <c r="L3" t="n">
-        <v>1.091892379037222e-05</v>
+        <v>0.1059360138863293</v>
       </c>
       <c r="M3" t="n">
-        <v>5.856002724623294e-07</v>
+        <v>0.04186888833847448</v>
       </c>
       <c r="N3" t="n">
-        <v>8.518683523486931e-08</v>
+        <v>0.0373113488385771</v>
       </c>
       <c r="O3" t="n">
-        <v>2.083729717526641e-09</v>
+        <v>0.01910357273513747</v>
       </c>
       <c r="P3" t="n">
-        <v>2.467272311394585e-10</v>
+        <v>0.008053450353045315</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.508725964456369e-12</v>
+        <v>0.001058772921992355</v>
       </c>
       <c r="R3" t="n">
-        <v>7.228075199236225e-14</v>
+        <v>0.0003159110099101108</v>
       </c>
       <c r="S3" t="n">
-        <v>2.336927230975145e-14</v>
+        <v>6.237090904552012e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>5.249312705367801e-17</v>
+        <v>0.0002041288432964192</v>
       </c>
       <c r="U3" t="n">
-        <v>2.700373416119706e-18</v>
+        <v>2.559419494877949e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>7.947844721342813e-21</v>
+        <v>1.120559061831506e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.576468238121397e-23</v>
+        <v>3.553392324067793e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>1.441762406647151e-25</v>
+        <v>6.555876721095857e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.362404120095676e-29</v>
+        <v>1.558862883958698e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.628048172552052e-33</v>
+        <v>6.139419148847367e-10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.811134043507586e-36</v>
+        <v>4.211583982255387e-12</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.321798338455345e-42</v>
+        <v>4.539353321561198e-13</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.259329695874809e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3577,85 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1215533984953097</v>
+        <v>0.1415905516533542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1081904647719936</v>
+        <v>0.1353287812314073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1552589528522844</v>
+        <v>0.1398816699823345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08007894783498774</v>
+        <v>0.1571755296027644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02041076593741208</v>
+        <v>0.1813739843574231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02511517244284571</v>
+        <v>0.1365482498473624</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01032907981106318</v>
+        <v>0.08501165022471686</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01424749852776264</v>
+        <v>0.10927916808604</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01504105640197968</v>
+        <v>0.08958116868322201</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01480419394107283</v>
+        <v>0.1204714173278562</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01563947623973697</v>
+        <v>0.09705481507247811</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0160006962173199</v>
+        <v>0.136390302120244</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01693746062978389</v>
+        <v>0.1318825745233915</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01575741160953026</v>
+        <v>0.1428730924893321</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01670974096749161</v>
+        <v>0.1544233307217227</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01537181925428387</v>
+        <v>0.1769598822457076</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01089183283672383</v>
+        <v>0.1836619843357811</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00723674255839517</v>
+        <v>0.1888052150379355</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00731469966270921</v>
+        <v>0.1334802274425023</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004250859928442418</v>
+        <v>0.1426167981049968</v>
       </c>
       <c r="V4" t="n">
-        <v>0.003722178700791847</v>
+        <v>0.1107249170251671</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002507553882156533</v>
+        <v>0.113277681051966</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002196401118873925</v>
+        <v>0.09141018253656247</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002258010097938472</v>
+        <v>0.1117886755149458</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.004540945351350059</v>
+        <v>0.1026939346229844</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004445529975202766</v>
+        <v>0.1212127691678031</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.00506964457880084</v>
+        <v>0.08787468639339366</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.08717800417460191</v>
       </c>
     </row>
     <row r="5">
@@ -3665,85 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1215437048260722</v>
+        <v>0.1415896145763215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1081761511438801</v>
+        <v>0.1353246474993013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1552400514261489</v>
+        <v>0.1398795301055801</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08004825302054688</v>
+        <v>0.1571759515740146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02039765661040432</v>
+        <v>0.1813781820390272</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02509719004755026</v>
+        <v>0.1365375516631156</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0103187663567464</v>
+        <v>0.0849965485512252</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00844662085048547</v>
+        <v>0.1092627082296062</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004353431352566367</v>
+        <v>0.1111652953391083</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002056070738550287</v>
+        <v>0.1218718166014478</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003730724591093764</v>
+        <v>0.1259506600264147</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002636508706440888</v>
+        <v>0.1204087004274143</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002344760202609313</v>
+        <v>0.1331990014562342</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009408021702315316</v>
+        <v>0.139452782451583</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0007220672226452458</v>
+        <v>0.1384860375603532</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000247985957690198</v>
+        <v>0.08399704999356997</v>
       </c>
       <c r="R5" t="n">
-        <v>3.503050185112496e-05</v>
+        <v>0.06708079966152558</v>
       </c>
       <c r="S5" t="n">
-        <v>5.067767488879852e-05</v>
+        <v>0.04764656875944303</v>
       </c>
       <c r="T5" t="n">
-        <v>1.559326593499164e-05</v>
+        <v>0.08693879386108737</v>
       </c>
       <c r="U5" t="n">
-        <v>1.37550163447078e-05</v>
+        <v>0.07162724548369825</v>
       </c>
       <c r="V5" t="n">
-        <v>2.326437886112335e-06</v>
+        <v>0.09323895892974746</v>
       </c>
       <c r="W5" t="n">
-        <v>3.471211173684731e-07</v>
+        <v>0.07741658452500376</v>
       </c>
       <c r="X5" t="n">
-        <v>2.163520648929845e-08</v>
+        <v>0.06887749712971829</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.72024177457257e-11</v>
+        <v>0.008690519025051241</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.46872284461777e-15</v>
+        <v>0.009741730344868308</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.290966128455407e-18</v>
+        <v>0.0002024937913310522</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.720099650663207e-25</v>
+        <v>0.0001750125150892318</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.691058191806286e-07</v>
       </c>
     </row>
     <row r="6">
@@ -3753,85 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1775076466972995</v>
+        <v>0.1445562768194249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2009239849847679</v>
+        <v>0.1543538941467761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1471016753859521</v>
+        <v>0.146900505164038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2131208114418566</v>
+        <v>0.1307509651884797</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2851188481863252</v>
+        <v>0.1088486761766953</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2580664679132521</v>
+        <v>0.1455132685679023</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2655944253376672</v>
+        <v>0.1948719391281669</v>
       </c>
       <c r="I6" t="n">
-        <v>0.394410933684372</v>
+        <v>0.1687983557451674</v>
       </c>
       <c r="J6" t="n">
-        <v>0.446985941446445</v>
+        <v>0.134783672672615</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4743858204880634</v>
+        <v>0.1842899831648245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.453618414852789</v>
+        <v>0.1441664644661664</v>
       </c>
       <c r="M6" t="n">
-        <v>0.465371334605954</v>
+        <v>0.2111362678254374</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4659500630316356</v>
+        <v>0.1993467554018393</v>
       </c>
       <c r="O6" t="n">
-        <v>0.485523919923101</v>
+        <v>0.2126350331306942</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4842124042347458</v>
+        <v>0.2276173064335669</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4920406720454631</v>
+        <v>0.305209181960701</v>
       </c>
       <c r="R6" t="n">
-        <v>0.508667691347319</v>
+        <v>0.3260563692499244</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6002161598049486</v>
+        <v>0.349871401143058</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5843743645165899</v>
+        <v>0.3550893826656972</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6749385656780308</v>
+        <v>0.3821303351338364</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6709642834780211</v>
+        <v>0.4015649781155011</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6926100221172299</v>
+        <v>0.4319414880125946</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6770563905547392</v>
+        <v>0.4984981949868431</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6845030999909205</v>
+        <v>0.5773648642905317</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7691379699923103</v>
+        <v>0.5735764242921354</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7869551291396015</v>
+        <v>0.5911947796238778</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9113190444991791</v>
+        <v>0.5715506644890033</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.61938013056994</v>
       </c>
     </row>
     <row r="7">
@@ -3841,85 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1350559114958516</v>
+        <v>0.1427112189862459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1287605902552837</v>
+        <v>0.1407454710357813</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11142436109102</v>
+        <v>0.1424656911807151</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1554483787643676</v>
+        <v>0.1323384128155456</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1745765719264139</v>
+        <v>0.1175544150387737</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1905832070425346</v>
+        <v>0.1483567172112467</v>
       </c>
       <c r="H7" t="n">
-        <v>0.203873504160251</v>
+        <v>0.1774728956855612</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01932667162763767</v>
+        <v>0.1662461210173315</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002684588720991617</v>
+        <v>0.2147123006512443</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000367479548916493</v>
+        <v>0.1317828702278743</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006210591441797007</v>
+        <v>0.1891816656119148</v>
       </c>
       <c r="M7" t="n">
-        <v>6.933225517283401e-05</v>
+        <v>0.09248066344089011</v>
       </c>
       <c r="N7" t="n">
-        <v>1.41013797522103e-05</v>
+        <v>0.09251844396650423</v>
       </c>
       <c r="O7" t="n">
-        <v>5.254401353036698e-07</v>
+        <v>0.05713790089478205</v>
       </c>
       <c r="P7" t="n">
-        <v>8.452027687162806e-08</v>
+        <v>0.02940099363545156</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.696605318449589e-09</v>
+        <v>0.004929043474379037</v>
       </c>
       <c r="R7" t="n">
-        <v>4.533824648418101e-11</v>
+        <v>0.001749718077526371</v>
       </c>
       <c r="S7" t="n">
-        <v>1.820377811855136e-11</v>
+        <v>0.0004280490195130738</v>
       </c>
       <c r="T7" t="n">
-        <v>5.940714601727786e-14</v>
+        <v>0.001436531055677683</v>
       </c>
       <c r="U7" t="n">
-        <v>3.944683817352794e-15</v>
+        <v>0.0002338143619410251</v>
       </c>
       <c r="V7" t="n">
-        <v>1.431899058800299e-17</v>
+        <v>0.0001245726955694764</v>
       </c>
       <c r="W7" t="n">
-        <v>9.711933694122547e-20</v>
+        <v>4.380127383059189e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>3.294667165653209e-22</v>
+        <v>9.451872287521983e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.544620602984996e-26</v>
+        <v>2.482870284937168e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.548115345839199e-29</v>
+        <v>1.224549085533698e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.729526400064256e-33</v>
+        <v>8.841305652348474e-11</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.113010697256545e-38</v>
+        <v>1.036782780916807e-11</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.935675506414396e-14</v>
       </c>
     </row>
     <row r="8">
@@ -3929,85 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1757787430642473</v>
+        <v>0.1445160782574969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1977822321528847</v>
+        <v>0.1538787894637713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1456744418854281</v>
+        <v>0.1467983126556173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2109065567820678</v>
+        <v>0.130844205114988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2807198024208526</v>
+        <v>0.1091620288938985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2558733609450646</v>
+        <v>0.1456839867227872</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2639031062821436</v>
+        <v>0.1943929110896921</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3903517138283603</v>
+        <v>0.1688248517532327</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4401768069049735</v>
+        <v>0.1350605820932369</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4646736354465812</v>
+        <v>0.18445688262759</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4476481578059009</v>
+        <v>0.1446028329433821</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4592681410498144</v>
+        <v>0.2111527619279004</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4647855280087707</v>
+        <v>0.1997149686604949</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4782255470120079</v>
+        <v>0.2136375357391195</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4835644816254456</v>
+        <v>0.2292120370512626</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4874051405391061</v>
+        <v>0.3007046310357017</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4797322056125793</v>
+        <v>0.3204024991913884</v>
       </c>
       <c r="S8" t="n">
-        <v>0.391561311894516</v>
+        <v>0.3424189883715139</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4081322865880896</v>
+        <v>0.2736763878322413</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3206913934518572</v>
+        <v>0.2966983559937701</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3253023970369328</v>
+        <v>0.2583049712499071</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3048813845649225</v>
+        <v>0.2758932306435026</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3207471684357984</v>
+        <v>0.2655019378047063</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3132388898858937</v>
+        <v>0.2954749535369997</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2263210846563375</v>
+        <v>0.3095653447763562</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2085993408851957</v>
+        <v>0.2873217061562575</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.08361131092202001</v>
+        <v>0.3403672147025332</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.2934409709374896</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +4141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4031,84 +4151,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -4119,85 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1470970021421319</v>
+        <v>0.1438571018314236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1456427082231492</v>
+        <v>0.1429338074984082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1921872405447589</v>
+        <v>0.1435183675918884</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2122557974687697</v>
+        <v>0.1670360303317848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2019408396724596</v>
+        <v>0.1713956630002454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2463843597194691</v>
+        <v>0.1761045775381996</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2641442592198781</v>
+        <v>0.1782985333252542</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3090635219983597</v>
+        <v>0.1423504308111281</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3922262837574193</v>
+        <v>0.1397894743064249</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4617829317311887</v>
+        <v>0.1487355158853498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5919210246777988</v>
+        <v>0.158177304781827</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3379629449898912</v>
+        <v>0.1439802600656083</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2025394871561031</v>
+        <v>0.1454840587880351</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06340948720749913</v>
+        <v>0.1012191475153961</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09879308415796978</v>
+        <v>0.05306385455605892</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005404253977477222</v>
+        <v>0.08332286531634864</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003280044857872907</v>
+        <v>0.07640517703582612</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007352597788801837</v>
+        <v>0.03577206163982849</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02086230095529506</v>
+        <v>0.01268265558171052</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0002471296109833279</v>
+        <v>0.006790177229116619</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23748416083732e-05</v>
+        <v>0.004469875607839264</v>
       </c>
       <c r="W2" t="n">
-        <v>7.95374967306086e-07</v>
+        <v>0.004702071144522333</v>
       </c>
       <c r="X2" t="n">
-        <v>1.149747718008036e-07</v>
+        <v>0.003400908403353334</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.745180870522505e-07</v>
+        <v>0.0008467091610225886</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.560247110343473e-09</v>
+        <v>0.0002116249984898734</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.328575661861071e-10</v>
+        <v>3.830527051578102e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.149047040175749e-12</v>
+        <v>9.032992241965032e-06</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.231360601479173e-08</v>
       </c>
     </row>
     <row r="3">
@@ -4207,85 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1297116949374955</v>
+        <v>0.1400483366610866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.141454043819325</v>
+        <v>0.144139451548914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07175751028930902</v>
+        <v>0.143123392713584</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02856215665716166</v>
+        <v>0.1036036742034358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006278064867885113</v>
+        <v>0.1005155109861772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04390696632507302</v>
+        <v>0.09715160475151756</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007802465297768827</v>
+        <v>0.1005405871409816</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007576007886076123</v>
+        <v>0.1654294169275915</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002315290668935926</v>
+        <v>0.2268561060070506</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003947178952007645</v>
+        <v>0.2179377183679843</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001410360179854205</v>
+        <v>0.2109997186857708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005367385784353911</v>
+        <v>0.2755329068798169</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006215481447869623</v>
+        <v>0.2840848764343553</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007329115972323462</v>
+        <v>0.3833462591916947</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004616881485100461</v>
+        <v>0.4883172534047873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006230167687123079</v>
+        <v>0.4184446703157913</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005078544202860444</v>
+        <v>0.4216479891632222</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00335413371789167</v>
+        <v>0.4860831622784039</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002336043821735818</v>
+        <v>0.5564219118756921</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002761498529829374</v>
+        <v>0.5663073805775269</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004221307571145486</v>
+        <v>0.561980306957979</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005436638850096201</v>
+        <v>0.533520005684477</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005121840939486624</v>
+        <v>0.5203124226669199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002810796511258227</v>
+        <v>0.5366028531880074</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002553538598027726</v>
+        <v>0.5740674390292576</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001882281215628836</v>
+        <v>0.5785520235121426</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001565400411652165</v>
+        <v>0.6087012568868372</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6351372512729219</v>
       </c>
     </row>
     <row r="4">
@@ -4295,85 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.129711674828161</v>
+        <v>0.1400483320289438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1414540351049774</v>
+        <v>0.1441394520969586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07175851867299381</v>
+        <v>0.143123390947821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02856290102273714</v>
+        <v>0.1036042025045443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006278318707389269</v>
+        <v>0.100516215696083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04390843901569727</v>
+        <v>0.09715250424610505</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007802938042184376</v>
+        <v>0.1005416931688677</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006043800875005501</v>
+        <v>0.1654305912972752</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007799031167493025</v>
+        <v>0.1240227388038469</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003986688928698209</v>
+        <v>0.1177259956223321</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004191876807351442</v>
+        <v>0.1089204092064054</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004365602985917013</v>
+        <v>0.07088691943090629</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0001297682421771788</v>
+        <v>0.05569629716986282</v>
       </c>
       <c r="O4" t="n">
-        <v>1.226610887644682e-05</v>
+        <v>0.02873374537667113</v>
       </c>
       <c r="P4" t="n">
-        <v>1.063577571246299e-05</v>
+        <v>0.009528311298750675</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.009158126204818e-08</v>
+        <v>0.0149896437601987</v>
       </c>
       <c r="R4" t="n">
-        <v>1.196845970978774e-08</v>
+        <v>0.008879814601388366</v>
       </c>
       <c r="S4" t="n">
-        <v>3.849233391517754e-09</v>
+        <v>0.001387228412641432</v>
       </c>
       <c r="T4" t="n">
-        <v>9.645189488780473e-10</v>
+        <v>0.0002442708523990946</v>
       </c>
       <c r="U4" t="n">
-        <v>6.539002918313752e-14</v>
+        <v>4.552618576800072e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>4.174376376911642e-16</v>
+        <v>1.050979091675563e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.122003931229559e-18</v>
+        <v>2.937500300847964e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>1.351986314322589e-20</v>
+        <v>5.486650228523576e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.026938548262442e-22</v>
+        <v>1.397319116470855e-08</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.996147153822906e-27</v>
+        <v>7.774888785485159e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.097415441770009e-31</v>
+        <v>3.38940174032063e-12</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.307766763822203e-37</v>
+        <v>7.68828925934689e-14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.506977906471043e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4383,85 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1297041047900027</v>
+        <v>0.1400465882461689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1414507540618771</v>
+        <v>0.1441396582726141</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07173892369819845</v>
+        <v>0.1431227260313617</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02854910636614622</v>
+        <v>0.1035944618088605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006273709929452679</v>
+        <v>0.1005034055090312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04388149310073165</v>
+        <v>0.0971363046754508</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007794462369315619</v>
+        <v>0.1005218659550401</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008039785911421626</v>
+        <v>0.1654092510483129</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01014752964575039</v>
+        <v>0.1634968718660388</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01216212614825734</v>
+        <v>0.1742836688690322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01558170142186489</v>
+        <v>0.1857870001578673</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009269488855131196</v>
+        <v>0.1704413582854081</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005467669816821519</v>
+        <v>0.1730184134835464</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001669466370202549</v>
+        <v>0.1195822137349822</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002579197151577007</v>
+        <v>0.06207384440530003</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001338540058358066</v>
+        <v>0.0977094552334597</v>
       </c>
       <c r="R5" t="n">
-        <v>7.984156886691758e-05</v>
+        <v>0.08898829243277388</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001489370759036358</v>
+        <v>0.04090628146244456</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0003456386929864273</v>
+        <v>0.01282876167244359</v>
       </c>
       <c r="U5" t="n">
-        <v>1.506816414896488e-06</v>
+        <v>0.005909358897807483</v>
       </c>
       <c r="V5" t="n">
-        <v>5.218959167803066e-08</v>
+        <v>0.003389363958858485</v>
       </c>
       <c r="W5" t="n">
-        <v>2.202740595174883e-09</v>
+        <v>0.003114440712076479</v>
       </c>
       <c r="X5" t="n">
-        <v>1.762106563327141e-10</v>
+        <v>0.001921190187956051</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.342396860305336e-10</v>
+        <v>0.0003238205452848561</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.797497292301095e-13</v>
+        <v>6.244814728795802e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.765457967503743e-14</v>
+        <v>5.780114692183746e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.142346874443271e-16</v>
+        <v>9.70242666841328e-07</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.461808076667607e-10</v>
       </c>
     </row>
     <row r="6">
@@ -4471,85 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1624957759307934</v>
+        <v>0.1469495405906156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1424873705554625</v>
+        <v>0.1404212384983645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1996539841145946</v>
+        <v>0.1416654184664373</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2433888834088148</v>
+        <v>0.1769788369410597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2857539085336156</v>
+        <v>0.1773183148683181</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1887198400284181</v>
+        <v>0.1777380491046433</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2236209643039653</v>
+        <v>0.1707065898057918</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1629188033332603</v>
+        <v>0.1103968623548297</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2063188463302899</v>
+        <v>0.07995470358410327</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09404044671672049</v>
+        <v>0.07449234291560815</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09441068327263964</v>
+        <v>0.06740092348241826</v>
       </c>
       <c r="M6" t="n">
-        <v>0.007959590526534884</v>
+        <v>0.04196841970940155</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001890686284551705</v>
+        <v>0.03169876049659626</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001284972849330227</v>
+        <v>0.01508288378487189</v>
       </c>
       <c r="P6" t="n">
-        <v>9.008263388447786e-05</v>
+        <v>0.004406169697003259</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.262745995652083e-07</v>
+        <v>0.006631257784946475</v>
       </c>
       <c r="R6" t="n">
-        <v>4.042766214890804e-08</v>
+        <v>0.003337921191246723</v>
       </c>
       <c r="S6" t="n">
-        <v>3.064116676152282e-08</v>
+        <v>0.000350352406332246</v>
       </c>
       <c r="T6" t="n">
-        <v>1.935996287414659e-08</v>
+        <v>7.474483020154798e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>4.194113689892322e-12</v>
+        <v>1.945734212905675e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>4.702321737239411e-14</v>
+        <v>6.368554971771549e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.004151262196681e-16</v>
+        <v>2.923821675642789e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>9.811613974419861e-19</v>
+        <v>8.833830915755253e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.072786599383576e-20</v>
+        <v>2.36209287487736e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.566720805856655e-25</v>
+        <v>1.36067515606336e-09</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.080025489391525e-29</v>
+        <v>6.313798071022318e-12</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.889606004124412e-35</v>
+        <v>1.529302887478279e-13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.689139439428832e-17</v>
       </c>
     </row>
     <row r="7">
@@ -4559,85 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1395264001620909</v>
+        <v>0.1422443943383971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1446857097470447</v>
+        <v>0.143644604635865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1929843837455215</v>
+        <v>0.1436329318384772</v>
       </c>
       <c r="E7" t="n">
-        <v>0.215536079118008</v>
+        <v>0.1683667797809429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2095989764775106</v>
+        <v>0.1724454347938271</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2420632331212094</v>
+        <v>0.1768386786542517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2628036258051031</v>
+        <v>0.1782501539817504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3408794771053654</v>
+        <v>0.1395874870265792</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1713234148060755</v>
+        <v>0.1850000389095322</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3276223914252776</v>
+        <v>0.191366635690217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1953114155605624</v>
+        <v>0.2003278345962854</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6306861353987281</v>
+        <v>0.2544711257765422</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7817112450044662</v>
+        <v>0.2776581057122455</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9273054123677938</v>
+        <v>0.3364583716311046</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8938046594440683</v>
+        <v>0.3779759992086912</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9882311586460024</v>
+        <v>0.3718731001839261</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9915614630367547</v>
+        <v>0.3971147461154075</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9891442713485694</v>
+        <v>0.4350968446867005</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9764559874267257</v>
+        <v>0.4176718991771624</v>
       </c>
       <c r="U7" t="n">
-        <v>0.99698986503767</v>
+        <v>0.4209123006605704</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9957662653976005</v>
+        <v>0.4301394673990697</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9945625635721954</v>
+        <v>0.4586562571695693</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9948780439095308</v>
+        <v>0.4743637458550054</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9971889287364151</v>
+        <v>0.462226571185848</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.9974464588413454</v>
+        <v>0.4256584851953911</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.998117718451496</v>
+        <v>0.4214038910905615</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9984345995801986</v>
+        <v>0.3912887398779638</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3648626654672913</v>
       </c>
     </row>
     <row r="8">
@@ -4647,85 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1617533472093246</v>
+        <v>0.1468057063033644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1428253784881642</v>
+        <v>0.1405817874488755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1999194389346237</v>
+        <v>0.1418137724104304</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2431450759583626</v>
+        <v>0.176816014429372</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2838761818116871</v>
+        <v>0.177305455146318</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1911356686894014</v>
+        <v>0.1778782810298318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2260312849617848</v>
+        <v>0.1711405766223139</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1654786028905114</v>
+        <v>0.1113959605342834</v>
       </c>
       <c r="J8" t="n">
-        <v>0.209869603624036</v>
+        <v>0.08088006652300316</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0964582360978499</v>
+        <v>0.0754581226494765</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09717293807992865</v>
+        <v>0.0683868090894257</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008317894146768886</v>
+        <v>0.04271900985231671</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002045662048010747</v>
+        <v>0.0323594879153587</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001457546883714063</v>
+        <v>0.01557737876527931</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001054593516875306</v>
+        <v>0.004634567429408781</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.893173807014557e-07</v>
+        <v>0.007029007405329128</v>
       </c>
       <c r="R8" t="n">
-        <v>5.393752320183114e-08</v>
+        <v>0.003626059460135308</v>
       </c>
       <c r="S8" t="n">
-        <v>2.557843330832792e-08</v>
+        <v>0.0004040691136487288</v>
       </c>
       <c r="T8" t="n">
-        <v>8.778775184928139e-09</v>
+        <v>7.575601039096345e-05</v>
       </c>
       <c r="U8" t="n">
-        <v>8.429110907570307e-13</v>
+        <v>1.57991070813959e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>6.478772843706594e-15</v>
+        <v>4.107730365135239e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.218185441339e-17</v>
+        <v>1.363967378528974e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>2.355420990717224e-19</v>
+        <v>3.008386506956569e-07</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.055773534278303e-20</v>
+        <v>8.325717246610189e-09</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.286622838093365e-25</v>
+        <v>4.914093993495682e-10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.345674031446469e-29</v>
+        <v>2.384556652584887e-12</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.267384772195806e-35</v>
+        <v>6.045358258032777e-14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.828232723932539e-18</v>
       </c>
     </row>
   </sheetData>
@@ -4739,7 +4883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4749,84 +4893,87 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="D1" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="J1" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="K1" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="L1" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="M1" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="N1" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="O1" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="P1" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="R1" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="S1" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="T1" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="U1" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="V1" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="W1" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="X1" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="Y1" s="2" t="n">
         <v>2046</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Z1" s="2" t="n">
         <v>2047</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="AA1" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AB1" s="2" t="n">
         <v>2049</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AC1" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -4837,85 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1436677389508098</v>
+        <v>0.1408174797177558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1446114936469385</v>
+        <v>0.1409473355914236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1376555457596775</v>
+        <v>0.1432934431584857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1925359687642219</v>
+        <v>0.1608854801213938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2199652330611108</v>
+        <v>0.1586308658104768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2271823009563988</v>
+        <v>0.1789042539609433</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2372895734903359</v>
+        <v>0.1964910959822878</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2941974270865443</v>
+        <v>0.196585319596062</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2979638941665031</v>
+        <v>0.1988533818865336</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3625102699710043</v>
+        <v>0.2137566951802229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1829050332539615</v>
+        <v>0.1798556660293706</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1180626282140189</v>
+        <v>0.2209094803399632</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1589664059599722</v>
+        <v>0.2164505833055579</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04521124609019989</v>
+        <v>0.2239041912282472</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01629772153582915</v>
+        <v>0.2112588647296258</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007831382605478854</v>
+        <v>0.1388969560207387</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00332122716455374</v>
+        <v>0.129807018136665</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0006034607039608433</v>
+        <v>0.2518267895414678</v>
       </c>
       <c r="T2" t="n">
-        <v>3.725498590280051e-05</v>
+        <v>0.2077957651694869</v>
       </c>
       <c r="U2" t="n">
-        <v>2.308075923065664e-05</v>
+        <v>0.1471330024651658</v>
       </c>
       <c r="V2" t="n">
-        <v>4.981477713269668e-07</v>
+        <v>0.089614602251492</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76980462294028e-08</v>
+        <v>0.2358552097319818</v>
       </c>
       <c r="X2" t="n">
-        <v>4.768389613998138e-09</v>
+        <v>0.06983342088885594</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.974771275244478e-13</v>
+        <v>0.007449744306019462</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.265877607225275e-17</v>
+        <v>6.581994708809014e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.129317839700648e-21</v>
+        <v>5.557973250684453e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.019151702178139e-26</v>
+        <v>1.531803158470014e-08</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.149670543105268e-11</v>
       </c>
     </row>
     <row r="3">
@@ -4925,85 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1435650195217678</v>
+        <v>0.1497950236372783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1441750099643081</v>
+        <v>0.1501237770166882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1650697465663758</v>
+        <v>0.1429212179933845</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09273597814722249</v>
+        <v>0.1147431210642265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01458363470762193</v>
+        <v>0.1234403001175925</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008656625641311573</v>
+        <v>0.08975459086463208</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004154897219224447</v>
+        <v>0.04048446499618407</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003325374880309173</v>
+        <v>0.05785328730563131</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005972609367897256</v>
+        <v>0.02196763914846397</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001289916517611833</v>
+        <v>0.01987654769991753</v>
       </c>
       <c r="L3" t="n">
-        <v>1.031161106703765e-05</v>
+        <v>0.007444722517890189</v>
       </c>
       <c r="M3" t="n">
-        <v>1.446433277116599e-06</v>
+        <v>0.018318085482088</v>
       </c>
       <c r="N3" t="n">
-        <v>5.337612877238791e-07</v>
+        <v>0.009979385532940491</v>
       </c>
       <c r="O3" t="n">
-        <v>2.688323641846754e-09</v>
+        <v>0.005493764524139599</v>
       </c>
       <c r="P3" t="n">
-        <v>1.373938959884813e-10</v>
+        <v>0.002414703294641755</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.709659627847083e-12</v>
+        <v>0.0002374152703867495</v>
       </c>
       <c r="R3" t="n">
-        <v>2.181182451515589e-13</v>
+        <v>0.0001364401987554957</v>
       </c>
       <c r="S3" t="n">
-        <v>2.052670943121842e-15</v>
+        <v>0.0008919593301279117</v>
       </c>
       <c r="T3" t="n">
-        <v>1.136560399611157e-17</v>
+        <v>0.0001770522106318008</v>
       </c>
       <c r="U3" t="n">
-        <v>1.186571106062146e-18</v>
+        <v>2.204548515176817e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>9.727801787577417e-22</v>
+        <v>2.559833644822413e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.89683097400969e-24</v>
+        <v>4.877857049497592e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>1.671228531248506e-25</v>
+        <v>2.091064823013202e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.163660190484752e-29</v>
+        <v>8.44953735796886e-09</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.508325512387105e-33</v>
+        <v>7.87831289098884e-13</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.100814388292172e-37</v>
+        <v>8.590020898584442e-15</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.062732752569837e-41</v>
+        <v>1.588752761756286e-17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.814468073738538e-20</v>
       </c>
     </row>
     <row r="4">
@@ -5013,85 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1435650176243976</v>
+        <v>0.1497950338565511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1441750056779304</v>
+        <v>0.1501237869963245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1650702428949882</v>
+        <v>0.1429212167601739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09273744873907185</v>
+        <v>0.1147435689340516</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01458415004052757</v>
+        <v>0.1234408645866053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0086570028750121</v>
+        <v>0.08975544917493143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004155130070106126</v>
+        <v>0.04048517749845771</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00372427837368073</v>
+        <v>0.05785422871060608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001801705094684788</v>
+        <v>0.07198563110506645</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005224581508298271</v>
+        <v>0.07097980419617311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006466125359778404</v>
+        <v>0.08186029659333136</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006803165929435725</v>
+        <v>0.07080105111381532</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007512775158575504</v>
+        <v>0.07658484291764826</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007194694395417562</v>
+        <v>0.08013779123706327</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00634804652853777</v>
+        <v>0.08498014159604764</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006278671105091014</v>
+        <v>0.09167071509591931</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00631123753156928</v>
+        <v>0.0938248643488151</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007499750691885221</v>
+        <v>0.08862167416596518</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01190552263071568</v>
+        <v>0.09533501709276129</v>
       </c>
       <c r="U4" t="n">
-        <v>0.008744855028244347</v>
+        <v>0.1049707137015157</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0104056574116728</v>
+        <v>0.1140309667128115</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01255058169006239</v>
+        <v>0.05388876475449115</v>
       </c>
       <c r="X4" t="n">
-        <v>0.008932053036996929</v>
+        <v>0.08276083039346765</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.008740710282830536</v>
+        <v>0.1009822727901657</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00899869277248555</v>
+        <v>0.1019587345217805</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03641451012239995</v>
+        <v>0.08773998521930362</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0002396390545593983</v>
+        <v>0.1089169232222993</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.04743055796177131</v>
       </c>
     </row>
     <row r="5">
@@ -5101,85 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.143564303095897</v>
+        <v>0.1497988808277732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1441733915159998</v>
+        <v>0.1501275436790484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1650595665928608</v>
+        <v>0.1429207523982434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09271061580029136</v>
+        <v>0.1147353479105319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01457496559738801</v>
+        <v>0.1234305748902349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008650304549625959</v>
+        <v>0.08974013708316643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004151010259584564</v>
+        <v>0.04047258340635561</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005085085218742164</v>
+        <v>0.05783757321178511</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005241537574800294</v>
+        <v>0.05808897842251887</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006178465942221878</v>
+        <v>0.06251197341700758</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003040461013899646</v>
+        <v>0.05212460231716689</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001929617310711248</v>
+        <v>0.06462316969923818</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00259786180144849</v>
+        <v>0.0630372476347526</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0007650903472881401</v>
+        <v>0.06533683757767823</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0002818873177134544</v>
+        <v>0.06192109798127557</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001385770383337722</v>
+        <v>0.04126852633443134</v>
       </c>
       <c r="R5" t="n">
-        <v>6.04224451358e-05</v>
+        <v>0.03870156242216602</v>
       </c>
       <c r="S5" t="n">
-        <v>1.752135707435603e-05</v>
+        <v>0.0739648428721978</v>
       </c>
       <c r="T5" t="n">
-        <v>1.812457526639627e-06</v>
+        <v>0.06760751622353914</v>
       </c>
       <c r="U5" t="n">
-        <v>1.421240785412678e-06</v>
+        <v>0.05546033696820654</v>
       </c>
       <c r="V5" t="n">
-        <v>7.162676667043226e-08</v>
+        <v>0.0403830035424326</v>
       </c>
       <c r="W5" t="n">
-        <v>4.320293406028058e-09</v>
+        <v>0.09504948920672426</v>
       </c>
       <c r="X5" t="n">
-        <v>2.163349918787965e-09</v>
+        <v>0.03934191937092071</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.976863754031467e-13</v>
+        <v>0.005492713776118255</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.43966728497391e-17</v>
+        <v>0.0001670373874202491</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.139326301587278e-21</v>
+        <v>2.933940951421878e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.099548856538564e-26</v>
+        <v>9.696044246455079e-08</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.007730178767399e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5189,85 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1406981105398097</v>
+        <v>0.1322933290954603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1385741296676319</v>
+        <v>0.1315479828100875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1148048665528478</v>
+        <v>0.1422756771632329</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1678931759267391</v>
+        <v>0.1666843047080758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2550760929534066</v>
+        <v>0.1561261736711766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2564372640355379</v>
+        <v>0.1859838400550743</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2528251350804215</v>
+        <v>0.241218326827799</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2155608242640076</v>
+        <v>0.2156659374988975</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09499011583141601</v>
+        <v>0.2731567518734622</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2944300630030033</v>
+        <v>0.2652424186087631</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4011745210829599</v>
+        <v>0.3164827242246659</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4359852761001197</v>
+        <v>0.2626712954592011</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4096695509005026</v>
+        <v>0.2847612239997234</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4724479474665142</v>
+        <v>0.2910973329262239</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4925983459236034</v>
+        <v>0.3082079353999269</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4960522863054712</v>
+        <v>0.3638225734834739</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4960311578130845</v>
+        <v>0.3687296250342331</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4416610169727886</v>
+        <v>0.2832675226183517</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3034533365493068</v>
+        <v>0.3095578000536288</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3532753773286236</v>
+        <v>0.3393474901984515</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2625115946247404</v>
+        <v>0.3661322770814761</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1629605023013545</v>
+        <v>0.3722162414691089</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1556744440534919</v>
+        <v>0.4474272972392759</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1560396801943377</v>
+        <v>0.5030709089883366</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1626334901352189</v>
+        <v>0.5099143757858073</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2809290340154406</v>
+        <v>0.4990386330738376</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.09865971320551593</v>
+        <v>0.5241381068261798</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.4819848028857015</v>
       </c>
     </row>
     <row r="7">
@@ -5277,85 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1440156905058493</v>
+        <v>0.1447734510250641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1452574945941989</v>
+        <v>0.1450890994888219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136638605530202</v>
+        <v>0.1433066735839021</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1923000118941363</v>
+        <v>0.1616135235399417</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2262803270095609</v>
+        <v>0.1586327287016867</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2336960894797468</v>
+        <v>0.1799401003633513</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2435994396403686</v>
+        <v>0.2008619378104524</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2608658091612725</v>
+        <v>0.198897113889063</v>
       </c>
       <c r="J7" t="n">
-        <v>0.497653294792474</v>
+        <v>0.1035832790264441</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03416148089630233</v>
+        <v>0.1028594196896774</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003977845354693127</v>
+        <v>0.04707292881902846</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0007930261689014628</v>
+        <v>0.1003286361516366</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0003978674522938649</v>
+        <v>0.0648008787231111</v>
       </c>
       <c r="O7" t="n">
-        <v>3.702558262614712e-06</v>
+        <v>0.042144324554596</v>
       </c>
       <c r="P7" t="n">
-        <v>2.481721113417066e-07</v>
+        <v>0.02180818217671983</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.673786115990083e-08</v>
+        <v>0.003136811315844595</v>
       </c>
       <c r="R7" t="n">
-        <v>7.593198504767805e-10</v>
+        <v>0.001976548012117692</v>
       </c>
       <c r="S7" t="n">
-        <v>9.270382014271202e-12</v>
+        <v>0.01105853246562087</v>
       </c>
       <c r="T7" t="n">
-        <v>6.062325865501796e-14</v>
+        <v>0.002765650727187484</v>
       </c>
       <c r="U7" t="n">
-        <v>7.667477108689237e-15</v>
+        <v>0.0004447604595610161</v>
       </c>
       <c r="V7" t="n">
-        <v>7.315939666669107e-18</v>
+        <v>6.380089456732613e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.156049832972675e-20</v>
+        <v>0.0001355804120179405</v>
       </c>
       <c r="X7" t="n">
-        <v>1.598091069317189e-21</v>
+        <v>6.971169550662546e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.03992550449485e-25</v>
+        <v>3.034697431930695e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.288993994887447e-29</v>
+        <v>3.665589191217555e-11</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.364235508347038e-34</v>
+        <v>4.490753865189202e-13</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.694276153606944e-38</v>
+        <v>8.489959490437627e-16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3.177810652694523e-18</v>
       </c>
     </row>
     <row r="8">
@@ -5365,85 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1409241197614686</v>
+        <v>0.1327268018401171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1390334749329924</v>
+        <v>0.1320404744176058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1157014261030477</v>
+        <v>0.1423610189425775</v>
       </c>
       <c r="E8" t="n">
-        <v>0.169086800728317</v>
+        <v>0.1665946537217788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2549355966303842</v>
+        <v>0.1562984922222271</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2567204124623668</v>
+        <v>0.1859216284979013</v>
       </c>
       <c r="H8" t="n">
-        <v>0.253824814239959</v>
+        <v>0.2399864134784634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2172412010154434</v>
+        <v>0.2153065397879549</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0963768431722247</v>
+        <v>0.2723643385375108</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2973661470274087</v>
+        <v>0.2647731412082384</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4024257023236404</v>
+        <v>0.3151590594985466</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4364248398435359</v>
+        <v>0.2623482817540576</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4208550049659196</v>
+        <v>0.2843858378862663</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4743773164539939</v>
+        <v>0.2918857579520518</v>
       </c>
       <c r="P8" t="n">
-        <v>0.484473750384811</v>
+        <v>0.3094090748217625</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4896990662010544</v>
+        <v>0.3609670024792054</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4942759542861186</v>
+        <v>0.3668239418472475</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5502182502650185</v>
+        <v>0.2903686790062688</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6846020733764873</v>
+        <v>0.3167611985227646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6379552656431082</v>
+        <v>0.3526216507219476</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7270821781890487</v>
+        <v>0.3897727896835758</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8244888939902435</v>
+        <v>0.2428498365686265</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8353934959777717</v>
+        <v>0.3606293518314468</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8352196095218366</v>
+        <v>0.3830040482200796</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8283678170922953</v>
+        <v>0.3878940323204599</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6826564558621595</v>
+        <v>0.4131864843236363</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.9011006477399246</v>
+        <v>0.3669448576730459</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.4705846384702574</v>
       </c>
     </row>
   </sheetData>
